--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25525"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Downloads\eps-1.4.3-canada-WiPA\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_FEDBF57F26C151275FA8ACEF3943606B8D1A340A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CD46879-EA66-49AA-A6D4-A073952CC6CB}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_FEDBF57F26C151275FA8ACEF3943606B8D1A340A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE71C559-CEA1-46EC-9405-0C2B96FA3A5D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="19440" windowHeight="11040" tabRatio="742" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19440" windowHeight="11040" tabRatio="742" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="285">
   <si>
     <t>SYFAFE Start Year Fleet Avg Fuel Economy</t>
   </si>
@@ -2329,7 +2329,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2764,6 +2764,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="31">
@@ -3396,7 +3403,7 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3487,6 +3494,7 @@
     <xf numFmtId="0" fontId="66" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="66" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="66" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="70" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5303,10 +5311,10 @@
     </row>
     <row r="4" spans="1:32" ht="15"/>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -5339,8 +5347,8 @@
       <c r="AF5" s="38"/>
     </row>
     <row r="6" spans="1:32" ht="15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -5373,10 +5381,10 @@
       <c r="AF6" s="38"/>
     </row>
     <row r="7" spans="1:32" ht="15.75">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -5409,10 +5417,10 @@
       <c r="AF7" s="38"/>
     </row>
     <row r="8" spans="1:32" ht="15.75">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -5445,8 +5453,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32" ht="15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -5479,8 +5487,8 @@
       <c r="AF9" s="38"/>
     </row>
     <row r="10" spans="1:32" ht="15.75">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="21"/>
@@ -5513,8 +5521,8 @@
       <c r="AF10" s="38"/>
     </row>
     <row r="11" spans="1:32" ht="15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="33">
         <v>1990</v>
       </c>
@@ -5605,8 +5613,8 @@
       <c r="AF11" s="38"/>
     </row>
     <row r="12" spans="1:32" ht="15">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -6333,8 +6341,8 @@
       <c r="AF20" s="38"/>
     </row>
     <row r="21" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -6967,8 +6975,8 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
@@ -7131,8 +7139,8 @@
       <c r="AF31" s="38"/>
     </row>
     <row r="32" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -7259,8 +7267,8 @@
       <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -7293,8 +7301,8 @@
       <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32" ht="15">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -8021,8 +8029,8 @@
       <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -8655,8 +8663,8 @@
       <c r="AF51" s="38"/>
     </row>
     <row r="52" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
@@ -8783,8 +8791,8 @@
       <c r="AF53" s="38"/>
     </row>
     <row r="54" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
@@ -8817,10 +8825,10 @@
       <c r="AF54" s="38"/>
     </row>
     <row r="55" spans="1:32" ht="15.75">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -8853,8 +8861,8 @@
       <c r="AF55" s="38"/>
     </row>
     <row r="56" spans="1:32" ht="15">
-      <c r="A56" s="62"/>
-      <c r="B56" s="62"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -8887,8 +8895,8 @@
       <c r="AF56" s="38"/>
     </row>
     <row r="57" spans="1:32" ht="15.75">
-      <c r="A57" s="62"/>
-      <c r="B57" s="62"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="21"/>
@@ -8921,8 +8929,8 @@
       <c r="AF57" s="38"/>
     </row>
     <row r="58" spans="1:32" ht="15">
-      <c r="A58" s="62"/>
-      <c r="B58" s="62"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="33">
         <v>1990</v>
       </c>
@@ -9013,8 +9021,8 @@
       <c r="AF58" s="38"/>
     </row>
     <row r="59" spans="1:32" ht="15">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
@@ -9741,8 +9749,8 @@
       <c r="AF67" s="38"/>
     </row>
     <row r="68" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A68" s="62"/>
-      <c r="B68" s="62"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
@@ -10375,8 +10383,8 @@
       <c r="AF75" s="38"/>
     </row>
     <row r="76" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A76" s="62"/>
-      <c r="B76" s="62"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
@@ -10539,8 +10547,8 @@
       <c r="AF78" s="38"/>
     </row>
     <row r="79" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -10667,8 +10675,8 @@
       <c r="AF80" s="38"/>
     </row>
     <row r="81" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A81" s="62"/>
-      <c r="B81" s="62"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -10701,8 +10709,8 @@
       <c r="AF81" s="38"/>
     </row>
     <row r="82" spans="1:32" ht="15">
-      <c r="A82" s="62"/>
-      <c r="B82" s="62"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -11429,8 +11437,8 @@
       <c r="AF90" s="38"/>
     </row>
     <row r="91" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A91" s="62"/>
-      <c r="B91" s="62"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -12063,8 +12071,8 @@
       <c r="AF98" s="38"/>
     </row>
     <row r="99" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A99" s="62"/>
-      <c r="B99" s="62"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="63"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38"/>
@@ -12191,8 +12199,8 @@
       <c r="AF100" s="38"/>
     </row>
     <row r="101" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A101" s="62"/>
-      <c r="B101" s="62"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38"/>
@@ -12225,10 +12233,10 @@
       <c r="AF101" s="38"/>
     </row>
     <row r="102" spans="1:32" ht="15.75">
-      <c r="A102" s="60" t="s">
+      <c r="A102" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B102" s="60"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
@@ -12261,8 +12269,8 @@
       <c r="AF102" s="38"/>
     </row>
     <row r="103" spans="1:32" ht="15">
-      <c r="A103" s="62"/>
-      <c r="B103" s="62"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="63"/>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
@@ -12295,8 +12303,8 @@
       <c r="AF103" s="38"/>
     </row>
     <row r="104" spans="1:32" ht="15.75">
-      <c r="A104" s="62"/>
-      <c r="B104" s="62"/>
+      <c r="A104" s="63"/>
+      <c r="B104" s="63"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="21"/>
@@ -12329,8 +12337,8 @@
       <c r="AF104" s="38"/>
     </row>
     <row r="105" spans="1:32" ht="15">
-      <c r="A105" s="62"/>
-      <c r="B105" s="62"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="63"/>
       <c r="C105" s="33">
         <v>1990</v>
       </c>
@@ -12421,8 +12429,8 @@
       <c r="AF105" s="38"/>
     </row>
     <row r="106" spans="1:32" ht="15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="59"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
@@ -13243,8 +13251,8 @@
       <c r="AF115" s="38"/>
     </row>
     <row r="116" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A116" s="62"/>
-      <c r="B116" s="62"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="63"/>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -13971,8 +13979,8 @@
       <c r="AF124" s="38"/>
     </row>
     <row r="125" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A125" s="62"/>
-      <c r="B125" s="62"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -14135,8 +14143,8 @@
       <c r="AF127" s="38"/>
     </row>
     <row r="128" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A128" s="59"/>
-      <c r="B128" s="59"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
@@ -14263,8 +14271,8 @@
       <c r="AF129" s="38"/>
     </row>
     <row r="130" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A130" s="62"/>
-      <c r="B130" s="62"/>
+      <c r="A130" s="63"/>
+      <c r="B130" s="63"/>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
@@ -14297,8 +14305,8 @@
       <c r="AF130" s="38"/>
     </row>
     <row r="131" spans="1:32" ht="15">
-      <c r="A131" s="62"/>
-      <c r="B131" s="62"/>
+      <c r="A131" s="63"/>
+      <c r="B131" s="63"/>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38"/>
@@ -15119,8 +15127,8 @@
       <c r="AF140" s="38"/>
     </row>
     <row r="141" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A141" s="62"/>
-      <c r="B141" s="62"/>
+      <c r="A141" s="63"/>
+      <c r="B141" s="63"/>
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
@@ -15847,8 +15855,8 @@
       <c r="AF149" s="38"/>
     </row>
     <row r="150" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A150" s="59"/>
-      <c r="B150" s="59"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="60"/>
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
@@ -15975,8 +15983,8 @@
       <c r="AF151" s="38"/>
     </row>
     <row r="152" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A152" s="62"/>
-      <c r="B152" s="62"/>
+      <c r="A152" s="63"/>
+      <c r="B152" s="63"/>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="38"/>
@@ -16009,8 +16017,8 @@
       <c r="AF152" s="38"/>
     </row>
     <row r="153" spans="1:32" ht="15">
-      <c r="A153" s="62"/>
-      <c r="B153" s="62"/>
+      <c r="A153" s="63"/>
+      <c r="B153" s="63"/>
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38"/>
@@ -16137,8 +16145,8 @@
       <c r="AF154" s="38"/>
     </row>
     <row r="155" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A155" s="62"/>
-      <c r="B155" s="62"/>
+      <c r="A155" s="63"/>
+      <c r="B155" s="63"/>
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38"/>
@@ -16171,10 +16179,10 @@
       <c r="AF155" s="38"/>
     </row>
     <row r="156" spans="1:32" ht="15.75">
-      <c r="A156" s="60" t="s">
+      <c r="A156" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="B156" s="60"/>
+      <c r="B156" s="61"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
@@ -16207,8 +16215,8 @@
       <c r="AF156" s="38"/>
     </row>
     <row r="157" spans="1:32" ht="15">
-      <c r="A157" s="62"/>
-      <c r="B157" s="62"/>
+      <c r="A157" s="63"/>
+      <c r="B157" s="63"/>
       <c r="C157" s="38"/>
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
@@ -16241,8 +16249,8 @@
       <c r="AF157" s="38"/>
     </row>
     <row r="158" spans="1:32" ht="15.75">
-      <c r="A158" s="62"/>
-      <c r="B158" s="62"/>
+      <c r="A158" s="63"/>
+      <c r="B158" s="63"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="21"/>
@@ -16275,8 +16283,8 @@
       <c r="AF158" s="38"/>
     </row>
     <row r="159" spans="1:32" ht="15">
-      <c r="A159" s="62"/>
-      <c r="B159" s="62"/>
+      <c r="A159" s="63"/>
+      <c r="B159" s="63"/>
       <c r="C159" s="33">
         <v>1990</v>
       </c>
@@ -16367,8 +16375,8 @@
       <c r="AF159" s="38"/>
     </row>
     <row r="160" spans="1:32" ht="15">
-      <c r="A160" s="62"/>
-      <c r="B160" s="62"/>
+      <c r="A160" s="63"/>
+      <c r="B160" s="63"/>
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38"/>
@@ -17471,8 +17479,8 @@
       <c r="AF172" s="38"/>
     </row>
     <row r="173" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A173" s="62"/>
-      <c r="B173" s="62"/>
+      <c r="A173" s="63"/>
+      <c r="B173" s="63"/>
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38"/>
@@ -18481,8 +18489,8 @@
       <c r="AF184" s="38"/>
     </row>
     <row r="185" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A185" s="62"/>
-      <c r="B185" s="62"/>
+      <c r="A185" s="63"/>
+      <c r="B185" s="63"/>
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38"/>
@@ -18645,8 +18653,8 @@
       <c r="AF187" s="38"/>
     </row>
     <row r="188" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A188" s="62"/>
-      <c r="B188" s="62"/>
+      <c r="A188" s="63"/>
+      <c r="B188" s="63"/>
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38"/>
@@ -18773,8 +18781,8 @@
       <c r="AF189" s="38"/>
     </row>
     <row r="190" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A190" s="62"/>
-      <c r="B190" s="62"/>
+      <c r="A190" s="63"/>
+      <c r="B190" s="63"/>
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38"/>
@@ -18807,8 +18815,8 @@
       <c r="AF190" s="38"/>
     </row>
     <row r="191" spans="1:32" ht="15">
-      <c r="A191" s="62"/>
-      <c r="B191" s="62"/>
+      <c r="A191" s="63"/>
+      <c r="B191" s="63"/>
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38"/>
@@ -19911,8 +19919,8 @@
       <c r="AF203" s="38"/>
     </row>
     <row r="204" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A204" s="62"/>
-      <c r="B204" s="62"/>
+      <c r="A204" s="63"/>
+      <c r="B204" s="63"/>
       <c r="C204" s="38"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
@@ -20921,8 +20929,8 @@
       <c r="AF215" s="38"/>
     </row>
     <row r="216" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A216" s="62"/>
-      <c r="B216" s="62"/>
+      <c r="A216" s="63"/>
+      <c r="B216" s="63"/>
       <c r="C216" s="38"/>
       <c r="D216" s="38"/>
       <c r="E216" s="38"/>
@@ -21049,8 +21057,8 @@
       <c r="AF217" s="38"/>
     </row>
     <row r="218" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A218" s="62"/>
-      <c r="B218" s="62"/>
+      <c r="A218" s="63"/>
+      <c r="B218" s="63"/>
       <c r="C218" s="38"/>
       <c r="D218" s="38"/>
       <c r="E218" s="38"/>
@@ -21083,8 +21091,8 @@
       <c r="AF218" s="38"/>
     </row>
     <row r="219" spans="1:32" ht="15">
-      <c r="A219" s="62"/>
-      <c r="B219" s="62"/>
+      <c r="A219" s="63"/>
+      <c r="B219" s="63"/>
       <c r="C219" s="38"/>
       <c r="D219" s="38"/>
       <c r="E219" s="38"/>
@@ -21436,16 +21444,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A116:B116"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A130:B130"/>
@@ -21458,42 +21492,16 @@
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22263,10 +22271,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -22276,10 +22284,9 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60.75">
+    <row r="1" spans="1:8" ht="60.75">
       <c r="A1" s="54" t="s">
         <v>281</v>
       </c>
@@ -22298,17 +22305,14 @@
       <c r="F1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>182</v>
+      <c r="G1" s="55" t="s">
+        <v>282</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="55" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -22332,17 +22336,14 @@
         <f>D2/(1-elec_reduction_LDVs)*elec_share+D2*(1-elec_share)*'Calibration Adjustments'!F19</f>
         <v>7.381902985186575E-4</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" s="56">
+        <v>2.764E-4</v>
       </c>
       <c r="H2" s="56">
-        <v>2.764E-4</v>
-      </c>
-      <c r="I2" s="56">
         <v>5.8730000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -22366,17 +22367,14 @@
         <f>(E3/(1-elec_reduction_HDVs)*elec_share+E3*(1-elec_share))*'Calibration Adjustments'!F20</f>
         <v>1.8268274642052693E-3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" s="56">
+        <v>8.9360000000000004E-4</v>
       </c>
       <c r="H3" s="56">
-        <v>8.9360000000000004E-4</v>
-      </c>
-      <c r="I3" s="56">
         <v>2.6809999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -22386,27 +22384,24 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="D4" s="58">
         <f>'Offroad Calcs'!AC19*'Calibration Adjustments'!G21</f>
         <v>4.2682634374225964E-4</v>
       </c>
-      <c r="H4" s="55">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="55">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56">
         <v>1.3240000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -22419,54 +22414,50 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="E5" s="27">
         <f>'Offroad Calcs'!AC20</f>
         <v>3.9643578055068024E-4</v>
       </c>
-      <c r="H5" s="55">
-        <v>0</v>
-      </c>
-      <c r="I5" s="56">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0</v>
+      </c>
+      <c r="H5" s="56">
         <v>1.273E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" t="s">
         <v>110</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="C6" s="58">
         <f>'Offroad Calcs'!AC21*'Calibration Adjustments'!G23</f>
         <v>2.3658615514138214E-4</v>
       </c>
-      <c r="H6" s="55">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56">
+      <c r="D6" s="27">
+        <f>'Offroad Calcs'!AC21*'Calibration Adjustments'!G23</f>
+        <v>2.3658615514138214E-4</v>
+      </c>
+      <c r="E6" s="58">
+        <f>'Offroad Calcs'!AC21*'Calibration Adjustments'!G23</f>
+        <v>2.3658615514138214E-4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56">
         <v>3.0150000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -22490,13 +22481,10 @@
         <f>(D7/(1-elec_reduction_LDVs)*elec_share+D7*(1-elec_share))*'Calibration Adjustments'!F24</f>
         <v>9.0917925765792611E-4</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" s="56">
+        <v>8.608E-4</v>
       </c>
       <c r="H7" s="56">
-        <v>8.608E-4</v>
-      </c>
-      <c r="I7" s="56">
         <v>3.3319999999999999E-3</v>
       </c>
     </row>
@@ -22510,10 +22498,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -22523,10 +22511,9 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5">
+    <row r="1" spans="1:8" ht="76.5">
       <c r="A1" s="54" t="s">
         <v>284</v>
       </c>
@@ -22545,17 +22532,14 @@
       <c r="F1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>182</v>
+      <c r="G1" s="55" t="s">
+        <v>282</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="55" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -22579,17 +22563,14 @@
         <f>(D2/(1-elec_reduction_LDVs)*elec_share+D2*(1-elec_share))*'Calibration Adjustments'!F28</f>
         <v>2.1138051771879866E-4</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" s="56">
+        <v>4.0200000000000001E-5</v>
       </c>
       <c r="H2" s="56">
-        <v>4.0200000000000001E-5</v>
-      </c>
-      <c r="I2" s="56">
         <v>2.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -22613,17 +22594,14 @@
         <f>(D3/(1-elec_reduction_HDVs)*elec_share+D3*(1-elec_share))*'Calibration Adjustments'!F29</f>
         <v>2.4630550327774494E-4</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" s="56">
+        <v>2.931E-3</v>
       </c>
       <c r="H3" s="56">
-        <v>2.931E-3</v>
-      </c>
-      <c r="I3" s="56">
         <v>2.761E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -22633,27 +22611,24 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="D4" s="58">
         <f>'Offroad Calcs'!AC25*'Calibration Adjustments'!G30</f>
         <v>2.6738421975899785E-4</v>
       </c>
-      <c r="H4" s="55">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="55">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56">
         <v>3.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -22666,54 +22641,50 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="E5" s="27">
         <f>'Offroad Calcs'!AC26*'Calibration Adjustments'!G31</f>
         <v>3.0368685326644003E-3</v>
       </c>
-      <c r="H5" s="55">
-        <v>0</v>
-      </c>
-      <c r="I5" s="56">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0</v>
+      </c>
+      <c r="H5" s="56">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" t="s">
         <v>110</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="C6" s="27">
         <f>'Offroad Calcs'!AC27*'Calibration Adjustments'!G32</f>
         <v>1.812351672230229E-3</v>
       </c>
-      <c r="H6" s="55">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <f>'Offroad Calcs'!AC27*'Calibration Adjustments'!G32</f>
+        <v>1.812351672230229E-3</v>
+      </c>
+      <c r="F6" s="27">
+        <f>'Offroad Calcs'!AC27*'Calibration Adjustments'!G32</f>
+        <v>1.812351672230229E-3</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56">
         <v>1.444E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -22732,17 +22703,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="55">
         <v>0</v>
       </c>
       <c r="H7" s="55">
         <v>0</v>
       </c>
-      <c r="I7" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8" ht="15">
       <c r="D14" s="27"/>
     </row>
   </sheetData>
@@ -22888,8 +22856,8 @@
       <c r="AC7" s="12"/>
     </row>
     <row r="8" spans="1:32" ht="43.5" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="17">
         <v>1990</v>
       </c>
@@ -22980,8 +22948,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32" ht="15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -24732,8 +24700,8 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32" ht="15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
@@ -25629,8 +25597,8 @@
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32" ht="15">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
@@ -25730,86 +25698,86 @@
       <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32" ht="15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
       <c r="AC44" s="38"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="38"/>
       <c r="AF44" s="38"/>
     </row>
     <row r="45" spans="1:32" ht="15">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="59"/>
       <c r="AC45" s="38"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32" ht="15">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
       <c r="AC46" s="38"/>
       <c r="AD46" s="38"/>
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
     </row>
     <row r="47" spans="1:32" ht="15">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="60"/>
       <c r="AC47" s="38"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32" ht="15">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="58"/>
+      <c r="B48" s="59"/>
       <c r="AC48" s="38"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
     </row>
     <row r="49" spans="1:32" ht="15">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="59"/>
       <c r="AC49" s="38"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32" ht="15">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="59"/>
       <c r="AC50" s="38"/>
       <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
     </row>
     <row r="51" spans="1:32" ht="15">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="58"/>
+      <c r="B51" s="59"/>
       <c r="AC51" s="38"/>
       <c r="AD51" s="38"/>
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
     </row>
     <row r="52" spans="1:32" ht="15">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="58"/>
+      <c r="B52" s="59"/>
       <c r="AC52" s="38"/>
       <c r="AD52" s="38"/>
       <c r="AE52" s="38"/>
@@ -25832,12 +25800,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
@@ -25845,6 +25807,12 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="50" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
@@ -25935,10 +25903,10 @@
       <c r="AC4" s="12"/>
     </row>
     <row r="5" spans="1:32" ht="15.75">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -25978,8 +25946,8 @@
       <c r="AF6" s="38"/>
     </row>
     <row r="7" spans="1:32" ht="15.75">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="19"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -26005,8 +25973,8 @@
       <c r="AF7" s="38"/>
     </row>
     <row r="8" spans="1:32" ht="42" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="17">
         <v>1990</v>
       </c>
@@ -26097,8 +26065,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32" ht="15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -27747,8 +27715,8 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32" ht="15">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
@@ -28427,8 +28395,8 @@
       <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32" ht="15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
@@ -28529,98 +28497,98 @@
       <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32" ht="15">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="38"/>
       <c r="AE41" s="38"/>
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32" ht="15">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="60"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="38"/>
       <c r="AE42" s="38"/>
       <c r="AF42" s="38"/>
     </row>
     <row r="43" spans="1:32" ht="15">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="59"/>
       <c r="AC43" s="12"/>
       <c r="AD43" s="38"/>
       <c r="AE43" s="38"/>
       <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32" ht="15">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="58"/>
+      <c r="B44" s="59"/>
       <c r="AC44" s="12"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="38"/>
       <c r="AF44" s="38"/>
     </row>
     <row r="45" spans="1:32" ht="15">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="59"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32" ht="15">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="58"/>
+      <c r="B46" s="59"/>
       <c r="AC46" s="12"/>
       <c r="AD46" s="38"/>
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
     </row>
     <row r="47" spans="1:32" ht="15">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="58"/>
+      <c r="B47" s="59"/>
       <c r="AC47" s="12"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32" ht="15">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="58"/>
+      <c r="B48" s="59"/>
       <c r="AC48" s="12"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
     </row>
     <row r="49" spans="1:32" ht="15">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="59"/>
       <c r="AC49" s="12"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32" ht="15">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="59"/>
       <c r="AC50" s="12"/>
       <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
@@ -28661,12 +28629,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
@@ -28677,6 +28639,12 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{4215E112-E9B1-4A1C-AA81-ED2108378386}"/>
@@ -28694,7 +28662,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE23" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B24" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -30670,7 +30638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
@@ -33549,10 +33517,10 @@
     </row>
     <row r="4" spans="1:32" ht="15"/>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -33585,8 +33553,8 @@
       <c r="AF5" s="38"/>
     </row>
     <row r="6" spans="1:32" ht="15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -33619,10 +33587,10 @@
       <c r="AF6" s="38"/>
     </row>
     <row r="7" spans="1:32" ht="15.75">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -33655,10 +33623,10 @@
       <c r="AF7" s="38"/>
     </row>
     <row r="8" spans="1:32" ht="15.75">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -33691,8 +33659,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32" ht="15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -33725,8 +33693,8 @@
       <c r="AF9" s="38"/>
     </row>
     <row r="10" spans="1:32" ht="15.75">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="21"/>
@@ -33759,8 +33727,8 @@
       <c r="AF10" s="38"/>
     </row>
     <row r="11" spans="1:32" ht="15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="33">
         <v>1990</v>
       </c>
@@ -33851,8 +33819,8 @@
       <c r="AF11" s="38"/>
     </row>
     <row r="12" spans="1:32" ht="15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -34391,8 +34359,8 @@
       <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -34837,8 +34805,8 @@
       <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -35001,8 +34969,8 @@
       <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -35129,8 +35097,8 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -35163,8 +35131,8 @@
       <c r="AF30" s="38"/>
     </row>
     <row r="31" spans="1:32" ht="15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -35703,8 +35671,8 @@
       <c r="AF37" s="38"/>
     </row>
     <row r="38" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
@@ -36149,8 +36117,8 @@
       <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -36277,8 +36245,8 @@
       <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
@@ -36311,10 +36279,10 @@
       <c r="AF46" s="38"/>
     </row>
     <row r="47" spans="1:32" ht="15.75">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="60"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -36347,8 +36315,8 @@
       <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32" ht="15">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
@@ -36381,8 +36349,8 @@
       <c r="AF48" s="38"/>
     </row>
     <row r="49" spans="1:32" ht="15.75">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="21"/>
@@ -36415,8 +36383,8 @@
       <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32" ht="15">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="33">
         <v>1990</v>
       </c>
@@ -36507,8 +36475,8 @@
       <c r="AF50" s="38"/>
     </row>
     <row r="51" spans="1:32" ht="15">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
@@ -37611,8 +37579,8 @@
       <c r="AF63" s="38"/>
     </row>
     <row r="64" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
@@ -38621,8 +38589,8 @@
       <c r="AF75" s="38"/>
     </row>
     <row r="76" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A76" s="62"/>
-      <c r="B76" s="62"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
@@ -38785,8 +38753,8 @@
       <c r="AF78" s="38"/>
     </row>
     <row r="79" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -38913,8 +38881,8 @@
       <c r="AF80" s="38"/>
     </row>
     <row r="81" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A81" s="63"/>
-      <c r="B81" s="63"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -38947,8 +38915,8 @@
       <c r="AF81" s="38"/>
     </row>
     <row r="82" spans="1:32" ht="15">
-      <c r="A82" s="62"/>
-      <c r="B82" s="62"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -40051,8 +40019,8 @@
       <c r="AF94" s="38"/>
     </row>
     <row r="95" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -41061,8 +41029,8 @@
       <c r="AF106" s="38"/>
     </row>
     <row r="107" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A107" s="58"/>
-      <c r="B107" s="58"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -41189,8 +41157,8 @@
       <c r="AF108" s="38"/>
     </row>
     <row r="109" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A109" s="62"/>
-      <c r="B109" s="62"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="63"/>
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
@@ -41223,10 +41191,10 @@
       <c r="AF109" s="38"/>
     </row>
     <row r="110" spans="1:32" ht="15">
-      <c r="A110" s="58" t="s">
+      <c r="A110" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B110" s="58"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
@@ -41259,8 +41227,8 @@
       <c r="AF110" s="38"/>
     </row>
     <row r="111" spans="1:32" ht="15">
-      <c r="A111" s="62"/>
-      <c r="B111" s="62"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
@@ -41293,10 +41261,10 @@
       <c r="AF111" s="38"/>
     </row>
     <row r="112" spans="1:32" ht="15.75">
-      <c r="A112" s="60" t="s">
+      <c r="A112" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="B112" s="60"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
@@ -41329,8 +41297,8 @@
       <c r="AF112" s="38"/>
     </row>
     <row r="113" spans="1:32" ht="15">
-      <c r="A113" s="62"/>
-      <c r="B113" s="62"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="63"/>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
@@ -41363,8 +41331,8 @@
       <c r="AF113" s="38"/>
     </row>
     <row r="114" spans="1:32" ht="15.75">
-      <c r="A114" s="62"/>
-      <c r="B114" s="62"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="21"/>
@@ -41397,8 +41365,8 @@
       <c r="AF114" s="38"/>
     </row>
     <row r="115" spans="1:32" ht="15">
-      <c r="A115" s="62"/>
-      <c r="B115" s="62"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="63"/>
       <c r="C115" s="33">
         <v>1990</v>
       </c>
@@ -41489,8 +41457,8 @@
       <c r="AF115" s="38"/>
     </row>
     <row r="116" spans="1:32" ht="15">
-      <c r="A116" s="62"/>
-      <c r="B116" s="62"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="63"/>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -42217,8 +42185,8 @@
       <c r="AF124" s="38"/>
     </row>
     <row r="125" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A125" s="62"/>
-      <c r="B125" s="62"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -42851,8 +42819,8 @@
       <c r="AF132" s="38"/>
     </row>
     <row r="133" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A133" s="62"/>
-      <c r="B133" s="62"/>
+      <c r="A133" s="63"/>
+      <c r="B133" s="63"/>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38"/>
@@ -43015,8 +42983,8 @@
       <c r="AF135" s="38"/>
     </row>
     <row r="136" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A136" s="62"/>
-      <c r="B136" s="62"/>
+      <c r="A136" s="63"/>
+      <c r="B136" s="63"/>
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38"/>
@@ -43143,8 +43111,8 @@
       <c r="AF137" s="38"/>
     </row>
     <row r="138" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A138" s="62"/>
-      <c r="B138" s="62"/>
+      <c r="A138" s="63"/>
+      <c r="B138" s="63"/>
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -43177,8 +43145,8 @@
       <c r="AF138" s="38"/>
     </row>
     <row r="139" spans="1:32" ht="15">
-      <c r="A139" s="62"/>
-      <c r="B139" s="62"/>
+      <c r="A139" s="63"/>
+      <c r="B139" s="63"/>
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
@@ -43905,8 +43873,8 @@
       <c r="AF147" s="38"/>
     </row>
     <row r="148" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A148" s="62"/>
-      <c r="B148" s="62"/>
+      <c r="A148" s="63"/>
+      <c r="B148" s="63"/>
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="38"/>
@@ -44539,8 +44507,8 @@
       <c r="AF155" s="38"/>
     </row>
     <row r="156" spans="1:32" ht="14.45" customHeight="1">
-      <c r="A156" s="62"/>
-      <c r="B156" s="62"/>
+      <c r="A156" s="63"/>
+      <c r="B156" s="63"/>
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
       <c r="E156" s="38"/>
@@ -44668,6 +44636,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
@@ -44680,37 +44679,6 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A148:B148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45049,10 +45017,10 @@
       <c r="AC4" s="20"/>
     </row>
     <row r="5" spans="1:33" ht="15.75">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -45083,16 +45051,16 @@
       <c r="AG5" s="38"/>
     </row>
     <row r="6" spans="1:33" ht="15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
     </row>
     <row r="7" spans="1:33" ht="15.75">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="19"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -45118,8 +45086,8 @@
       <c r="AG7" s="38"/>
     </row>
     <row r="8" spans="1:33" ht="45.75" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="17">
         <v>1990</v>
       </c>
@@ -45211,8 +45179,8 @@
       <c r="AG8" s="38"/>
     </row>
     <row r="9" spans="1:33" ht="15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -47055,8 +47023,8 @@
       <c r="AG36" s="38"/>
     </row>
     <row r="37" spans="1:33" ht="15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
       <c r="AD37" s="38"/>
       <c r="AE37" s="38"/>
       <c r="AF37" s="38"/>
@@ -47681,166 +47649,166 @@
       <c r="AG46" s="38"/>
     </row>
     <row r="47" spans="1:33" ht="15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
       <c r="AG47" s="38"/>
     </row>
     <row r="48" spans="1:33" ht="15">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="58"/>
+      <c r="B48" s="59"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
       <c r="AG48" s="38"/>
     </row>
     <row r="49" spans="1:33" ht="15">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="59"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
       <c r="AG49" s="38"/>
     </row>
     <row r="50" spans="1:33" ht="15">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="59"/>
       <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
       <c r="AG50" s="38"/>
     </row>
     <row r="51" spans="1:33" ht="15">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="58"/>
+      <c r="B51" s="59"/>
       <c r="AD51" s="38"/>
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
       <c r="AG51" s="38"/>
     </row>
     <row r="52" spans="1:33" ht="15">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
       <c r="AD52" s="38"/>
       <c r="AE52" s="38"/>
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
     </row>
     <row r="53" spans="1:33" ht="15">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="60"/>
       <c r="AD53" s="38"/>
       <c r="AE53" s="38"/>
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
     </row>
     <row r="54" spans="1:33" ht="15">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="58"/>
+      <c r="B54" s="59"/>
       <c r="AD54" s="38"/>
       <c r="AE54" s="38"/>
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
     </row>
     <row r="55" spans="1:33" ht="15">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="58"/>
+      <c r="B55" s="59"/>
       <c r="AD55" s="38"/>
       <c r="AE55" s="38"/>
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
     </row>
     <row r="56" spans="1:33" ht="15">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="58"/>
+      <c r="B56" s="59"/>
       <c r="AD56" s="38"/>
       <c r="AE56" s="38"/>
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
     </row>
     <row r="57" spans="1:33" ht="15">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="58"/>
+      <c r="B57" s="59"/>
       <c r="AD57" s="38"/>
       <c r="AE57" s="38"/>
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
     </row>
     <row r="58" spans="1:33" ht="15">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="58"/>
+      <c r="B58" s="59"/>
       <c r="AD58" s="38"/>
       <c r="AE58" s="38"/>
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
     </row>
     <row r="59" spans="1:33" ht="15">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="58"/>
+      <c r="B59" s="59"/>
       <c r="AD59" s="38"/>
       <c r="AE59" s="38"/>
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
     </row>
     <row r="60" spans="1:33" ht="15">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="58"/>
+      <c r="B60" s="59"/>
       <c r="AD60" s="38"/>
       <c r="AE60" s="38"/>
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
     </row>
     <row r="61" spans="1:33" ht="15">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="58"/>
+      <c r="B61" s="59"/>
       <c r="AD61" s="38"/>
       <c r="AE61" s="38"/>
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
     </row>
     <row r="62" spans="1:33" ht="15">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="B62" s="58"/>
+      <c r="B62" s="59"/>
       <c r="AD62" s="38"/>
       <c r="AE62" s="38"/>
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
     </row>
     <row r="63" spans="1:33" ht="15">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="58"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38"/>
@@ -47888,11 +47856,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -47905,12 +47874,11 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -47918,15 +47886,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -48186,6 +48145,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -48207,11 +48175,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D73F77-AB54-4E48-8354-CA6FB71EB254}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3FA65A-7C2E-45F9-A631-C955509FEBD0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3FA65A-7C2E-45F9-A631-C955509FEBD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D73F77-AB54-4E48-8354-CA6FB71EB254}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/SYFAFE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C6A25-B7C1-43E0-86CC-882F76FA974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{317C6A25-B7C1-43E0-86CC-882F76FA974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{722F1E61-B1B0-4AD1-90E3-B8C35A11FEDB}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="820" windowWidth="19050" windowHeight="12690" tabRatio="742" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="919" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -80,8 +80,164 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C17F907A-B3C6-492E-99E3-7B403A20B337}</author>
+    <author>tc={03335BD4-6E91-441B-BB18-C468F5CF9091}</author>
+    <author>tc={03781866-59B3-4923-B63B-5B1DA603A071}</author>
+    <author>tc={C7F84282-4995-4B7E-9A40-F1DCBBCE80A7}</author>
+    <author>tc={CEB127BE-974A-44C1-A5A4-F47C05E4C914}</author>
+    <author>tc={16F22C4A-D7EE-4D35-AD35-0E54D964FE86}</author>
+    <author>tc={19AB8AB3-6597-4772-8B96-7DA1AF58D356}</author>
+    <author>tc={F806F2A1-304C-4295-9AE3-908D376E5EEB}</author>
+    <author>tc={D9D7C9DF-9872-4A62-85AA-C577EDDAF656}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C17F907A-B3C6-492E-99E3-7B403A20B337}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously: 
+=('Freight Fleet Data'!AE17+'Freight Fleet Data'!AE18)*10^3</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{03335BD4-6E91-441B-BB18-C468F5CF9091}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously: 
+='Freight Energy Data'!AE27*'Freight Energy Data'!AE21/100/('Freight Energy Data'!AE27+'Freight Energy Data'!AE78)*SUM('Freight Fleet Data'!AE17:AE18)*10^3</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="2" shapeId="0" xr:uid="{03781866-59B3-4923-B63B-5B1DA603A071}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=B3-B4</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="3" shapeId="0" xr:uid="{C7F84282-4995-4B7E-9A40-F1DCBBCE80A7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+='Freight Energy Data'!AE15</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="4" shapeId="0" xr:uid="{CEB127BE-974A-44C1-A5A4-F47C05E4C914}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously: 
+='Freight Energy Data'!AE16+'Freight Energy Data'!AE52</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="5" shapeId="0" xr:uid="{16F22C4A-D7EE-4D35-AD35-0E54D964FE86}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=CONVERT(SUMPRODUCT('Freight Fleet Data'!AE17:AE18,'Freight Fleet Data'!AE21:AE22)/SUM('Freight Fleet Data'!AE17:AE18),"km","mi")</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="6" shapeId="0" xr:uid="{19AB8AB3-6597-4772-8B96-7DA1AF58D356}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=B12</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="7" shapeId="0" xr:uid="{F806F2A1-304C-4295-9AE3-908D376E5EEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=SUM('Freight Energy Data'!AE78,'Freight Energy Data'!AE27)*10^3/SUMPRODUCT('Freight Fleet Data'!AE17:AE18,'Freight Fleet Data'!AE21:AE22)</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="8" shapeId="0" xr:uid="{D9D7C9DF-9872-4A62-85AA-C577EDDAF656}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=B16</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F880DEE8-7BAB-42D2-883F-C7743ADE7553}</author>
+    <author>tc={5BBEDC4A-13C0-40F6-8B14-3C891C5AD16F}</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{F880DEE8-7BAB-42D2-883F-C7743ADE7553}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=D3*'Calibration Adjustments'!C20</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="1" shapeId="0" xr:uid="{5BBEDC4A-13C0-40F6-8B14-3C891C5AD16F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=D3</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1B324364-DA14-4442-9E57-8E7B9468C56C}</author>
+    <author>tc={BC2547AF-5763-4F65-87BC-7DB23B2B37E2}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{1B324364-DA14-4442-9E57-8E7B9468C56C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+='Onroad Calcs'!B20</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{BC2547AF-5763-4F65-87BC-7DB23B2B37E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously this row was zeroes.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="319">
   <si>
     <t>SYFAFE Start Year Fleet Avg Fuel Economy</t>
   </si>
@@ -2482,23 +2638,37 @@
   <si>
     <t>btus/cargo distance=1/fuel economy</t>
   </si>
+  <si>
+    <t>Start Year Fleet Average Fuel Economy (tonne-miles per BTU)</t>
+  </si>
+  <si>
+    <t>Annual Average Loading (tonnes/vehicle)</t>
+  </si>
+  <si>
+    <t>New MDV Handling Approach</t>
+  </si>
+  <si>
+    <t>Freight MDVs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="11">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="72">
+  <fonts count="74">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2948,6 +3118,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3384,33 +3567,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3542,7 +3725,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -3590,9 +3773,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3601,13 +3784,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3686,23 +3869,17 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="70" fillId="29" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3727,10 +3904,28 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="32" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="32" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="32" borderId="0" xfId="156" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="32" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="32" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="32" borderId="0" xfId="156" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="32" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="66" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="157">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4776,6 +4971,12 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andre Dixon" id="{95557556-8703-4CA4-ABDA-F9972C526E77}" userId="Andre Dixon" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5095,18 +5296,84 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2022-10-14T16:33:19.33" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{C17F907A-B3C6-492E-99E3-7B403A20B337}">
+    <text>Previously: 
+=('Freight Fleet Data'!AE17+'Freight Fleet Data'!AE18)*10^3</text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2022-10-14T16:36:57.62" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{03335BD4-6E91-441B-BB18-C468F5CF9091}">
+    <text>Previously: 
+='Freight Energy Data'!AE27*'Freight Energy Data'!AE21/100/('Freight Energy Data'!AE27+'Freight Energy Data'!AE78)*SUM('Freight Fleet Data'!AE17:AE18)*10^3</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2022-10-14T16:47:55.06" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{03781866-59B3-4923-B63B-5B1DA603A071}">
+    <text>Previously:
+=B3-B4</text>
+  </threadedComment>
+  <threadedComment ref="B8" dT="2022-10-14T16:48:08.88" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{C7F84282-4995-4B7E-9A40-F1DCBBCE80A7}">
+    <text>Previously:
+='Freight Energy Data'!AE15</text>
+  </threadedComment>
+  <threadedComment ref="B9" dT="2022-10-14T16:48:26.66" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{CEB127BE-974A-44C1-A5A4-F47C05E4C914}">
+    <text>Previously: 
+='Freight Energy Data'!AE16+'Freight Energy Data'!AE52</text>
+  </threadedComment>
+  <threadedComment ref="B12" dT="2022-10-14T16:48:56.20" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{16F22C4A-D7EE-4D35-AD35-0E54D964FE86}">
+    <text>Previously:
+=CONVERT(SUMPRODUCT('Freight Fleet Data'!AE17:AE18,'Freight Fleet Data'!AE21:AE22)/SUM('Freight Fleet Data'!AE17:AE18),"km","mi")</text>
+  </threadedComment>
+  <threadedComment ref="B13" dT="2022-10-14T16:49:13.45" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{19AB8AB3-6597-4772-8B96-7DA1AF58D356}">
+    <text>Previously:
+=B12</text>
+  </threadedComment>
+  <threadedComment ref="B16" dT="2022-10-14T16:49:26.72" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{F806F2A1-304C-4295-9AE3-908D376E5EEB}">
+    <text>Previously:
+=SUM('Freight Energy Data'!AE78,'Freight Energy Data'!AE27)*10^3/SUMPRODUCT('Freight Fleet Data'!AE17:AE18,'Freight Fleet Data'!AE21:AE22)</text>
+  </threadedComment>
+  <threadedComment ref="B17" dT="2022-10-14T16:49:45.45" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{D9D7C9DF-9872-4A62-85AA-C577EDDAF656}">
+    <text>Previously:
+=B16</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C3" dT="2022-10-14T16:16:33.44" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{F880DEE8-7BAB-42D2-883F-C7743ADE7553}">
+    <text>Previously:
+=D3*'Calibration Adjustments'!C20</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2022-10-14T16:12:03.53" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{5BBEDC4A-13C0-40F6-8B14-3C891C5AD16F}">
+    <text>Previously:
+=D3</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2022-10-17T12:49:55.77" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{1B324364-DA14-4442-9E57-8E7B9468C56C}">
+    <text>Previously:
+='Onroad Calcs'!B20</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-10-14T20:52:35.09" personId="{95557556-8703-4CA4-ABDA-F9972C526E77}" id="{BC2547AF-5763-4F65-87BC-7DB23B2B37E2}">
+    <text>Previously this row was zeroes.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" customWidth="1"/>
-    <col min="2" max="2" width="107.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="2" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5383,208 +5650,208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF223"/>
   <sheetViews>
-    <sheetView topLeftCell="V7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="46.54296875" customWidth="1"/>
-    <col min="20" max="29" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="20" max="29" width="9.21875" customWidth="1"/>
     <col min="257" max="257" width="3" customWidth="1"/>
-    <col min="258" max="258" width="46.54296875" customWidth="1"/>
-    <col min="276" max="285" width="9.1796875" customWidth="1"/>
+    <col min="258" max="258" width="46.5546875" customWidth="1"/>
+    <col min="276" max="285" width="9.21875" customWidth="1"/>
     <col min="513" max="513" width="3" customWidth="1"/>
-    <col min="514" max="514" width="46.54296875" customWidth="1"/>
-    <col min="532" max="541" width="9.1796875" customWidth="1"/>
+    <col min="514" max="514" width="46.5546875" customWidth="1"/>
+    <col min="532" max="541" width="9.21875" customWidth="1"/>
     <col min="769" max="769" width="3" customWidth="1"/>
-    <col min="770" max="770" width="46.54296875" customWidth="1"/>
-    <col min="788" max="797" width="9.1796875" customWidth="1"/>
+    <col min="770" max="770" width="46.5546875" customWidth="1"/>
+    <col min="788" max="797" width="9.21875" customWidth="1"/>
     <col min="1025" max="1025" width="3" customWidth="1"/>
-    <col min="1026" max="1026" width="46.54296875" customWidth="1"/>
-    <col min="1044" max="1053" width="9.1796875" customWidth="1"/>
+    <col min="1026" max="1026" width="46.5546875" customWidth="1"/>
+    <col min="1044" max="1053" width="9.21875" customWidth="1"/>
     <col min="1281" max="1281" width="3" customWidth="1"/>
-    <col min="1282" max="1282" width="46.54296875" customWidth="1"/>
-    <col min="1300" max="1309" width="9.1796875" customWidth="1"/>
+    <col min="1282" max="1282" width="46.5546875" customWidth="1"/>
+    <col min="1300" max="1309" width="9.21875" customWidth="1"/>
     <col min="1537" max="1537" width="3" customWidth="1"/>
-    <col min="1538" max="1538" width="46.54296875" customWidth="1"/>
-    <col min="1556" max="1565" width="9.1796875" customWidth="1"/>
+    <col min="1538" max="1538" width="46.5546875" customWidth="1"/>
+    <col min="1556" max="1565" width="9.21875" customWidth="1"/>
     <col min="1793" max="1793" width="3" customWidth="1"/>
-    <col min="1794" max="1794" width="46.54296875" customWidth="1"/>
-    <col min="1812" max="1821" width="9.1796875" customWidth="1"/>
+    <col min="1794" max="1794" width="46.5546875" customWidth="1"/>
+    <col min="1812" max="1821" width="9.21875" customWidth="1"/>
     <col min="2049" max="2049" width="3" customWidth="1"/>
-    <col min="2050" max="2050" width="46.54296875" customWidth="1"/>
-    <col min="2068" max="2077" width="9.1796875" customWidth="1"/>
+    <col min="2050" max="2050" width="46.5546875" customWidth="1"/>
+    <col min="2068" max="2077" width="9.21875" customWidth="1"/>
     <col min="2305" max="2305" width="3" customWidth="1"/>
-    <col min="2306" max="2306" width="46.54296875" customWidth="1"/>
-    <col min="2324" max="2333" width="9.1796875" customWidth="1"/>
+    <col min="2306" max="2306" width="46.5546875" customWidth="1"/>
+    <col min="2324" max="2333" width="9.21875" customWidth="1"/>
     <col min="2561" max="2561" width="3" customWidth="1"/>
-    <col min="2562" max="2562" width="46.54296875" customWidth="1"/>
-    <col min="2580" max="2589" width="9.1796875" customWidth="1"/>
+    <col min="2562" max="2562" width="46.5546875" customWidth="1"/>
+    <col min="2580" max="2589" width="9.21875" customWidth="1"/>
     <col min="2817" max="2817" width="3" customWidth="1"/>
-    <col min="2818" max="2818" width="46.54296875" customWidth="1"/>
-    <col min="2836" max="2845" width="9.1796875" customWidth="1"/>
+    <col min="2818" max="2818" width="46.5546875" customWidth="1"/>
+    <col min="2836" max="2845" width="9.21875" customWidth="1"/>
     <col min="3073" max="3073" width="3" customWidth="1"/>
-    <col min="3074" max="3074" width="46.54296875" customWidth="1"/>
-    <col min="3092" max="3101" width="9.1796875" customWidth="1"/>
+    <col min="3074" max="3074" width="46.5546875" customWidth="1"/>
+    <col min="3092" max="3101" width="9.21875" customWidth="1"/>
     <col min="3329" max="3329" width="3" customWidth="1"/>
-    <col min="3330" max="3330" width="46.54296875" customWidth="1"/>
-    <col min="3348" max="3357" width="9.1796875" customWidth="1"/>
+    <col min="3330" max="3330" width="46.5546875" customWidth="1"/>
+    <col min="3348" max="3357" width="9.21875" customWidth="1"/>
     <col min="3585" max="3585" width="3" customWidth="1"/>
-    <col min="3586" max="3586" width="46.54296875" customWidth="1"/>
-    <col min="3604" max="3613" width="9.1796875" customWidth="1"/>
+    <col min="3586" max="3586" width="46.5546875" customWidth="1"/>
+    <col min="3604" max="3613" width="9.21875" customWidth="1"/>
     <col min="3841" max="3841" width="3" customWidth="1"/>
-    <col min="3842" max="3842" width="46.54296875" customWidth="1"/>
-    <col min="3860" max="3869" width="9.1796875" customWidth="1"/>
+    <col min="3842" max="3842" width="46.5546875" customWidth="1"/>
+    <col min="3860" max="3869" width="9.21875" customWidth="1"/>
     <col min="4097" max="4097" width="3" customWidth="1"/>
-    <col min="4098" max="4098" width="46.54296875" customWidth="1"/>
-    <col min="4116" max="4125" width="9.1796875" customWidth="1"/>
+    <col min="4098" max="4098" width="46.5546875" customWidth="1"/>
+    <col min="4116" max="4125" width="9.21875" customWidth="1"/>
     <col min="4353" max="4353" width="3" customWidth="1"/>
-    <col min="4354" max="4354" width="46.54296875" customWidth="1"/>
-    <col min="4372" max="4381" width="9.1796875" customWidth="1"/>
+    <col min="4354" max="4354" width="46.5546875" customWidth="1"/>
+    <col min="4372" max="4381" width="9.21875" customWidth="1"/>
     <col min="4609" max="4609" width="3" customWidth="1"/>
-    <col min="4610" max="4610" width="46.54296875" customWidth="1"/>
-    <col min="4628" max="4637" width="9.1796875" customWidth="1"/>
+    <col min="4610" max="4610" width="46.5546875" customWidth="1"/>
+    <col min="4628" max="4637" width="9.21875" customWidth="1"/>
     <col min="4865" max="4865" width="3" customWidth="1"/>
-    <col min="4866" max="4866" width="46.54296875" customWidth="1"/>
-    <col min="4884" max="4893" width="9.1796875" customWidth="1"/>
+    <col min="4866" max="4866" width="46.5546875" customWidth="1"/>
+    <col min="4884" max="4893" width="9.21875" customWidth="1"/>
     <col min="5121" max="5121" width="3" customWidth="1"/>
-    <col min="5122" max="5122" width="46.54296875" customWidth="1"/>
-    <col min="5140" max="5149" width="9.1796875" customWidth="1"/>
+    <col min="5122" max="5122" width="46.5546875" customWidth="1"/>
+    <col min="5140" max="5149" width="9.21875" customWidth="1"/>
     <col min="5377" max="5377" width="3" customWidth="1"/>
-    <col min="5378" max="5378" width="46.54296875" customWidth="1"/>
-    <col min="5396" max="5405" width="9.1796875" customWidth="1"/>
+    <col min="5378" max="5378" width="46.5546875" customWidth="1"/>
+    <col min="5396" max="5405" width="9.21875" customWidth="1"/>
     <col min="5633" max="5633" width="3" customWidth="1"/>
-    <col min="5634" max="5634" width="46.54296875" customWidth="1"/>
-    <col min="5652" max="5661" width="9.1796875" customWidth="1"/>
+    <col min="5634" max="5634" width="46.5546875" customWidth="1"/>
+    <col min="5652" max="5661" width="9.21875" customWidth="1"/>
     <col min="5889" max="5889" width="3" customWidth="1"/>
-    <col min="5890" max="5890" width="46.54296875" customWidth="1"/>
-    <col min="5908" max="5917" width="9.1796875" customWidth="1"/>
+    <col min="5890" max="5890" width="46.5546875" customWidth="1"/>
+    <col min="5908" max="5917" width="9.21875" customWidth="1"/>
     <col min="6145" max="6145" width="3" customWidth="1"/>
-    <col min="6146" max="6146" width="46.54296875" customWidth="1"/>
-    <col min="6164" max="6173" width="9.1796875" customWidth="1"/>
+    <col min="6146" max="6146" width="46.5546875" customWidth="1"/>
+    <col min="6164" max="6173" width="9.21875" customWidth="1"/>
     <col min="6401" max="6401" width="3" customWidth="1"/>
-    <col min="6402" max="6402" width="46.54296875" customWidth="1"/>
-    <col min="6420" max="6429" width="9.1796875" customWidth="1"/>
+    <col min="6402" max="6402" width="46.5546875" customWidth="1"/>
+    <col min="6420" max="6429" width="9.21875" customWidth="1"/>
     <col min="6657" max="6657" width="3" customWidth="1"/>
-    <col min="6658" max="6658" width="46.54296875" customWidth="1"/>
-    <col min="6676" max="6685" width="9.1796875" customWidth="1"/>
+    <col min="6658" max="6658" width="46.5546875" customWidth="1"/>
+    <col min="6676" max="6685" width="9.21875" customWidth="1"/>
     <col min="6913" max="6913" width="3" customWidth="1"/>
-    <col min="6914" max="6914" width="46.54296875" customWidth="1"/>
-    <col min="6932" max="6941" width="9.1796875" customWidth="1"/>
+    <col min="6914" max="6914" width="46.5546875" customWidth="1"/>
+    <col min="6932" max="6941" width="9.21875" customWidth="1"/>
     <col min="7169" max="7169" width="3" customWidth="1"/>
-    <col min="7170" max="7170" width="46.54296875" customWidth="1"/>
-    <col min="7188" max="7197" width="9.1796875" customWidth="1"/>
+    <col min="7170" max="7170" width="46.5546875" customWidth="1"/>
+    <col min="7188" max="7197" width="9.21875" customWidth="1"/>
     <col min="7425" max="7425" width="3" customWidth="1"/>
-    <col min="7426" max="7426" width="46.54296875" customWidth="1"/>
-    <col min="7444" max="7453" width="9.1796875" customWidth="1"/>
+    <col min="7426" max="7426" width="46.5546875" customWidth="1"/>
+    <col min="7444" max="7453" width="9.21875" customWidth="1"/>
     <col min="7681" max="7681" width="3" customWidth="1"/>
-    <col min="7682" max="7682" width="46.54296875" customWidth="1"/>
-    <col min="7700" max="7709" width="9.1796875" customWidth="1"/>
+    <col min="7682" max="7682" width="46.5546875" customWidth="1"/>
+    <col min="7700" max="7709" width="9.21875" customWidth="1"/>
     <col min="7937" max="7937" width="3" customWidth="1"/>
-    <col min="7938" max="7938" width="46.54296875" customWidth="1"/>
-    <col min="7956" max="7965" width="9.1796875" customWidth="1"/>
+    <col min="7938" max="7938" width="46.5546875" customWidth="1"/>
+    <col min="7956" max="7965" width="9.21875" customWidth="1"/>
     <col min="8193" max="8193" width="3" customWidth="1"/>
-    <col min="8194" max="8194" width="46.54296875" customWidth="1"/>
-    <col min="8212" max="8221" width="9.1796875" customWidth="1"/>
+    <col min="8194" max="8194" width="46.5546875" customWidth="1"/>
+    <col min="8212" max="8221" width="9.21875" customWidth="1"/>
     <col min="8449" max="8449" width="3" customWidth="1"/>
-    <col min="8450" max="8450" width="46.54296875" customWidth="1"/>
-    <col min="8468" max="8477" width="9.1796875" customWidth="1"/>
+    <col min="8450" max="8450" width="46.5546875" customWidth="1"/>
+    <col min="8468" max="8477" width="9.21875" customWidth="1"/>
     <col min="8705" max="8705" width="3" customWidth="1"/>
-    <col min="8706" max="8706" width="46.54296875" customWidth="1"/>
-    <col min="8724" max="8733" width="9.1796875" customWidth="1"/>
+    <col min="8706" max="8706" width="46.5546875" customWidth="1"/>
+    <col min="8724" max="8733" width="9.21875" customWidth="1"/>
     <col min="8961" max="8961" width="3" customWidth="1"/>
-    <col min="8962" max="8962" width="46.54296875" customWidth="1"/>
-    <col min="8980" max="8989" width="9.1796875" customWidth="1"/>
+    <col min="8962" max="8962" width="46.5546875" customWidth="1"/>
+    <col min="8980" max="8989" width="9.21875" customWidth="1"/>
     <col min="9217" max="9217" width="3" customWidth="1"/>
-    <col min="9218" max="9218" width="46.54296875" customWidth="1"/>
-    <col min="9236" max="9245" width="9.1796875" customWidth="1"/>
+    <col min="9218" max="9218" width="46.5546875" customWidth="1"/>
+    <col min="9236" max="9245" width="9.21875" customWidth="1"/>
     <col min="9473" max="9473" width="3" customWidth="1"/>
-    <col min="9474" max="9474" width="46.54296875" customWidth="1"/>
-    <col min="9492" max="9501" width="9.1796875" customWidth="1"/>
+    <col min="9474" max="9474" width="46.5546875" customWidth="1"/>
+    <col min="9492" max="9501" width="9.21875" customWidth="1"/>
     <col min="9729" max="9729" width="3" customWidth="1"/>
-    <col min="9730" max="9730" width="46.54296875" customWidth="1"/>
-    <col min="9748" max="9757" width="9.1796875" customWidth="1"/>
+    <col min="9730" max="9730" width="46.5546875" customWidth="1"/>
+    <col min="9748" max="9757" width="9.21875" customWidth="1"/>
     <col min="9985" max="9985" width="3" customWidth="1"/>
-    <col min="9986" max="9986" width="46.54296875" customWidth="1"/>
-    <col min="10004" max="10013" width="9.1796875" customWidth="1"/>
+    <col min="9986" max="9986" width="46.5546875" customWidth="1"/>
+    <col min="10004" max="10013" width="9.21875" customWidth="1"/>
     <col min="10241" max="10241" width="3" customWidth="1"/>
-    <col min="10242" max="10242" width="46.54296875" customWidth="1"/>
-    <col min="10260" max="10269" width="9.1796875" customWidth="1"/>
+    <col min="10242" max="10242" width="46.5546875" customWidth="1"/>
+    <col min="10260" max="10269" width="9.21875" customWidth="1"/>
     <col min="10497" max="10497" width="3" customWidth="1"/>
-    <col min="10498" max="10498" width="46.54296875" customWidth="1"/>
-    <col min="10516" max="10525" width="9.1796875" customWidth="1"/>
+    <col min="10498" max="10498" width="46.5546875" customWidth="1"/>
+    <col min="10516" max="10525" width="9.21875" customWidth="1"/>
     <col min="10753" max="10753" width="3" customWidth="1"/>
-    <col min="10754" max="10754" width="46.54296875" customWidth="1"/>
-    <col min="10772" max="10781" width="9.1796875" customWidth="1"/>
+    <col min="10754" max="10754" width="46.5546875" customWidth="1"/>
+    <col min="10772" max="10781" width="9.21875" customWidth="1"/>
     <col min="11009" max="11009" width="3" customWidth="1"/>
-    <col min="11010" max="11010" width="46.54296875" customWidth="1"/>
-    <col min="11028" max="11037" width="9.1796875" customWidth="1"/>
+    <col min="11010" max="11010" width="46.5546875" customWidth="1"/>
+    <col min="11028" max="11037" width="9.21875" customWidth="1"/>
     <col min="11265" max="11265" width="3" customWidth="1"/>
-    <col min="11266" max="11266" width="46.54296875" customWidth="1"/>
-    <col min="11284" max="11293" width="9.1796875" customWidth="1"/>
+    <col min="11266" max="11266" width="46.5546875" customWidth="1"/>
+    <col min="11284" max="11293" width="9.21875" customWidth="1"/>
     <col min="11521" max="11521" width="3" customWidth="1"/>
-    <col min="11522" max="11522" width="46.54296875" customWidth="1"/>
-    <col min="11540" max="11549" width="9.1796875" customWidth="1"/>
+    <col min="11522" max="11522" width="46.5546875" customWidth="1"/>
+    <col min="11540" max="11549" width="9.21875" customWidth="1"/>
     <col min="11777" max="11777" width="3" customWidth="1"/>
-    <col min="11778" max="11778" width="46.54296875" customWidth="1"/>
-    <col min="11796" max="11805" width="9.1796875" customWidth="1"/>
+    <col min="11778" max="11778" width="46.5546875" customWidth="1"/>
+    <col min="11796" max="11805" width="9.21875" customWidth="1"/>
     <col min="12033" max="12033" width="3" customWidth="1"/>
-    <col min="12034" max="12034" width="46.54296875" customWidth="1"/>
-    <col min="12052" max="12061" width="9.1796875" customWidth="1"/>
+    <col min="12034" max="12034" width="46.5546875" customWidth="1"/>
+    <col min="12052" max="12061" width="9.21875" customWidth="1"/>
     <col min="12289" max="12289" width="3" customWidth="1"/>
-    <col min="12290" max="12290" width="46.54296875" customWidth="1"/>
-    <col min="12308" max="12317" width="9.1796875" customWidth="1"/>
+    <col min="12290" max="12290" width="46.5546875" customWidth="1"/>
+    <col min="12308" max="12317" width="9.21875" customWidth="1"/>
     <col min="12545" max="12545" width="3" customWidth="1"/>
-    <col min="12546" max="12546" width="46.54296875" customWidth="1"/>
-    <col min="12564" max="12573" width="9.1796875" customWidth="1"/>
+    <col min="12546" max="12546" width="46.5546875" customWidth="1"/>
+    <col min="12564" max="12573" width="9.21875" customWidth="1"/>
     <col min="12801" max="12801" width="3" customWidth="1"/>
-    <col min="12802" max="12802" width="46.54296875" customWidth="1"/>
-    <col min="12820" max="12829" width="9.1796875" customWidth="1"/>
+    <col min="12802" max="12802" width="46.5546875" customWidth="1"/>
+    <col min="12820" max="12829" width="9.21875" customWidth="1"/>
     <col min="13057" max="13057" width="3" customWidth="1"/>
-    <col min="13058" max="13058" width="46.54296875" customWidth="1"/>
-    <col min="13076" max="13085" width="9.1796875" customWidth="1"/>
+    <col min="13058" max="13058" width="46.5546875" customWidth="1"/>
+    <col min="13076" max="13085" width="9.21875" customWidth="1"/>
     <col min="13313" max="13313" width="3" customWidth="1"/>
-    <col min="13314" max="13314" width="46.54296875" customWidth="1"/>
-    <col min="13332" max="13341" width="9.1796875" customWidth="1"/>
+    <col min="13314" max="13314" width="46.5546875" customWidth="1"/>
+    <col min="13332" max="13341" width="9.21875" customWidth="1"/>
     <col min="13569" max="13569" width="3" customWidth="1"/>
-    <col min="13570" max="13570" width="46.54296875" customWidth="1"/>
-    <col min="13588" max="13597" width="9.1796875" customWidth="1"/>
+    <col min="13570" max="13570" width="46.5546875" customWidth="1"/>
+    <col min="13588" max="13597" width="9.21875" customWidth="1"/>
     <col min="13825" max="13825" width="3" customWidth="1"/>
-    <col min="13826" max="13826" width="46.54296875" customWidth="1"/>
-    <col min="13844" max="13853" width="9.1796875" customWidth="1"/>
+    <col min="13826" max="13826" width="46.5546875" customWidth="1"/>
+    <col min="13844" max="13853" width="9.21875" customWidth="1"/>
     <col min="14081" max="14081" width="3" customWidth="1"/>
-    <col min="14082" max="14082" width="46.54296875" customWidth="1"/>
-    <col min="14100" max="14109" width="9.1796875" customWidth="1"/>
+    <col min="14082" max="14082" width="46.5546875" customWidth="1"/>
+    <col min="14100" max="14109" width="9.21875" customWidth="1"/>
     <col min="14337" max="14337" width="3" customWidth="1"/>
-    <col min="14338" max="14338" width="46.54296875" customWidth="1"/>
-    <col min="14356" max="14365" width="9.1796875" customWidth="1"/>
+    <col min="14338" max="14338" width="46.5546875" customWidth="1"/>
+    <col min="14356" max="14365" width="9.21875" customWidth="1"/>
     <col min="14593" max="14593" width="3" customWidth="1"/>
-    <col min="14594" max="14594" width="46.54296875" customWidth="1"/>
-    <col min="14612" max="14621" width="9.1796875" customWidth="1"/>
+    <col min="14594" max="14594" width="46.5546875" customWidth="1"/>
+    <col min="14612" max="14621" width="9.21875" customWidth="1"/>
     <col min="14849" max="14849" width="3" customWidth="1"/>
-    <col min="14850" max="14850" width="46.54296875" customWidth="1"/>
-    <col min="14868" max="14877" width="9.1796875" customWidth="1"/>
+    <col min="14850" max="14850" width="46.5546875" customWidth="1"/>
+    <col min="14868" max="14877" width="9.21875" customWidth="1"/>
     <col min="15105" max="15105" width="3" customWidth="1"/>
-    <col min="15106" max="15106" width="46.54296875" customWidth="1"/>
-    <col min="15124" max="15133" width="9.1796875" customWidth="1"/>
+    <col min="15106" max="15106" width="46.5546875" customWidth="1"/>
+    <col min="15124" max="15133" width="9.21875" customWidth="1"/>
     <col min="15361" max="15361" width="3" customWidth="1"/>
-    <col min="15362" max="15362" width="46.54296875" customWidth="1"/>
-    <col min="15380" max="15389" width="9.1796875" customWidth="1"/>
+    <col min="15362" max="15362" width="46.5546875" customWidth="1"/>
+    <col min="15380" max="15389" width="9.21875" customWidth="1"/>
     <col min="15617" max="15617" width="3" customWidth="1"/>
-    <col min="15618" max="15618" width="46.54296875" customWidth="1"/>
-    <col min="15636" max="15645" width="9.1796875" customWidth="1"/>
+    <col min="15618" max="15618" width="46.5546875" customWidth="1"/>
+    <col min="15636" max="15645" width="9.21875" customWidth="1"/>
     <col min="15873" max="15873" width="3" customWidth="1"/>
-    <col min="15874" max="15874" width="46.54296875" customWidth="1"/>
-    <col min="15892" max="15901" width="9.1796875" customWidth="1"/>
+    <col min="15874" max="15874" width="46.5546875" customWidth="1"/>
+    <col min="15892" max="15901" width="9.21875" customWidth="1"/>
     <col min="16129" max="16129" width="3" customWidth="1"/>
-    <col min="16130" max="16130" width="46.54296875" customWidth="1"/>
-    <col min="16148" max="16157" width="9.1796875" customWidth="1"/>
+    <col min="16130" max="16130" width="46.5546875" customWidth="1"/>
+    <col min="16148" max="16157" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="52.4" customHeight="1"/>
-    <row r="2" spans="1:32" ht="17.5">
+    <row r="1" spans="1:32" ht="52.35" customHeight="1"/>
+    <row r="2" spans="1:32" ht="17.399999999999999">
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -5614,10 +5881,10 @@
       <c r="AC2" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -5650,8 +5917,8 @@
       <c r="AF5" s="38"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -5683,11 +5950,11 @@
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
     </row>
-    <row r="7" spans="1:32" ht="15.5">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:32" ht="15.6">
+      <c r="A7" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -5719,11 +5986,11 @@
       <c r="AE7" s="38"/>
       <c r="AF7" s="38"/>
     </row>
-    <row r="8" spans="1:32" ht="15.5">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:32" ht="15.6">
+      <c r="A8" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -5756,8 +6023,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -5789,9 +6056,9 @@
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
     </row>
-    <row r="10" spans="1:32" ht="15.5">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
+    <row r="10" spans="1:32" ht="15.6">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="21"/>
@@ -5824,8 +6091,8 @@
       <c r="AF10" s="38"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="33">
         <v>1990</v>
       </c>
@@ -5916,8 +6183,8 @@
       <c r="AF11" s="38"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -6643,9 +6910,9 @@
       </c>
       <c r="AF20" s="38"/>
     </row>
-    <row r="21" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+    <row r="21" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -7277,9 +7544,9 @@
       </c>
       <c r="AF28" s="38"/>
     </row>
-    <row r="29" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
+    <row r="29" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
@@ -7441,9 +7708,9 @@
       </c>
       <c r="AF31" s="38"/>
     </row>
-    <row r="32" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
+    <row r="32" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -7569,9 +7836,9 @@
       </c>
       <c r="AF33" s="38"/>
     </row>
-    <row r="34" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
+    <row r="34" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -7604,8 +7871,8 @@
       <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -7637,7 +7904,7 @@
       <c r="AE35" s="38"/>
       <c r="AF35" s="38"/>
     </row>
-    <row r="36" spans="1:32" ht="15">
+    <row r="36" spans="1:32" ht="15.6">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>253</v>
@@ -7731,7 +7998,7 @@
       </c>
       <c r="AF36" s="38"/>
     </row>
-    <row r="37" spans="1:32" ht="15">
+    <row r="37" spans="1:32">
       <c r="A37" s="38"/>
       <c r="B37" s="40" t="s">
         <v>196</v>
@@ -8331,9 +8598,9 @@
       </c>
       <c r="AF43" s="38"/>
     </row>
-    <row r="44" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+    <row r="44" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A44" s="94"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -8965,9 +9232,9 @@
       </c>
       <c r="AF51" s="38"/>
     </row>
-    <row r="52" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
+    <row r="52" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A52" s="94"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
@@ -9093,9 +9360,9 @@
       </c>
       <c r="AF53" s="38"/>
     </row>
-    <row r="54" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
+    <row r="54" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A54" s="94"/>
+      <c r="B54" s="94"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
@@ -9127,11 +9394,11 @@
       <c r="AE54" s="38"/>
       <c r="AF54" s="38"/>
     </row>
-    <row r="55" spans="1:32" ht="15.5">
-      <c r="A55" s="64" t="s">
+    <row r="55" spans="1:32" ht="15.6">
+      <c r="A55" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="B55" s="64"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -9164,8 +9431,8 @@
       <c r="AF55" s="38"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -9197,9 +9464,9 @@
       <c r="AE56" s="38"/>
       <c r="AF56" s="38"/>
     </row>
-    <row r="57" spans="1:32" ht="15.5">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
+    <row r="57" spans="1:32" ht="15.6">
+      <c r="A57" s="94"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="21"/>
@@ -9232,8 +9499,8 @@
       <c r="AF57" s="38"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="33">
         <v>1990</v>
       </c>
@@ -9324,8 +9591,8 @@
       <c r="AF58" s="38"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
@@ -10051,9 +10318,9 @@
       </c>
       <c r="AF67" s="38"/>
     </row>
-    <row r="68" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
+    <row r="68" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A68" s="94"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
@@ -10685,9 +10952,9 @@
       </c>
       <c r="AF75" s="38"/>
     </row>
-    <row r="76" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
+    <row r="76" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A76" s="94"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
@@ -10849,9 +11116,9 @@
       </c>
       <c r="AF78" s="38"/>
     </row>
-    <row r="79" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
+    <row r="79" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A79" s="94"/>
+      <c r="B79" s="94"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -10977,9 +11244,9 @@
       </c>
       <c r="AF80" s="38"/>
     </row>
-    <row r="81" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
+    <row r="81" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A81" s="94"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -11012,8 +11279,8 @@
       <c r="AF81" s="38"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -11045,7 +11312,7 @@
       <c r="AE82" s="38"/>
       <c r="AF82" s="38"/>
     </row>
-    <row r="83" spans="1:32" ht="15">
+    <row r="83" spans="1:32" ht="15.6">
       <c r="A83" s="15"/>
       <c r="B83" s="52" t="s">
         <v>256</v>
@@ -11139,7 +11406,7 @@
       </c>
       <c r="AF83" s="38"/>
     </row>
-    <row r="84" spans="1:32" ht="15">
+    <row r="84" spans="1:32">
       <c r="A84" s="38"/>
       <c r="B84" s="40" t="s">
         <v>196</v>
@@ -11739,9 +12006,9 @@
       </c>
       <c r="AF90" s="38"/>
     </row>
-    <row r="91" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65"/>
+    <row r="91" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A91" s="94"/>
+      <c r="B91" s="94"/>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -12373,9 +12640,9 @@
       </c>
       <c r="AF98" s="38"/>
     </row>
-    <row r="99" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A99" s="65"/>
-      <c r="B99" s="65"/>
+    <row r="99" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A99" s="94"/>
+      <c r="B99" s="94"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38"/>
@@ -12501,9 +12768,9 @@
       </c>
       <c r="AF100" s="38"/>
     </row>
-    <row r="101" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A101" s="65"/>
-      <c r="B101" s="65"/>
+    <row r="101" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A101" s="94"/>
+      <c r="B101" s="94"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38"/>
@@ -12535,11 +12802,11 @@
       <c r="AE101" s="38"/>
       <c r="AF101" s="38"/>
     </row>
-    <row r="102" spans="1:32" ht="15.5">
-      <c r="A102" s="64" t="s">
+    <row r="102" spans="1:32" ht="15.6">
+      <c r="A102" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="B102" s="64"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
@@ -12572,8 +12839,8 @@
       <c r="AF102" s="38"/>
     </row>
     <row r="103" spans="1:32">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="94"/>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
@@ -12605,9 +12872,9 @@
       <c r="AE103" s="38"/>
       <c r="AF103" s="38"/>
     </row>
-    <row r="104" spans="1:32" ht="15.5">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
+    <row r="104" spans="1:32" ht="15.6">
+      <c r="A104" s="94"/>
+      <c r="B104" s="94"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="21"/>
@@ -12640,8 +12907,8 @@
       <c r="AF104" s="38"/>
     </row>
     <row r="105" spans="1:32">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
+      <c r="A105" s="94"/>
+      <c r="B105" s="94"/>
       <c r="C105" s="33">
         <v>1990</v>
       </c>
@@ -12732,8 +12999,8 @@
       <c r="AF105" s="38"/>
     </row>
     <row r="106" spans="1:32">
-      <c r="A106" s="63"/>
-      <c r="B106" s="63"/>
+      <c r="A106" s="93"/>
+      <c r="B106" s="93"/>
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
@@ -13553,9 +13820,9 @@
       </c>
       <c r="AF115" s="38"/>
     </row>
-    <row r="116" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
+    <row r="116" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A116" s="94"/>
+      <c r="B116" s="94"/>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -14281,9 +14548,9 @@
       </c>
       <c r="AF124" s="38"/>
     </row>
-    <row r="125" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A125" s="65"/>
-      <c r="B125" s="65"/>
+    <row r="125" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A125" s="94"/>
+      <c r="B125" s="94"/>
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -14445,9 +14712,9 @@
       </c>
       <c r="AF127" s="38"/>
     </row>
-    <row r="128" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A128" s="63"/>
-      <c r="B128" s="63"/>
+    <row r="128" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A128" s="93"/>
+      <c r="B128" s="93"/>
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
@@ -14573,9 +14840,9 @@
       </c>
       <c r="AF129" s="38"/>
     </row>
-    <row r="130" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A130" s="65"/>
-      <c r="B130" s="65"/>
+    <row r="130" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A130" s="94"/>
+      <c r="B130" s="94"/>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
@@ -14608,8 +14875,8 @@
       <c r="AF130" s="38"/>
     </row>
     <row r="131" spans="1:32">
-      <c r="A131" s="65"/>
-      <c r="B131" s="65"/>
+      <c r="A131" s="94"/>
+      <c r="B131" s="94"/>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38"/>
@@ -14641,7 +14908,7 @@
       <c r="AE131" s="38"/>
       <c r="AF131" s="38"/>
     </row>
-    <row r="132" spans="1:32" ht="15">
+    <row r="132" spans="1:32" ht="15.6">
       <c r="A132" s="15"/>
       <c r="B132" s="15" t="s">
         <v>259</v>
@@ -14735,7 +15002,7 @@
       </c>
       <c r="AF132" s="38"/>
     </row>
-    <row r="133" spans="1:32" ht="15">
+    <row r="133" spans="1:32">
       <c r="A133" s="38"/>
       <c r="B133" s="40" t="s">
         <v>196</v>
@@ -15429,9 +15696,9 @@
       </c>
       <c r="AF140" s="38"/>
     </row>
-    <row r="141" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A141" s="65"/>
-      <c r="B141" s="65"/>
+    <row r="141" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A141" s="94"/>
+      <c r="B141" s="94"/>
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
@@ -16157,9 +16424,9 @@
       </c>
       <c r="AF149" s="38"/>
     </row>
-    <row r="150" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A150" s="63"/>
-      <c r="B150" s="63"/>
+    <row r="150" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A150" s="93"/>
+      <c r="B150" s="93"/>
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
@@ -16285,9 +16552,9 @@
       </c>
       <c r="AF151" s="38"/>
     </row>
-    <row r="152" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A152" s="65"/>
-      <c r="B152" s="65"/>
+    <row r="152" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A152" s="94"/>
+      <c r="B152" s="94"/>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="38"/>
@@ -16320,8 +16587,8 @@
       <c r="AF152" s="38"/>
     </row>
     <row r="153" spans="1:32">
-      <c r="A153" s="65"/>
-      <c r="B153" s="65"/>
+      <c r="A153" s="94"/>
+      <c r="B153" s="94"/>
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38"/>
@@ -16353,7 +16620,7 @@
       <c r="AE153" s="38"/>
       <c r="AF153" s="38"/>
     </row>
-    <row r="154" spans="1:32" ht="15">
+    <row r="154" spans="1:32" ht="15.6">
       <c r="A154" s="38"/>
       <c r="B154" s="52" t="s">
         <v>260</v>
@@ -16447,9 +16714,9 @@
       </c>
       <c r="AF154" s="38"/>
     </row>
-    <row r="155" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A155" s="65"/>
-      <c r="B155" s="65"/>
+    <row r="155" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A155" s="94"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38"/>
@@ -16481,11 +16748,11 @@
       <c r="AE155" s="38"/>
       <c r="AF155" s="38"/>
     </row>
-    <row r="156" spans="1:32" ht="15.5">
-      <c r="A156" s="64" t="s">
+    <row r="156" spans="1:32" ht="15.6">
+      <c r="A156" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="B156" s="64"/>
+      <c r="B156" s="96"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
@@ -16518,8 +16785,8 @@
       <c r="AF156" s="38"/>
     </row>
     <row r="157" spans="1:32">
-      <c r="A157" s="65"/>
-      <c r="B157" s="65"/>
+      <c r="A157" s="94"/>
+      <c r="B157" s="94"/>
       <c r="C157" s="38"/>
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
@@ -16551,9 +16818,9 @@
       <c r="AE157" s="38"/>
       <c r="AF157" s="38"/>
     </row>
-    <row r="158" spans="1:32" ht="15.5">
-      <c r="A158" s="65"/>
-      <c r="B158" s="65"/>
+    <row r="158" spans="1:32" ht="15.6">
+      <c r="A158" s="94"/>
+      <c r="B158" s="94"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="21"/>
@@ -16586,8 +16853,8 @@
       <c r="AF158" s="38"/>
     </row>
     <row r="159" spans="1:32">
-      <c r="A159" s="65"/>
-      <c r="B159" s="65"/>
+      <c r="A159" s="94"/>
+      <c r="B159" s="94"/>
       <c r="C159" s="33">
         <v>1990</v>
       </c>
@@ -16678,8 +16945,8 @@
       <c r="AF159" s="38"/>
     </row>
     <row r="160" spans="1:32">
-      <c r="A160" s="65"/>
-      <c r="B160" s="65"/>
+      <c r="A160" s="94"/>
+      <c r="B160" s="94"/>
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38"/>
@@ -16711,7 +16978,7 @@
       <c r="AE160" s="38"/>
       <c r="AF160" s="38"/>
     </row>
-    <row r="161" spans="1:32" ht="15.5">
+    <row r="161" spans="1:32" ht="16.2">
       <c r="A161" s="15"/>
       <c r="B161" s="15" t="s">
         <v>262</v>
@@ -17781,9 +18048,9 @@
       </c>
       <c r="AF172" s="38"/>
     </row>
-    <row r="173" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A173" s="65"/>
-      <c r="B173" s="65"/>
+    <row r="173" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A173" s="94"/>
+      <c r="B173" s="94"/>
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38"/>
@@ -18791,9 +19058,9 @@
       </c>
       <c r="AF184" s="38"/>
     </row>
-    <row r="185" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A185" s="65"/>
-      <c r="B185" s="65"/>
+    <row r="185" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A185" s="94"/>
+      <c r="B185" s="94"/>
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38"/>
@@ -18955,9 +19222,9 @@
       </c>
       <c r="AF187" s="38"/>
     </row>
-    <row r="188" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A188" s="65"/>
-      <c r="B188" s="65"/>
+    <row r="188" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A188" s="94"/>
+      <c r="B188" s="94"/>
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38"/>
@@ -19083,9 +19350,9 @@
       </c>
       <c r="AF189" s="38"/>
     </row>
-    <row r="190" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A190" s="65"/>
-      <c r="B190" s="65"/>
+    <row r="190" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A190" s="94"/>
+      <c r="B190" s="94"/>
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38"/>
@@ -19118,8 +19385,8 @@
       <c r="AF190" s="38"/>
     </row>
     <row r="191" spans="1:32">
-      <c r="A191" s="65"/>
-      <c r="B191" s="65"/>
+      <c r="A191" s="94"/>
+      <c r="B191" s="94"/>
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38"/>
@@ -19151,7 +19418,7 @@
       <c r="AE191" s="38"/>
       <c r="AF191" s="38"/>
     </row>
-    <row r="192" spans="1:32" ht="16">
+    <row r="192" spans="1:32" ht="16.8">
       <c r="A192" s="15"/>
       <c r="B192" s="15" t="s">
         <v>263</v>
@@ -19245,7 +19512,7 @@
       </c>
       <c r="AF192" s="38"/>
     </row>
-    <row r="193" spans="1:32" ht="15">
+    <row r="193" spans="1:32">
       <c r="A193" s="38"/>
       <c r="B193" s="42" t="s">
         <v>212</v>
@@ -20221,9 +20488,9 @@
       </c>
       <c r="AF203" s="38"/>
     </row>
-    <row r="204" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A204" s="65"/>
-      <c r="B204" s="65"/>
+    <row r="204" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A204" s="94"/>
+      <c r="B204" s="94"/>
       <c r="C204" s="38"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
@@ -21231,9 +21498,9 @@
       </c>
       <c r="AF215" s="38"/>
     </row>
-    <row r="216" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A216" s="65"/>
-      <c r="B216" s="65"/>
+    <row r="216" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A216" s="94"/>
+      <c r="B216" s="94"/>
       <c r="C216" s="38"/>
       <c r="D216" s="38"/>
       <c r="E216" s="38"/>
@@ -21359,9 +21626,9 @@
       </c>
       <c r="AF217" s="38"/>
     </row>
-    <row r="218" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A218" s="65"/>
-      <c r="B218" s="65"/>
+    <row r="218" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A218" s="94"/>
+      <c r="B218" s="94"/>
       <c r="C218" s="38"/>
       <c r="D218" s="38"/>
       <c r="E218" s="38"/>
@@ -21394,8 +21661,8 @@
       <c r="AF218" s="38"/>
     </row>
     <row r="219" spans="1:32">
-      <c r="A219" s="65"/>
-      <c r="B219" s="65"/>
+      <c r="A219" s="94"/>
+      <c r="B219" s="94"/>
       <c r="C219" s="38"/>
       <c r="D219" s="38"/>
       <c r="E219" s="38"/>
@@ -21651,7 +21918,7 @@
       </c>
       <c r="AF222" s="38"/>
     </row>
-    <row r="223" spans="1:32" ht="28">
+    <row r="223" spans="1:32" ht="29.4">
       <c r="A223" s="12"/>
       <c r="B223" s="53" t="s">
         <v>266</v>
@@ -21747,16 +22014,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A116:B116"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A130:B130"/>
@@ -21769,42 +22062,16 @@
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21812,17 +22079,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4572" topLeftCell="A122" activePane="bottomLeft"/>
+      <selection activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
@@ -21839,27 +22108,26 @@
       <c r="A3" t="s">
         <v>268</v>
       </c>
-      <c r="B3">
-        <f>('Freight Fleet Data'!AE17+'Freight Fleet Data'!AE18)*10^3</f>
-        <v>2175000</v>
+      <c r="B3" s="90">
+        <f>('Freight Fleet Data'!AE18)*10^3</f>
+        <v>481000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="24">
-        <f>'Freight Energy Data'!AE27*'Freight Energy Data'!AE21/100/('Freight Energy Data'!AE27+'Freight Energy Data'!AE78)*SUM('Freight Fleet Data'!AE17:AE18)*10^3</f>
-        <v>166183.24440991104</v>
+      <c r="B4" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="91">
         <f>B3-B4</f>
-        <v>2008816.7555900889</v>
+        <v>481000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21872,8 +22140,7 @@
         <v>269</v>
       </c>
       <c r="B8">
-        <f>'Freight Energy Data'!AE15</f>
-        <v>156.69999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21881,8 +22148,8 @@
         <v>270</v>
       </c>
       <c r="B9">
-        <f>'Freight Energy Data'!AE16+'Freight Energy Data'!AE52</f>
-        <v>639.5</v>
+        <f>'Freight Energy Data'!AE52</f>
+        <v>485.9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -21894,77 +22161,76 @@
       <c r="A12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B12">
-        <f>CONVERT(SUMPRODUCT('Freight Fleet Data'!AE17:AE18,'Freight Fleet Data'!AE21:AE22)/SUM('Freight Fleet Data'!AE17:AE18),"km","mi")</f>
-        <v>23908.292811360963</v>
+      <c r="B12" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B13">
-        <f>B12</f>
-        <v>23908.292811360963</v>
+      <c r="B13" s="24">
+        <f>CONVERT('Freight Fleet Data'!AE22,"km","mi")</f>
+        <v>53982.243696810627</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B16">
-        <f>SUM('Freight Energy Data'!AE78,'Freight Energy Data'!AE27)*10^3/SUMPRODUCT('Freight Fleet Data'!AE17:AE18,'Freight Fleet Data'!AE21:AE22)</f>
-        <v>4.1522701227549135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B17">
-        <f>B16</f>
-        <v>4.1522701227549135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B17" s="89">
+        <f>'Freight Energy Data'!AE78*10^3/('Freight Fleet Data'!AE18*'Freight Fleet Data'!AE22)</f>
+        <v>7.0525160768726307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="27" t="e">
         <f>(B4*B12*B16)/(B8*btu_per_pj)</f>
-        <v>1.1107796320835076E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="87"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B21" s="27">
         <f>(B5*B13*B17)/(B9*btu_per_pj)</f>
-        <v>3.2901026199172581E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1">
+        <v>3.9762043827839882E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="B24">
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -21973,7 +22239,7 @@
         <v>3397000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>269</v>
       </c>
@@ -21982,7 +22248,7 @@
         <v>3278105</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
         <v>270</v>
       </c>
@@ -21991,7 +22257,7 @@
         <v>40764</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -22000,12 +22266,12 @@
         <v>78131</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" s="7" t="s">
         <v>269</v>
       </c>
@@ -22014,7 +22280,7 @@
         <v>229.7</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" s="7" t="s">
         <v>270</v>
       </c>
@@ -22564,8 +22830,154 @@
         <v>4.1301627962942258E-4</v>
       </c>
     </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="88" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="2" customFormat="1">
+      <c r="A122" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="90">
+        <f>('Freight Fleet Data'!AE17)*10^3</f>
+        <v>1694000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B125" s="91">
+        <f>$B$124*'Freight Energy Data'!AE21/100</f>
+        <v>852082</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="91">
+        <f>$B$124*'Freight Energy Data'!AE22/100</f>
+        <v>835142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="B127" s="90"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="90"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="90">
+        <f>'Freight Energy Data'!AE15</f>
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="90">
+        <f>'Freight Energy Data'!AE16</f>
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131" s="90"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="90"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="91">
+        <f>CONVERT('Freight Fleet Data'!AE21,"km","mi")</f>
+        <v>15368.995068798218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="91">
+        <f>B133</f>
+        <v>15368.995068798218</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="90"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="89">
+        <f>'Freight Energy Data'!AE27*10^3/('Freight Fleet Data'!AE17*'Freight Fleet Data'!AE21)</f>
+        <v>1.2597794965827191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="89">
+        <f>B137</f>
+        <v>1.2597794965827191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B141" s="98">
+        <f>(B125*B133*B137)/(B129*btu_per_pj)</f>
+        <v>1.1107796320835077E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" s="98">
+        <f>(B126*B134*B138)/(B130*btu_per_pj)</f>
+        <v>1.1106689290728341E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22573,94 +22985,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F51D9F-1F5F-4537-BFEB-616E140E7616}">
   <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="44.453125" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="18">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:21" ht="17.399999999999999">
+      <c r="A2" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.5">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>188</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.5">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.6">
       <c r="A5" s="21" t="s">
         <v>287</v>
       </c>
@@ -22686,54 +23098,54 @@
       <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="33">
         <v>2000</v>
       </c>
@@ -22793,1180 +23205,1180 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.5">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.2">
       <c r="A10" s="15"/>
       <c r="B10" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="65">
         <v>108.2</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="65">
         <v>116.7</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="65">
         <v>112</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="65">
         <v>112.7</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="65">
         <v>125.1</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="65">
         <v>128.1</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="65">
         <v>113</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="65">
         <v>125.7</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="65">
         <v>122.2</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="65">
         <v>118</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="65">
         <v>122.3</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="65">
         <v>98.5</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="65">
         <v>94.4</v>
       </c>
-      <c r="P10" s="71">
+      <c r="P10" s="65">
         <v>89</v>
       </c>
-      <c r="Q10" s="71">
+      <c r="Q10" s="65">
         <v>80.099999999999994</v>
       </c>
-      <c r="R10" s="71">
+      <c r="R10" s="65">
         <v>73.3</v>
       </c>
-      <c r="S10" s="71">
+      <c r="S10" s="65">
         <v>64.7</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="65">
         <v>69.8</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="65">
         <v>70.5</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="70"/>
-      <c r="B12" s="74" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="67">
         <v>46.8</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="67">
         <v>46.4</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="67">
         <v>46.3</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="67">
         <v>37.1</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="67">
         <v>46.2</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="67">
         <v>45.1</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="67">
         <v>44.3</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="67">
         <v>41.2</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="67">
         <v>37.299999999999997</v>
       </c>
-      <c r="L12" s="73">
+      <c r="L12" s="67">
         <v>31</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="67">
         <v>36.200000000000003</v>
       </c>
-      <c r="N12" s="73">
+      <c r="N12" s="67">
         <v>37.4</v>
       </c>
-      <c r="O12" s="73">
+      <c r="O12" s="67">
         <v>31.6</v>
       </c>
-      <c r="P12" s="73">
+      <c r="P12" s="67">
         <v>29.6</v>
       </c>
-      <c r="Q12" s="73">
+      <c r="Q12" s="67">
         <v>29.3</v>
       </c>
-      <c r="R12" s="73">
+      <c r="R12" s="67">
         <v>32.6</v>
       </c>
-      <c r="S12" s="73">
+      <c r="S12" s="67">
         <v>33.4</v>
       </c>
-      <c r="T12" s="73">
+      <c r="T12" s="67">
         <v>33.1</v>
       </c>
-      <c r="U12" s="73">
+      <c r="U12" s="67">
         <v>33.5</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="70"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="67">
         <v>61.4</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="67">
         <v>70.3</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="67">
         <v>65.7</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="67">
         <v>75.7</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="67">
         <v>78.8</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="67">
         <v>83</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="67">
         <v>68.7</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="67">
         <v>84.4</v>
       </c>
-      <c r="K13" s="73">
+      <c r="K13" s="67">
         <v>84.9</v>
       </c>
-      <c r="L13" s="73">
+      <c r="L13" s="67">
         <v>87</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="67">
         <v>86.1</v>
       </c>
-      <c r="N13" s="73">
+      <c r="N13" s="67">
         <v>61.2</v>
       </c>
-      <c r="O13" s="73">
+      <c r="O13" s="67">
         <v>62.8</v>
       </c>
-      <c r="P13" s="73">
+      <c r="P13" s="67">
         <v>59.4</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="Q13" s="67">
         <v>50.8</v>
       </c>
-      <c r="R13" s="73">
+      <c r="R13" s="67">
         <v>40.799999999999997</v>
       </c>
-      <c r="S13" s="73">
+      <c r="S13" s="67">
         <v>31.3</v>
       </c>
-      <c r="T13" s="73">
+      <c r="T13" s="67">
         <v>36.700000000000003</v>
       </c>
-      <c r="U13" s="73">
+      <c r="U13" s="67">
         <v>36.9</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="70"/>
-      <c r="B15" s="76" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="70"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="67">
         <v>43.3</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="67">
         <v>39.799999999999997</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="67">
         <v>41.3</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="67">
         <v>32.9</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="67">
         <v>37</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="67">
         <v>35.200000000000003</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="67">
         <v>39.200000000000003</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="67">
         <v>32.799999999999997</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="67">
         <v>30.5</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="67">
         <v>26.3</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="67">
         <v>29.6</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N16" s="67">
         <v>37.9</v>
       </c>
-      <c r="O16" s="73">
+      <c r="O16" s="67">
         <v>33.5</v>
       </c>
-      <c r="P16" s="73">
+      <c r="P16" s="67">
         <v>33.299999999999997</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="67">
         <v>36.6</v>
       </c>
-      <c r="R16" s="73">
+      <c r="R16" s="67">
         <v>44.4</v>
       </c>
-      <c r="S16" s="73">
+      <c r="S16" s="67">
         <v>51.6</v>
       </c>
-      <c r="T16" s="73">
+      <c r="T16" s="67">
         <v>47.5</v>
       </c>
-      <c r="U16" s="73">
+      <c r="U16" s="67">
         <v>47.6</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="70"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="67">
         <v>56.7</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="67">
         <v>60.2</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="67">
         <v>58.7</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="67">
         <v>67.099999999999994</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="67">
         <v>63</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="67">
         <v>64.8</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="67">
         <v>60.8</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="67">
         <v>67.2</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="67">
         <v>69.5</v>
       </c>
-      <c r="L17" s="73">
+      <c r="L17" s="67">
         <v>73.7</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="67">
         <v>70.400000000000006</v>
       </c>
-      <c r="N17" s="73">
+      <c r="N17" s="67">
         <v>62.1</v>
       </c>
-      <c r="O17" s="73">
+      <c r="O17" s="67">
         <v>66.5</v>
       </c>
-      <c r="P17" s="73">
+      <c r="P17" s="67">
         <v>66.7</v>
       </c>
-      <c r="Q17" s="73">
+      <c r="Q17" s="67">
         <v>63.4</v>
       </c>
-      <c r="R17" s="73">
+      <c r="R17" s="67">
         <v>55.6</v>
       </c>
-      <c r="S17" s="73">
+      <c r="S17" s="67">
         <v>48.4</v>
       </c>
-      <c r="T17" s="73">
+      <c r="T17" s="67">
         <v>52.5</v>
       </c>
-      <c r="U17" s="73">
+      <c r="U17" s="67">
         <v>52.4</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="70"/>
-      <c r="B19" s="77" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="70"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="73">
         <v>210499</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="73">
         <v>201195</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="73">
         <v>231463</v>
       </c>
-      <c r="F20" s="79">
+      <c r="F20" s="73">
         <v>243293</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="73">
         <v>240537</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="73">
         <v>259113</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="73">
         <v>259640</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="73">
         <v>251637</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="73">
         <v>242848</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="73">
         <v>211653</v>
       </c>
-      <c r="M20" s="79">
+      <c r="M20" s="73">
         <v>214839</v>
       </c>
-      <c r="N20" s="79">
+      <c r="N20" s="73">
         <v>195675</v>
       </c>
-      <c r="O20" s="79">
+      <c r="O20" s="73">
         <v>199380</v>
       </c>
-      <c r="P20" s="79">
+      <c r="P20" s="73">
         <v>201080</v>
       </c>
-      <c r="Q20" s="79">
+      <c r="Q20" s="73">
         <v>199935</v>
       </c>
-      <c r="R20" s="79">
+      <c r="R20" s="73">
         <v>202637</v>
       </c>
-      <c r="S20" s="79">
+      <c r="S20" s="73">
         <v>204085</v>
       </c>
-      <c r="T20" s="79">
+      <c r="T20" s="73">
         <v>205533</v>
       </c>
-      <c r="U20" s="79">
+      <c r="U20" s="73">
         <v>206981</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="15"/>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="74">
         <v>0.51</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="74">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="74">
         <v>0.48</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="74">
         <v>0.46</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="74">
         <v>0.52</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="74">
         <v>0.49</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="74">
         <v>0.44</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="74">
         <v>0.5</v>
       </c>
-      <c r="K22" s="80">
+      <c r="K22" s="74">
         <v>0.5</v>
       </c>
-      <c r="L22" s="80">
+      <c r="L22" s="74">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M22" s="80">
+      <c r="M22" s="74">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N22" s="80">
+      <c r="N22" s="74">
         <v>0.5</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="74">
         <v>0.47</v>
       </c>
-      <c r="P22" s="80">
+      <c r="P22" s="74">
         <v>0.44</v>
       </c>
-      <c r="Q22" s="80">
+      <c r="Q22" s="74">
         <v>0.4</v>
       </c>
-      <c r="R22" s="80">
+      <c r="R22" s="74">
         <v>0.36</v>
       </c>
-      <c r="S22" s="80">
+      <c r="S22" s="74">
         <v>0.32</v>
       </c>
-      <c r="T22" s="80">
+      <c r="T22" s="74">
         <v>0.34</v>
       </c>
-      <c r="U22" s="80">
+      <c r="U22" s="74">
         <v>0.34</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="15"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-    </row>
-    <row r="25" spans="1:21" ht="30">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+    </row>
+    <row r="25" spans="1:21" ht="31.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="65">
         <v>7.9</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="65">
         <v>8.6</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="65">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="65">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="65">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="65">
         <v>9.4</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="65">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="65">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K25" s="71">
+      <c r="K25" s="65">
         <v>9</v>
       </c>
-      <c r="L25" s="71">
+      <c r="L25" s="65">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M25" s="71">
+      <c r="M25" s="65">
         <v>9</v>
       </c>
-      <c r="N25" s="71">
+      <c r="N25" s="65">
         <v>7.2</v>
       </c>
-      <c r="O25" s="71">
+      <c r="O25" s="65">
         <v>6.9</v>
       </c>
-      <c r="P25" s="71">
+      <c r="P25" s="65">
         <v>6.5</v>
       </c>
-      <c r="Q25" s="71">
+      <c r="Q25" s="65">
         <v>5.9</v>
       </c>
-      <c r="R25" s="71">
+      <c r="R25" s="65">
         <v>5.4</v>
       </c>
-      <c r="S25" s="71">
+      <c r="S25" s="65">
         <v>4.7</v>
       </c>
-      <c r="T25" s="71">
+      <c r="T25" s="65">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U25" s="71">
+      <c r="U25" s="65">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="76" t="s">
+    <row r="26" spans="1:21">
+      <c r="A26" s="64"/>
+      <c r="B26" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="70"/>
-      <c r="B27" s="74" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="67">
         <v>3.3</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="67">
         <v>3.3</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="67">
         <v>3.3</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="67">
         <v>2.6</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="67">
         <v>3.3</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="67">
         <v>3.2</v>
       </c>
-      <c r="I27" s="73">
+      <c r="I27" s="67">
         <v>3.1</v>
       </c>
-      <c r="J27" s="73">
+      <c r="J27" s="67">
         <v>2.9</v>
       </c>
-      <c r="K27" s="73">
+      <c r="K27" s="67">
         <v>2.6</v>
       </c>
-      <c r="L27" s="73">
+      <c r="L27" s="67">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M27" s="73">
+      <c r="M27" s="67">
         <v>2.6</v>
       </c>
-      <c r="N27" s="73">
+      <c r="N27" s="67">
         <v>2.6</v>
       </c>
-      <c r="O27" s="73">
+      <c r="O27" s="67">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P27" s="73">
+      <c r="P27" s="67">
         <v>2.1</v>
       </c>
-      <c r="Q27" s="73">
+      <c r="Q27" s="67">
         <v>2.1</v>
       </c>
-      <c r="R27" s="73">
+      <c r="R27" s="67">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S27" s="73">
+      <c r="S27" s="67">
         <v>2.4</v>
       </c>
-      <c r="T27" s="73">
+      <c r="T27" s="67">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U27" s="73">
+      <c r="U27" s="67">
         <v>2.4</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="70"/>
-      <c r="B28" s="74" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="67">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="67">
         <v>5.3</v>
       </c>
-      <c r="E28" s="73">
+      <c r="E28" s="67">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="67">
         <v>5.7</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G28" s="67">
         <v>5.9</v>
       </c>
-      <c r="H28" s="73">
+      <c r="H28" s="67">
         <v>6.2</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="67">
         <v>5.2</v>
       </c>
-      <c r="J28" s="73">
+      <c r="J28" s="67">
         <v>6.3</v>
       </c>
-      <c r="K28" s="73">
+      <c r="K28" s="67">
         <v>6.4</v>
       </c>
-      <c r="L28" s="73">
+      <c r="L28" s="67">
         <v>6.5</v>
       </c>
-      <c r="M28" s="73">
+      <c r="M28" s="67">
         <v>6.5</v>
       </c>
-      <c r="N28" s="73">
+      <c r="N28" s="67">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O28" s="73">
+      <c r="O28" s="67">
         <v>4.7</v>
       </c>
-      <c r="P28" s="73">
+      <c r="P28" s="67">
         <v>4.5</v>
       </c>
-      <c r="Q28" s="73">
+      <c r="Q28" s="67">
         <v>3.8</v>
       </c>
-      <c r="R28" s="73">
+      <c r="R28" s="67">
         <v>3.1</v>
       </c>
-      <c r="S28" s="73">
+      <c r="S28" s="67">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T28" s="73">
+      <c r="T28" s="67">
         <v>2.8</v>
       </c>
-      <c r="U28" s="73">
+      <c r="U28" s="67">
         <v>2.8</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="70"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="70"/>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="70"/>
-      <c r="B31" s="74" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="67">
         <v>41.8</v>
       </c>
-      <c r="D31" s="73">
+      <c r="D31" s="67">
         <v>38.4</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="67">
         <v>39.9</v>
       </c>
-      <c r="F31" s="73">
+      <c r="F31" s="67">
         <v>31.6</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="67">
         <v>35.6</v>
       </c>
-      <c r="H31" s="73">
+      <c r="H31" s="67">
         <v>33.9</v>
       </c>
-      <c r="I31" s="73">
+      <c r="I31" s="67">
         <v>37.799999999999997</v>
       </c>
-      <c r="J31" s="73">
+      <c r="J31" s="67">
         <v>31.5</v>
       </c>
-      <c r="K31" s="73">
+      <c r="K31" s="67">
         <v>29.3</v>
       </c>
-      <c r="L31" s="73">
+      <c r="L31" s="67">
         <v>25.1</v>
       </c>
-      <c r="M31" s="73">
+      <c r="M31" s="67">
         <v>28.4</v>
       </c>
-      <c r="N31" s="73">
+      <c r="N31" s="67">
         <v>36.5</v>
       </c>
-      <c r="O31" s="73">
+      <c r="O31" s="67">
         <v>32.200000000000003</v>
       </c>
-      <c r="P31" s="73">
+      <c r="P31" s="67">
         <v>32</v>
       </c>
-      <c r="Q31" s="73">
+      <c r="Q31" s="67">
         <v>35.299999999999997</v>
       </c>
-      <c r="R31" s="73">
+      <c r="R31" s="67">
         <v>43</v>
       </c>
-      <c r="S31" s="73">
+      <c r="S31" s="67">
         <v>50.1</v>
       </c>
-      <c r="T31" s="73">
-        <v>46</v>
-      </c>
-      <c r="U31" s="73">
+      <c r="T31" s="67">
+        <v>46</v>
+      </c>
+      <c r="U31" s="67">
         <v>46.1</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="70"/>
-      <c r="B32" s="74" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="67">
         <v>58.2</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="67">
         <v>61.6</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="67">
         <v>60.1</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="67">
         <v>68.400000000000006</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="67">
         <v>64.400000000000006</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="67">
         <v>66.099999999999994</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="67">
         <v>62.2</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="67">
         <v>68.5</v>
       </c>
-      <c r="K32" s="73">
+      <c r="K32" s="67">
         <v>70.7</v>
       </c>
-      <c r="L32" s="73">
+      <c r="L32" s="67">
         <v>74.900000000000006</v>
       </c>
-      <c r="M32" s="73">
+      <c r="M32" s="67">
         <v>71.599999999999994</v>
       </c>
-      <c r="N32" s="73">
+      <c r="N32" s="67">
         <v>63.5</v>
       </c>
-      <c r="O32" s="73">
+      <c r="O32" s="67">
         <v>67.8</v>
       </c>
-      <c r="P32" s="73">
+      <c r="P32" s="67">
         <v>68</v>
       </c>
-      <c r="Q32" s="73">
+      <c r="Q32" s="67">
         <v>64.7</v>
       </c>
-      <c r="R32" s="73">
+      <c r="R32" s="67">
         <v>57</v>
       </c>
-      <c r="S32" s="73">
+      <c r="S32" s="67">
         <v>49.9</v>
       </c>
-      <c r="T32" s="73">
+      <c r="T32" s="67">
         <v>54</v>
       </c>
-      <c r="U32" s="73">
+      <c r="U32" s="67">
         <v>53.9</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="15"/>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="65">
         <v>73.099999999999994</v>
       </c>
-      <c r="D34" s="71">
+      <c r="D34" s="65">
         <v>73.3</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="65">
         <v>73.2</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="65">
         <v>73.599999999999994</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="65">
         <v>73.400000000000006</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="65">
         <v>73.5</v>
       </c>
-      <c r="I34" s="71">
+      <c r="I34" s="65">
         <v>73.3</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="65">
         <v>73.599999999999994</v>
       </c>
-      <c r="K34" s="71">
+      <c r="K34" s="65">
         <v>73.7</v>
       </c>
-      <c r="L34" s="71">
+      <c r="L34" s="65">
         <v>73.900000000000006</v>
       </c>
-      <c r="M34" s="71">
+      <c r="M34" s="65">
         <v>73.7</v>
       </c>
-      <c r="N34" s="71">
+      <c r="N34" s="65">
         <v>73.400000000000006</v>
       </c>
-      <c r="O34" s="71">
+      <c r="O34" s="65">
         <v>73.599999999999994</v>
       </c>
-      <c r="P34" s="71">
+      <c r="P34" s="65">
         <v>73.599999999999994</v>
       </c>
-      <c r="Q34" s="71">
+      <c r="Q34" s="65">
         <v>73.400000000000006</v>
       </c>
-      <c r="R34" s="71">
+      <c r="R34" s="65">
         <v>73.099999999999994</v>
       </c>
-      <c r="S34" s="71">
+      <c r="S34" s="65">
         <v>72.8</v>
       </c>
-      <c r="T34" s="71">
+      <c r="T34" s="65">
         <v>73</v>
       </c>
-      <c r="U34" s="71">
+      <c r="U34" s="65">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="70"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="70"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23985,33 +24397,33 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="116" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="78" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="79"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="80">
         <v>1000</v>
       </c>
       <c r="D4" t="s">
@@ -24019,27 +24431,27 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="80">
         <v>0.62137100000000001</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="80">
         <f>'[2]Marine Energy Consumption'!U20*10^6</f>
         <v>206981000000</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="81">
         <f>(C6*C5)/C4</f>
         <v>128611990.95100001</v>
       </c>
@@ -24048,10 +24460,10 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="82">
         <v>1000</v>
       </c>
       <c r="D8" t="s">
@@ -24059,10 +24471,10 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="82">
         <f>C7/C8</f>
         <v>128611.990951</v>
       </c>
@@ -24071,48 +24483,48 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="81">
         <f>C9*C8*C4</f>
         <v>128611990951</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="80"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="81">
         <f>C9*C8*C4</f>
         <v>128611990951</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="83">
         <f>'[2]Marine Energy Consumption'!U25*10^12</f>
         <v>5100000000000</v>
       </c>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="84">
         <v>7.4834977999999996E-2</v>
       </c>
       <c r="D15" t="s">
@@ -24120,10 +24532,10 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="81">
         <f>C14/C15</f>
         <v>68149949880388.82</v>
       </c>
@@ -24132,10 +24544,10 @@
       </c>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="79" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="81">
         <f>C13/C16</f>
         <v>1.8871912771282911E-3</v>
       </c>
@@ -24144,7 +24556,7 @@
       </c>
     </row>
     <row r="18" spans="2:34">
-      <c r="C18" s="91">
+      <c r="C18" s="85">
         <f>C13/C17*C15/10^12</f>
         <v>5.0999999999999996</v>
       </c>
@@ -31750,26 +32162,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="58">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="54" t="s">
         <v>282</v>
       </c>
@@ -31832,10 +32244,10 @@
       </c>
       <c r="B3" s="10">
         <f>E3/(1-elec_reduction_HDVs)*'Calibration Adjustments'!B20</f>
-        <v>2.6474404566268496E-3</v>
+        <v>2.5988932599894377E-3</v>
       </c>
       <c r="C3" s="10">
-        <f>D3*'Calibration Adjustments'!C20</f>
+        <f>'Onroad Calcs'!B102</f>
         <v>8.2385602902333775E-4</v>
       </c>
       <c r="D3" s="10">
@@ -31843,12 +32255,12 @@
         <v>8.2385602902333775E-4</v>
       </c>
       <c r="E3" s="10">
-        <f>D3</f>
-        <v>8.2385602902333775E-4</v>
+        <f>'Onroad Calcs'!B101</f>
+        <v>8.0874864462804417E-4</v>
       </c>
       <c r="F3" s="10">
         <f>(E3/(1-elec_reduction_HDVs)*elec_share+E3*(1-elec_share))*'Calibration Adjustments'!F20</f>
-        <v>1.8268274642052693E-3</v>
+        <v>1.7933281830768107E-3</v>
       </c>
       <c r="G3" s="56">
         <v>8.9360000000000004E-4</v>
@@ -31963,30 +32375,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="72.5">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="54" t="s">
         <v>285</v>
       </c>
@@ -32047,25 +32460,24 @@
       <c r="A3" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="101">
         <f>D3/(1-elec_reduction_HDVs)*'Calibration Adjustments'!B29</f>
-        <v>3.5694621787997651E-4</v>
-      </c>
-      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="101">
         <f>D3*'Calibration Adjustments'!C29</f>
-        <v>1.1107796320835076E-4</v>
-      </c>
-      <c r="D3" s="10">
-        <f>'Onroad Calcs'!B20</f>
-        <v>1.1107796320835076E-4</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="101">
+        <v>0</v>
       </c>
       <c r="E3" s="10">
         <f>'Onroad Calcs'!B21</f>
-        <v>3.2901026199172581E-4</v>
-      </c>
-      <c r="F3" s="10">
+        <v>3.9762043827839882E-4</v>
+      </c>
+      <c r="F3" s="101">
         <f>(D3/(1-elec_reduction_HDVs)*elec_share+D3*(1-elec_share))*'Calibration Adjustments'!F29</f>
-        <v>2.4630550327774494E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="56">
         <v>2.931E-3</v>
@@ -32133,7 +32545,7 @@
       <c r="B6" s="58">
         <v>0</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="100">
         <v>0</v>
       </c>
       <c r="D6" s="58">
@@ -32143,13 +32555,13 @@
         <f>'marine calcs'!$C$17</f>
         <v>1.8871912771282911E-3</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="100">
         <v>0</v>
       </c>
       <c r="G6" s="55">
         <v>0</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="99">
         <v>0</v>
       </c>
     </row>
@@ -32163,11 +32575,13 @@
       <c r="C7" s="58">
         <v>0</v>
       </c>
-      <c r="D7" s="58">
-        <v>0</v>
-      </c>
-      <c r="E7" s="58">
-        <v>0</v>
+      <c r="D7" s="60">
+        <f>'Onroad Calcs'!B141</f>
+        <v>1.1107796320835077E-4</v>
+      </c>
+      <c r="E7" s="60">
+        <f>'Onroad Calcs'!B142</f>
+        <v>1.1106689290728341E-4</v>
       </c>
       <c r="F7" s="58">
         <v>0</v>
@@ -32184,6 +32598,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32194,15 +32609,15 @@
   </sheetPr>
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView topLeftCell="T8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23:X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="12" customWidth="1"/>
-    <col min="3" max="28" width="9.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="12" customWidth="1"/>
+    <col min="3" max="28" width="9.77734375" style="12" customWidth="1"/>
     <col min="29" max="29" width="14" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32270,7 +32685,7 @@
       <c r="AB4" s="20"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:32" ht="15.5">
+    <row r="5" spans="1:32" ht="15.6">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
@@ -32299,7 +32714,7 @@
       <c r="AB6" s="20"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:32" ht="15.5">
+    <row r="7" spans="1:32" ht="15.6">
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -32325,8 +32740,8 @@
       <c r="AC7" s="12"/>
     </row>
     <row r="8" spans="1:32" ht="43.5" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="17">
         <v>1990</v>
       </c>
@@ -32417,8 +32832,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -32450,7 +32865,7 @@
       <c r="AE9" s="15"/>
       <c r="AF9" s="38"/>
     </row>
-    <row r="10" spans="1:32" ht="15.5">
+    <row r="10" spans="1:32" ht="16.2">
       <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
@@ -32543,7 +32958,7 @@
       </c>
       <c r="AF10" s="38"/>
     </row>
-    <row r="11" spans="1:32" ht="15.5">
+    <row r="11" spans="1:32" ht="16.2">
       <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
@@ -33415,7 +33830,7 @@
       </c>
       <c r="AF20" s="38"/>
     </row>
-    <row r="21" spans="1:32" ht="15.5">
+    <row r="21" spans="1:32" ht="16.2">
       <c r="B21" s="42" t="s">
         <v>51</v>
       </c>
@@ -34169,8 +34584,8 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
@@ -34185,7 +34600,7 @@
       <c r="AE31" s="12"/>
       <c r="AF31" s="38"/>
     </row>
-    <row r="32" spans="1:32" ht="15.5">
+    <row r="32" spans="1:32" ht="16.2">
       <c r="B32" s="44" t="s">
         <v>61</v>
       </c>
@@ -34278,7 +34693,7 @@
       </c>
       <c r="AF32" s="38"/>
     </row>
-    <row r="33" spans="1:32" ht="26.5">
+    <row r="33" spans="1:32" ht="27">
       <c r="A33" s="15"/>
       <c r="B33" s="45" t="s">
         <v>62</v>
@@ -34314,7 +34729,7 @@
       <c r="AE33" s="15"/>
       <c r="AF33" s="38"/>
     </row>
-    <row r="34" spans="1:32" ht="15.5">
+    <row r="34" spans="1:32" ht="16.2">
       <c r="A34" s="15"/>
       <c r="B34" s="12" t="s">
         <v>63</v>
@@ -34408,7 +34823,7 @@
       </c>
       <c r="AF34" s="38"/>
     </row>
-    <row r="35" spans="1:32" ht="15.5">
+    <row r="35" spans="1:32" ht="16.2">
       <c r="A35" s="15"/>
       <c r="B35" s="12" t="s">
         <v>64</v>
@@ -34502,7 +34917,7 @@
       </c>
       <c r="AF35" s="38"/>
     </row>
-    <row r="36" spans="1:32" ht="15.5">
+    <row r="36" spans="1:32" ht="16.2">
       <c r="A36" s="15"/>
       <c r="B36" s="12" t="s">
         <v>65</v>
@@ -34596,7 +35011,7 @@
       </c>
       <c r="AF36" s="38"/>
     </row>
-    <row r="37" spans="1:32" ht="15.5">
+    <row r="37" spans="1:32" ht="16.2">
       <c r="A37" s="15"/>
       <c r="B37" s="12" t="s">
         <v>66</v>
@@ -34690,7 +35105,7 @@
       </c>
       <c r="AF37" s="38"/>
     </row>
-    <row r="38" spans="1:32" ht="15.5">
+    <row r="38" spans="1:32" ht="16.2">
       <c r="A38" s="15"/>
       <c r="B38" s="12" t="s">
         <v>67</v>
@@ -34784,7 +35199,7 @@
       </c>
       <c r="AF38" s="38"/>
     </row>
-    <row r="39" spans="1:32" ht="15.5">
+    <row r="39" spans="1:32" ht="16.2">
       <c r="A39" s="15"/>
       <c r="B39" s="12" t="s">
         <v>68</v>
@@ -34878,7 +35293,7 @@
       </c>
       <c r="AF39" s="38"/>
     </row>
-    <row r="40" spans="1:32" ht="15.5">
+    <row r="40" spans="1:32" ht="16.2">
       <c r="A40" s="15"/>
       <c r="B40" s="12" t="s">
         <v>69</v>
@@ -34972,7 +35387,7 @@
       </c>
       <c r="AF40" s="38"/>
     </row>
-    <row r="41" spans="1:32" ht="15.5">
+    <row r="41" spans="1:32" ht="16.2">
       <c r="B41" s="12" t="s">
         <v>70</v>
       </c>
@@ -35066,14 +35481,14 @@
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="38"/>
     </row>
-    <row r="43" spans="1:32" ht="15.5">
+    <row r="43" spans="1:32" ht="16.2">
       <c r="B43" s="46" t="s">
         <v>71</v>
       </c>
@@ -35167,92 +35582,92 @@
       <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="AC44" s="38"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="38"/>
       <c r="AF44" s="38"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="62"/>
+      <c r="B45" s="92"/>
       <c r="AC45" s="38"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
       <c r="AC46" s="38"/>
       <c r="AD46" s="38"/>
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="63"/>
+      <c r="B47" s="93"/>
       <c r="AC47" s="38"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="92"/>
       <c r="AC48" s="38"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="92"/>
       <c r="AC49" s="38"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="62"/>
+      <c r="B50" s="92"/>
       <c r="AC50" s="38"/>
       <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="62"/>
+      <c r="B51" s="92"/>
       <c r="AC51" s="38"/>
       <c r="AD51" s="38"/>
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="62"/>
+      <c r="B52" s="92"/>
       <c r="AC52" s="38"/>
       <c r="AD52" s="38"/>
       <c r="AE52" s="38"/>
       <c r="AF52" s="38"/>
     </row>
-    <row r="53" spans="1:32" ht="15.5">
+    <row r="53" spans="1:32" ht="15.6">
       <c r="B53" s="23"/>
     </row>
     <row r="55" spans="1:32">
@@ -35269,12 +35684,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
@@ -35282,6 +35691,12 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="50" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
@@ -35295,16 +35710,16 @@
   </sheetPr>
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="L17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="12" customWidth="1"/>
     <col min="2" max="2" width="52" style="12" customWidth="1"/>
-    <col min="3" max="28" width="9.7265625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="9.77734375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="13.77734375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="52.5" customHeight="1"/>
@@ -35371,11 +35786,11 @@
       <c r="AB4" s="20"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:32" ht="15.5">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:32" ht="15.6">
+      <c r="A5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -35414,9 +35829,9 @@
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
     </row>
-    <row r="7" spans="1:32" ht="15.5">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+    <row r="7" spans="1:32" ht="15.6">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="19"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -35442,8 +35857,8 @@
       <c r="AF7" s="38"/>
     </row>
     <row r="8" spans="1:32" ht="42" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="17">
         <v>1990</v>
       </c>
@@ -35534,8 +35949,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -35567,7 +35982,7 @@
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
     </row>
-    <row r="10" spans="1:32" ht="15.5">
+    <row r="10" spans="1:32" ht="16.2">
       <c r="B10" s="15" t="s">
         <v>81</v>
       </c>
@@ -35660,7 +36075,7 @@
       </c>
       <c r="AF10" s="38"/>
     </row>
-    <row r="11" spans="1:32" ht="15.5">
+    <row r="11" spans="1:32" ht="16.2">
       <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
@@ -36615,7 +37030,7 @@
       </c>
       <c r="AF21" s="38"/>
     </row>
-    <row r="22" spans="1:32" ht="15.5">
+    <row r="22" spans="1:32" ht="16.2">
       <c r="B22" s="42" t="s">
         <v>51</v>
       </c>
@@ -37184,8 +37599,8 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
@@ -37202,7 +37617,7 @@
       <c r="AE30" s="15"/>
       <c r="AF30" s="38"/>
     </row>
-    <row r="31" spans="1:32" ht="15.5">
+    <row r="31" spans="1:32" ht="16.2">
       <c r="B31" s="44" t="s">
         <v>88</v>
       </c>
@@ -37305,7 +37720,7 @@
       <c r="AE32" s="15"/>
       <c r="AF32" s="38"/>
     </row>
-    <row r="33" spans="1:32" ht="15.5">
+    <row r="33" spans="1:32" ht="16.2">
       <c r="B33" s="12" t="s">
         <v>64</v>
       </c>
@@ -37398,7 +37813,7 @@
       </c>
       <c r="AF33" s="38"/>
     </row>
-    <row r="34" spans="1:32" ht="15.5">
+    <row r="34" spans="1:32" ht="16.2">
       <c r="B34" s="12" t="s">
         <v>90</v>
       </c>
@@ -37491,7 +37906,7 @@
       </c>
       <c r="AF34" s="38"/>
     </row>
-    <row r="35" spans="1:32" ht="15.5">
+    <row r="35" spans="1:32" ht="16.2">
       <c r="B35" s="12" t="s">
         <v>91</v>
       </c>
@@ -37584,7 +37999,7 @@
       </c>
       <c r="AF35" s="38"/>
     </row>
-    <row r="36" spans="1:32" ht="15.5">
+    <row r="36" spans="1:32" ht="16.2">
       <c r="B36" s="12" t="s">
         <v>92</v>
       </c>
@@ -37677,7 +38092,7 @@
       </c>
       <c r="AF36" s="38"/>
     </row>
-    <row r="37" spans="1:32" ht="15.5">
+    <row r="37" spans="1:32" ht="16.2">
       <c r="B37" s="12" t="s">
         <v>93</v>
       </c>
@@ -37770,7 +38185,7 @@
       </c>
       <c r="AF37" s="38"/>
     </row>
-    <row r="38" spans="1:32" ht="15.5">
+    <row r="38" spans="1:32" ht="16.2">
       <c r="B38" s="12" t="s">
         <v>94</v>
       </c>
@@ -37864,15 +38279,15 @@
       <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
       <c r="AF39" s="38"/>
     </row>
-    <row r="40" spans="1:32" ht="15.5">
+    <row r="40" spans="1:32" ht="16.2">
       <c r="B40" s="46" t="s">
         <v>95</v>
       </c>
@@ -37966,98 +38381,98 @@
       <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="38"/>
       <c r="AE41" s="38"/>
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="93"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="38"/>
       <c r="AE42" s="38"/>
       <c r="AF42" s="38"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="62"/>
+      <c r="B43" s="92"/>
       <c r="AC43" s="12"/>
       <c r="AD43" s="38"/>
       <c r="AE43" s="38"/>
       <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="92"/>
       <c r="AC44" s="12"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="38"/>
       <c r="AF44" s="38"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="62"/>
+      <c r="B45" s="92"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="92"/>
       <c r="AC46" s="12"/>
       <c r="AD46" s="38"/>
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="62"/>
+      <c r="B47" s="92"/>
       <c r="AC47" s="12"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="92"/>
       <c r="AC48" s="12"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="92"/>
       <c r="AC49" s="12"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="62"/>
+      <c r="B50" s="92"/>
       <c r="AC50" s="12"/>
       <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
@@ -38097,13 +38512,7 @@
       <c r="A57" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A29:B29"/>
+  <mergeCells count="15">
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
@@ -38114,6 +38523,11 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{4215E112-E9B1-4A1C-AA81-ED2108378386}"/>
@@ -38130,17 +38544,17 @@
   </sheetPr>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1">
@@ -40042,12 +40456,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -40107,272 +40523,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="12" customWidth="1"/>
     <col min="2" max="2" width="46" style="12" customWidth="1"/>
-    <col min="3" max="29" width="9.7265625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="12.7265625" customWidth="1"/>
+    <col min="3" max="29" width="9.77734375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="12.77734375" customWidth="1"/>
     <col min="257" max="257" width="3" customWidth="1"/>
     <col min="258" max="258" width="46" customWidth="1"/>
-    <col min="259" max="285" width="9.7265625" customWidth="1"/>
-    <col min="286" max="286" width="12.7265625" customWidth="1"/>
+    <col min="259" max="285" width="9.77734375" customWidth="1"/>
+    <col min="286" max="286" width="12.77734375" customWidth="1"/>
     <col min="513" max="513" width="3" customWidth="1"/>
     <col min="514" max="514" width="46" customWidth="1"/>
-    <col min="515" max="541" width="9.7265625" customWidth="1"/>
-    <col min="542" max="542" width="12.7265625" customWidth="1"/>
+    <col min="515" max="541" width="9.77734375" customWidth="1"/>
+    <col min="542" max="542" width="12.77734375" customWidth="1"/>
     <col min="769" max="769" width="3" customWidth="1"/>
     <col min="770" max="770" width="46" customWidth="1"/>
-    <col min="771" max="797" width="9.7265625" customWidth="1"/>
-    <col min="798" max="798" width="12.7265625" customWidth="1"/>
+    <col min="771" max="797" width="9.77734375" customWidth="1"/>
+    <col min="798" max="798" width="12.77734375" customWidth="1"/>
     <col min="1025" max="1025" width="3" customWidth="1"/>
     <col min="1026" max="1026" width="46" customWidth="1"/>
-    <col min="1027" max="1053" width="9.7265625" customWidth="1"/>
-    <col min="1054" max="1054" width="12.7265625" customWidth="1"/>
+    <col min="1027" max="1053" width="9.77734375" customWidth="1"/>
+    <col min="1054" max="1054" width="12.77734375" customWidth="1"/>
     <col min="1281" max="1281" width="3" customWidth="1"/>
     <col min="1282" max="1282" width="46" customWidth="1"/>
-    <col min="1283" max="1309" width="9.7265625" customWidth="1"/>
-    <col min="1310" max="1310" width="12.7265625" customWidth="1"/>
+    <col min="1283" max="1309" width="9.77734375" customWidth="1"/>
+    <col min="1310" max="1310" width="12.77734375" customWidth="1"/>
     <col min="1537" max="1537" width="3" customWidth="1"/>
     <col min="1538" max="1538" width="46" customWidth="1"/>
-    <col min="1539" max="1565" width="9.7265625" customWidth="1"/>
-    <col min="1566" max="1566" width="12.7265625" customWidth="1"/>
+    <col min="1539" max="1565" width="9.77734375" customWidth="1"/>
+    <col min="1566" max="1566" width="12.77734375" customWidth="1"/>
     <col min="1793" max="1793" width="3" customWidth="1"/>
     <col min="1794" max="1794" width="46" customWidth="1"/>
-    <col min="1795" max="1821" width="9.7265625" customWidth="1"/>
-    <col min="1822" max="1822" width="12.7265625" customWidth="1"/>
+    <col min="1795" max="1821" width="9.77734375" customWidth="1"/>
+    <col min="1822" max="1822" width="12.77734375" customWidth="1"/>
     <col min="2049" max="2049" width="3" customWidth="1"/>
     <col min="2050" max="2050" width="46" customWidth="1"/>
-    <col min="2051" max="2077" width="9.7265625" customWidth="1"/>
-    <col min="2078" max="2078" width="12.7265625" customWidth="1"/>
+    <col min="2051" max="2077" width="9.77734375" customWidth="1"/>
+    <col min="2078" max="2078" width="12.77734375" customWidth="1"/>
     <col min="2305" max="2305" width="3" customWidth="1"/>
     <col min="2306" max="2306" width="46" customWidth="1"/>
-    <col min="2307" max="2333" width="9.7265625" customWidth="1"/>
-    <col min="2334" max="2334" width="12.7265625" customWidth="1"/>
+    <col min="2307" max="2333" width="9.77734375" customWidth="1"/>
+    <col min="2334" max="2334" width="12.77734375" customWidth="1"/>
     <col min="2561" max="2561" width="3" customWidth="1"/>
     <col min="2562" max="2562" width="46" customWidth="1"/>
-    <col min="2563" max="2589" width="9.7265625" customWidth="1"/>
-    <col min="2590" max="2590" width="12.7265625" customWidth="1"/>
+    <col min="2563" max="2589" width="9.77734375" customWidth="1"/>
+    <col min="2590" max="2590" width="12.77734375" customWidth="1"/>
     <col min="2817" max="2817" width="3" customWidth="1"/>
     <col min="2818" max="2818" width="46" customWidth="1"/>
-    <col min="2819" max="2845" width="9.7265625" customWidth="1"/>
-    <col min="2846" max="2846" width="12.7265625" customWidth="1"/>
+    <col min="2819" max="2845" width="9.77734375" customWidth="1"/>
+    <col min="2846" max="2846" width="12.77734375" customWidth="1"/>
     <col min="3073" max="3073" width="3" customWidth="1"/>
     <col min="3074" max="3074" width="46" customWidth="1"/>
-    <col min="3075" max="3101" width="9.7265625" customWidth="1"/>
-    <col min="3102" max="3102" width="12.7265625" customWidth="1"/>
+    <col min="3075" max="3101" width="9.77734375" customWidth="1"/>
+    <col min="3102" max="3102" width="12.77734375" customWidth="1"/>
     <col min="3329" max="3329" width="3" customWidth="1"/>
     <col min="3330" max="3330" width="46" customWidth="1"/>
-    <col min="3331" max="3357" width="9.7265625" customWidth="1"/>
-    <col min="3358" max="3358" width="12.7265625" customWidth="1"/>
+    <col min="3331" max="3357" width="9.77734375" customWidth="1"/>
+    <col min="3358" max="3358" width="12.77734375" customWidth="1"/>
     <col min="3585" max="3585" width="3" customWidth="1"/>
     <col min="3586" max="3586" width="46" customWidth="1"/>
-    <col min="3587" max="3613" width="9.7265625" customWidth="1"/>
-    <col min="3614" max="3614" width="12.7265625" customWidth="1"/>
+    <col min="3587" max="3613" width="9.77734375" customWidth="1"/>
+    <col min="3614" max="3614" width="12.77734375" customWidth="1"/>
     <col min="3841" max="3841" width="3" customWidth="1"/>
     <col min="3842" max="3842" width="46" customWidth="1"/>
-    <col min="3843" max="3869" width="9.7265625" customWidth="1"/>
-    <col min="3870" max="3870" width="12.7265625" customWidth="1"/>
+    <col min="3843" max="3869" width="9.77734375" customWidth="1"/>
+    <col min="3870" max="3870" width="12.77734375" customWidth="1"/>
     <col min="4097" max="4097" width="3" customWidth="1"/>
     <col min="4098" max="4098" width="46" customWidth="1"/>
-    <col min="4099" max="4125" width="9.7265625" customWidth="1"/>
-    <col min="4126" max="4126" width="12.7265625" customWidth="1"/>
+    <col min="4099" max="4125" width="9.77734375" customWidth="1"/>
+    <col min="4126" max="4126" width="12.77734375" customWidth="1"/>
     <col min="4353" max="4353" width="3" customWidth="1"/>
     <col min="4354" max="4354" width="46" customWidth="1"/>
-    <col min="4355" max="4381" width="9.7265625" customWidth="1"/>
-    <col min="4382" max="4382" width="12.7265625" customWidth="1"/>
+    <col min="4355" max="4381" width="9.77734375" customWidth="1"/>
+    <col min="4382" max="4382" width="12.77734375" customWidth="1"/>
     <col min="4609" max="4609" width="3" customWidth="1"/>
     <col min="4610" max="4610" width="46" customWidth="1"/>
-    <col min="4611" max="4637" width="9.7265625" customWidth="1"/>
-    <col min="4638" max="4638" width="12.7265625" customWidth="1"/>
+    <col min="4611" max="4637" width="9.77734375" customWidth="1"/>
+    <col min="4638" max="4638" width="12.77734375" customWidth="1"/>
     <col min="4865" max="4865" width="3" customWidth="1"/>
     <col min="4866" max="4866" width="46" customWidth="1"/>
-    <col min="4867" max="4893" width="9.7265625" customWidth="1"/>
-    <col min="4894" max="4894" width="12.7265625" customWidth="1"/>
+    <col min="4867" max="4893" width="9.77734375" customWidth="1"/>
+    <col min="4894" max="4894" width="12.77734375" customWidth="1"/>
     <col min="5121" max="5121" width="3" customWidth="1"/>
     <col min="5122" max="5122" width="46" customWidth="1"/>
-    <col min="5123" max="5149" width="9.7265625" customWidth="1"/>
-    <col min="5150" max="5150" width="12.7265625" customWidth="1"/>
+    <col min="5123" max="5149" width="9.77734375" customWidth="1"/>
+    <col min="5150" max="5150" width="12.77734375" customWidth="1"/>
     <col min="5377" max="5377" width="3" customWidth="1"/>
     <col min="5378" max="5378" width="46" customWidth="1"/>
-    <col min="5379" max="5405" width="9.7265625" customWidth="1"/>
-    <col min="5406" max="5406" width="12.7265625" customWidth="1"/>
+    <col min="5379" max="5405" width="9.77734375" customWidth="1"/>
+    <col min="5406" max="5406" width="12.77734375" customWidth="1"/>
     <col min="5633" max="5633" width="3" customWidth="1"/>
     <col min="5634" max="5634" width="46" customWidth="1"/>
-    <col min="5635" max="5661" width="9.7265625" customWidth="1"/>
-    <col min="5662" max="5662" width="12.7265625" customWidth="1"/>
+    <col min="5635" max="5661" width="9.77734375" customWidth="1"/>
+    <col min="5662" max="5662" width="12.77734375" customWidth="1"/>
     <col min="5889" max="5889" width="3" customWidth="1"/>
     <col min="5890" max="5890" width="46" customWidth="1"/>
-    <col min="5891" max="5917" width="9.7265625" customWidth="1"/>
-    <col min="5918" max="5918" width="12.7265625" customWidth="1"/>
+    <col min="5891" max="5917" width="9.77734375" customWidth="1"/>
+    <col min="5918" max="5918" width="12.77734375" customWidth="1"/>
     <col min="6145" max="6145" width="3" customWidth="1"/>
     <col min="6146" max="6146" width="46" customWidth="1"/>
-    <col min="6147" max="6173" width="9.7265625" customWidth="1"/>
-    <col min="6174" max="6174" width="12.7265625" customWidth="1"/>
+    <col min="6147" max="6173" width="9.77734375" customWidth="1"/>
+    <col min="6174" max="6174" width="12.77734375" customWidth="1"/>
     <col min="6401" max="6401" width="3" customWidth="1"/>
     <col min="6402" max="6402" width="46" customWidth="1"/>
-    <col min="6403" max="6429" width="9.7265625" customWidth="1"/>
-    <col min="6430" max="6430" width="12.7265625" customWidth="1"/>
+    <col min="6403" max="6429" width="9.77734375" customWidth="1"/>
+    <col min="6430" max="6430" width="12.77734375" customWidth="1"/>
     <col min="6657" max="6657" width="3" customWidth="1"/>
     <col min="6658" max="6658" width="46" customWidth="1"/>
-    <col min="6659" max="6685" width="9.7265625" customWidth="1"/>
-    <col min="6686" max="6686" width="12.7265625" customWidth="1"/>
+    <col min="6659" max="6685" width="9.77734375" customWidth="1"/>
+    <col min="6686" max="6686" width="12.77734375" customWidth="1"/>
     <col min="6913" max="6913" width="3" customWidth="1"/>
     <col min="6914" max="6914" width="46" customWidth="1"/>
-    <col min="6915" max="6941" width="9.7265625" customWidth="1"/>
-    <col min="6942" max="6942" width="12.7265625" customWidth="1"/>
+    <col min="6915" max="6941" width="9.77734375" customWidth="1"/>
+    <col min="6942" max="6942" width="12.77734375" customWidth="1"/>
     <col min="7169" max="7169" width="3" customWidth="1"/>
     <col min="7170" max="7170" width="46" customWidth="1"/>
-    <col min="7171" max="7197" width="9.7265625" customWidth="1"/>
-    <col min="7198" max="7198" width="12.7265625" customWidth="1"/>
+    <col min="7171" max="7197" width="9.77734375" customWidth="1"/>
+    <col min="7198" max="7198" width="12.77734375" customWidth="1"/>
     <col min="7425" max="7425" width="3" customWidth="1"/>
     <col min="7426" max="7426" width="46" customWidth="1"/>
-    <col min="7427" max="7453" width="9.7265625" customWidth="1"/>
-    <col min="7454" max="7454" width="12.7265625" customWidth="1"/>
+    <col min="7427" max="7453" width="9.77734375" customWidth="1"/>
+    <col min="7454" max="7454" width="12.77734375" customWidth="1"/>
     <col min="7681" max="7681" width="3" customWidth="1"/>
     <col min="7682" max="7682" width="46" customWidth="1"/>
-    <col min="7683" max="7709" width="9.7265625" customWidth="1"/>
-    <col min="7710" max="7710" width="12.7265625" customWidth="1"/>
+    <col min="7683" max="7709" width="9.77734375" customWidth="1"/>
+    <col min="7710" max="7710" width="12.77734375" customWidth="1"/>
     <col min="7937" max="7937" width="3" customWidth="1"/>
     <col min="7938" max="7938" width="46" customWidth="1"/>
-    <col min="7939" max="7965" width="9.7265625" customWidth="1"/>
-    <col min="7966" max="7966" width="12.7265625" customWidth="1"/>
+    <col min="7939" max="7965" width="9.77734375" customWidth="1"/>
+    <col min="7966" max="7966" width="12.77734375" customWidth="1"/>
     <col min="8193" max="8193" width="3" customWidth="1"/>
     <col min="8194" max="8194" width="46" customWidth="1"/>
-    <col min="8195" max="8221" width="9.7265625" customWidth="1"/>
-    <col min="8222" max="8222" width="12.7265625" customWidth="1"/>
+    <col min="8195" max="8221" width="9.77734375" customWidth="1"/>
+    <col min="8222" max="8222" width="12.77734375" customWidth="1"/>
     <col min="8449" max="8449" width="3" customWidth="1"/>
     <col min="8450" max="8450" width="46" customWidth="1"/>
-    <col min="8451" max="8477" width="9.7265625" customWidth="1"/>
-    <col min="8478" max="8478" width="12.7265625" customWidth="1"/>
+    <col min="8451" max="8477" width="9.77734375" customWidth="1"/>
+    <col min="8478" max="8478" width="12.77734375" customWidth="1"/>
     <col min="8705" max="8705" width="3" customWidth="1"/>
     <col min="8706" max="8706" width="46" customWidth="1"/>
-    <col min="8707" max="8733" width="9.7265625" customWidth="1"/>
-    <col min="8734" max="8734" width="12.7265625" customWidth="1"/>
+    <col min="8707" max="8733" width="9.77734375" customWidth="1"/>
+    <col min="8734" max="8734" width="12.77734375" customWidth="1"/>
     <col min="8961" max="8961" width="3" customWidth="1"/>
     <col min="8962" max="8962" width="46" customWidth="1"/>
-    <col min="8963" max="8989" width="9.7265625" customWidth="1"/>
-    <col min="8990" max="8990" width="12.7265625" customWidth="1"/>
+    <col min="8963" max="8989" width="9.77734375" customWidth="1"/>
+    <col min="8990" max="8990" width="12.77734375" customWidth="1"/>
     <col min="9217" max="9217" width="3" customWidth="1"/>
     <col min="9218" max="9218" width="46" customWidth="1"/>
-    <col min="9219" max="9245" width="9.7265625" customWidth="1"/>
-    <col min="9246" max="9246" width="12.7265625" customWidth="1"/>
+    <col min="9219" max="9245" width="9.77734375" customWidth="1"/>
+    <col min="9246" max="9246" width="12.77734375" customWidth="1"/>
     <col min="9473" max="9473" width="3" customWidth="1"/>
     <col min="9474" max="9474" width="46" customWidth="1"/>
-    <col min="9475" max="9501" width="9.7265625" customWidth="1"/>
-    <col min="9502" max="9502" width="12.7265625" customWidth="1"/>
+    <col min="9475" max="9501" width="9.77734375" customWidth="1"/>
+    <col min="9502" max="9502" width="12.77734375" customWidth="1"/>
     <col min="9729" max="9729" width="3" customWidth="1"/>
     <col min="9730" max="9730" width="46" customWidth="1"/>
-    <col min="9731" max="9757" width="9.7265625" customWidth="1"/>
-    <col min="9758" max="9758" width="12.7265625" customWidth="1"/>
+    <col min="9731" max="9757" width="9.77734375" customWidth="1"/>
+    <col min="9758" max="9758" width="12.77734375" customWidth="1"/>
     <col min="9985" max="9985" width="3" customWidth="1"/>
     <col min="9986" max="9986" width="46" customWidth="1"/>
-    <col min="9987" max="10013" width="9.7265625" customWidth="1"/>
-    <col min="10014" max="10014" width="12.7265625" customWidth="1"/>
+    <col min="9987" max="10013" width="9.77734375" customWidth="1"/>
+    <col min="10014" max="10014" width="12.77734375" customWidth="1"/>
     <col min="10241" max="10241" width="3" customWidth="1"/>
     <col min="10242" max="10242" width="46" customWidth="1"/>
-    <col min="10243" max="10269" width="9.7265625" customWidth="1"/>
-    <col min="10270" max="10270" width="12.7265625" customWidth="1"/>
+    <col min="10243" max="10269" width="9.77734375" customWidth="1"/>
+    <col min="10270" max="10270" width="12.77734375" customWidth="1"/>
     <col min="10497" max="10497" width="3" customWidth="1"/>
     <col min="10498" max="10498" width="46" customWidth="1"/>
-    <col min="10499" max="10525" width="9.7265625" customWidth="1"/>
-    <col min="10526" max="10526" width="12.7265625" customWidth="1"/>
+    <col min="10499" max="10525" width="9.77734375" customWidth="1"/>
+    <col min="10526" max="10526" width="12.77734375" customWidth="1"/>
     <col min="10753" max="10753" width="3" customWidth="1"/>
     <col min="10754" max="10754" width="46" customWidth="1"/>
-    <col min="10755" max="10781" width="9.7265625" customWidth="1"/>
-    <col min="10782" max="10782" width="12.7265625" customWidth="1"/>
+    <col min="10755" max="10781" width="9.77734375" customWidth="1"/>
+    <col min="10782" max="10782" width="12.77734375" customWidth="1"/>
     <col min="11009" max="11009" width="3" customWidth="1"/>
     <col min="11010" max="11010" width="46" customWidth="1"/>
-    <col min="11011" max="11037" width="9.7265625" customWidth="1"/>
-    <col min="11038" max="11038" width="12.7265625" customWidth="1"/>
+    <col min="11011" max="11037" width="9.77734375" customWidth="1"/>
+    <col min="11038" max="11038" width="12.77734375" customWidth="1"/>
     <col min="11265" max="11265" width="3" customWidth="1"/>
     <col min="11266" max="11266" width="46" customWidth="1"/>
-    <col min="11267" max="11293" width="9.7265625" customWidth="1"/>
-    <col min="11294" max="11294" width="12.7265625" customWidth="1"/>
+    <col min="11267" max="11293" width="9.77734375" customWidth="1"/>
+    <col min="11294" max="11294" width="12.77734375" customWidth="1"/>
     <col min="11521" max="11521" width="3" customWidth="1"/>
     <col min="11522" max="11522" width="46" customWidth="1"/>
-    <col min="11523" max="11549" width="9.7265625" customWidth="1"/>
-    <col min="11550" max="11550" width="12.7265625" customWidth="1"/>
+    <col min="11523" max="11549" width="9.77734375" customWidth="1"/>
+    <col min="11550" max="11550" width="12.77734375" customWidth="1"/>
     <col min="11777" max="11777" width="3" customWidth="1"/>
     <col min="11778" max="11778" width="46" customWidth="1"/>
-    <col min="11779" max="11805" width="9.7265625" customWidth="1"/>
-    <col min="11806" max="11806" width="12.7265625" customWidth="1"/>
+    <col min="11779" max="11805" width="9.77734375" customWidth="1"/>
+    <col min="11806" max="11806" width="12.77734375" customWidth="1"/>
     <col min="12033" max="12033" width="3" customWidth="1"/>
     <col min="12034" max="12034" width="46" customWidth="1"/>
-    <col min="12035" max="12061" width="9.7265625" customWidth="1"/>
-    <col min="12062" max="12062" width="12.7265625" customWidth="1"/>
+    <col min="12035" max="12061" width="9.77734375" customWidth="1"/>
+    <col min="12062" max="12062" width="12.77734375" customWidth="1"/>
     <col min="12289" max="12289" width="3" customWidth="1"/>
     <col min="12290" max="12290" width="46" customWidth="1"/>
-    <col min="12291" max="12317" width="9.7265625" customWidth="1"/>
-    <col min="12318" max="12318" width="12.7265625" customWidth="1"/>
+    <col min="12291" max="12317" width="9.77734375" customWidth="1"/>
+    <col min="12318" max="12318" width="12.77734375" customWidth="1"/>
     <col min="12545" max="12545" width="3" customWidth="1"/>
     <col min="12546" max="12546" width="46" customWidth="1"/>
-    <col min="12547" max="12573" width="9.7265625" customWidth="1"/>
-    <col min="12574" max="12574" width="12.7265625" customWidth="1"/>
+    <col min="12547" max="12573" width="9.77734375" customWidth="1"/>
+    <col min="12574" max="12574" width="12.77734375" customWidth="1"/>
     <col min="12801" max="12801" width="3" customWidth="1"/>
     <col min="12802" max="12802" width="46" customWidth="1"/>
-    <col min="12803" max="12829" width="9.7265625" customWidth="1"/>
-    <col min="12830" max="12830" width="12.7265625" customWidth="1"/>
+    <col min="12803" max="12829" width="9.77734375" customWidth="1"/>
+    <col min="12830" max="12830" width="12.77734375" customWidth="1"/>
     <col min="13057" max="13057" width="3" customWidth="1"/>
     <col min="13058" max="13058" width="46" customWidth="1"/>
-    <col min="13059" max="13085" width="9.7265625" customWidth="1"/>
-    <col min="13086" max="13086" width="12.7265625" customWidth="1"/>
+    <col min="13059" max="13085" width="9.77734375" customWidth="1"/>
+    <col min="13086" max="13086" width="12.77734375" customWidth="1"/>
     <col min="13313" max="13313" width="3" customWidth="1"/>
     <col min="13314" max="13314" width="46" customWidth="1"/>
-    <col min="13315" max="13341" width="9.7265625" customWidth="1"/>
-    <col min="13342" max="13342" width="12.7265625" customWidth="1"/>
+    <col min="13315" max="13341" width="9.77734375" customWidth="1"/>
+    <col min="13342" max="13342" width="12.77734375" customWidth="1"/>
     <col min="13569" max="13569" width="3" customWidth="1"/>
     <col min="13570" max="13570" width="46" customWidth="1"/>
-    <col min="13571" max="13597" width="9.7265625" customWidth="1"/>
-    <col min="13598" max="13598" width="12.7265625" customWidth="1"/>
+    <col min="13571" max="13597" width="9.77734375" customWidth="1"/>
+    <col min="13598" max="13598" width="12.77734375" customWidth="1"/>
     <col min="13825" max="13825" width="3" customWidth="1"/>
     <col min="13826" max="13826" width="46" customWidth="1"/>
-    <col min="13827" max="13853" width="9.7265625" customWidth="1"/>
-    <col min="13854" max="13854" width="12.7265625" customWidth="1"/>
+    <col min="13827" max="13853" width="9.77734375" customWidth="1"/>
+    <col min="13854" max="13854" width="12.77734375" customWidth="1"/>
     <col min="14081" max="14081" width="3" customWidth="1"/>
     <col min="14082" max="14082" width="46" customWidth="1"/>
-    <col min="14083" max="14109" width="9.7265625" customWidth="1"/>
-    <col min="14110" max="14110" width="12.7265625" customWidth="1"/>
+    <col min="14083" max="14109" width="9.77734375" customWidth="1"/>
+    <col min="14110" max="14110" width="12.77734375" customWidth="1"/>
     <col min="14337" max="14337" width="3" customWidth="1"/>
     <col min="14338" max="14338" width="46" customWidth="1"/>
-    <col min="14339" max="14365" width="9.7265625" customWidth="1"/>
-    <col min="14366" max="14366" width="12.7265625" customWidth="1"/>
+    <col min="14339" max="14365" width="9.77734375" customWidth="1"/>
+    <col min="14366" max="14366" width="12.77734375" customWidth="1"/>
     <col min="14593" max="14593" width="3" customWidth="1"/>
     <col min="14594" max="14594" width="46" customWidth="1"/>
-    <col min="14595" max="14621" width="9.7265625" customWidth="1"/>
-    <col min="14622" max="14622" width="12.7265625" customWidth="1"/>
+    <col min="14595" max="14621" width="9.77734375" customWidth="1"/>
+    <col min="14622" max="14622" width="12.77734375" customWidth="1"/>
     <col min="14849" max="14849" width="3" customWidth="1"/>
     <col min="14850" max="14850" width="46" customWidth="1"/>
-    <col min="14851" max="14877" width="9.7265625" customWidth="1"/>
-    <col min="14878" max="14878" width="12.7265625" customWidth="1"/>
+    <col min="14851" max="14877" width="9.77734375" customWidth="1"/>
+    <col min="14878" max="14878" width="12.77734375" customWidth="1"/>
     <col min="15105" max="15105" width="3" customWidth="1"/>
     <col min="15106" max="15106" width="46" customWidth="1"/>
-    <col min="15107" max="15133" width="9.7265625" customWidth="1"/>
-    <col min="15134" max="15134" width="12.7265625" customWidth="1"/>
+    <col min="15107" max="15133" width="9.77734375" customWidth="1"/>
+    <col min="15134" max="15134" width="12.77734375" customWidth="1"/>
     <col min="15361" max="15361" width="3" customWidth="1"/>
     <col min="15362" max="15362" width="46" customWidth="1"/>
-    <col min="15363" max="15389" width="9.7265625" customWidth="1"/>
-    <col min="15390" max="15390" width="12.7265625" customWidth="1"/>
+    <col min="15363" max="15389" width="9.77734375" customWidth="1"/>
+    <col min="15390" max="15390" width="12.77734375" customWidth="1"/>
     <col min="15617" max="15617" width="3" customWidth="1"/>
     <col min="15618" max="15618" width="46" customWidth="1"/>
-    <col min="15619" max="15645" width="9.7265625" customWidth="1"/>
-    <col min="15646" max="15646" width="12.7265625" customWidth="1"/>
+    <col min="15619" max="15645" width="9.77734375" customWidth="1"/>
+    <col min="15646" max="15646" width="12.77734375" customWidth="1"/>
     <col min="15873" max="15873" width="3" customWidth="1"/>
     <col min="15874" max="15874" width="46" customWidth="1"/>
-    <col min="15875" max="15901" width="9.7265625" customWidth="1"/>
-    <col min="15902" max="15902" width="12.7265625" customWidth="1"/>
+    <col min="15875" max="15901" width="9.77734375" customWidth="1"/>
+    <col min="15902" max="15902" width="12.77734375" customWidth="1"/>
     <col min="16129" max="16129" width="3" customWidth="1"/>
     <col min="16130" max="16130" width="46" customWidth="1"/>
-    <col min="16131" max="16157" width="9.7265625" customWidth="1"/>
-    <col min="16158" max="16158" width="12.7265625" customWidth="1"/>
+    <col min="16131" max="16157" width="9.77734375" customWidth="1"/>
+    <col min="16158" max="16158" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="52.4" customHeight="1"/>
-    <row r="2" spans="1:31" ht="18">
+    <row r="1" spans="1:31" ht="52.35" customHeight="1"/>
+    <row r="2" spans="1:31" ht="17.399999999999999">
       <c r="A2" s="30"/>
       <c r="B2" s="22"/>
       <c r="K2" s="20"/>
@@ -40417,7 +40833,7 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
     </row>
-    <row r="5" spans="1:31" ht="15.5">
+    <row r="5" spans="1:31" ht="15.6">
       <c r="A5" s="21" t="s">
         <v>132</v>
       </c>
@@ -40453,7 +40869,7 @@
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
     </row>
-    <row r="7" spans="1:31" ht="15.5">
+    <row r="7" spans="1:31" ht="15.6">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="21"/>
@@ -40611,7 +41027,7 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
     </row>
-    <row r="12" spans="1:31" ht="15.5">
+    <row r="12" spans="1:31" ht="16.2">
       <c r="B12" s="12" t="s">
         <v>135</v>
       </c>
@@ -40703,7 +41119,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.5">
+    <row r="13" spans="1:31" ht="16.2">
       <c r="B13" s="12" t="s">
         <v>136</v>
       </c>
@@ -40795,7 +41211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.5">
+    <row r="14" spans="1:31" ht="16.2">
       <c r="B14" s="12" t="s">
         <v>137</v>
       </c>
@@ -40894,7 +41310,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
     </row>
-    <row r="16" spans="1:31" ht="15.5">
+    <row r="16" spans="1:31" ht="16.2">
       <c r="B16" s="12" t="s">
         <v>139</v>
       </c>
@@ -40986,7 +41402,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15.5">
+    <row r="17" spans="1:31" ht="16.2">
       <c r="B17" s="12" t="s">
         <v>140</v>
       </c>
@@ -41078,7 +41494,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.5">
+    <row r="18" spans="1:31" ht="16.2">
       <c r="B18" s="12" t="s">
         <v>141</v>
       </c>
@@ -41177,7 +41593,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
     </row>
-    <row r="20" spans="1:31" ht="15.5">
+    <row r="20" spans="1:31" ht="16.2">
       <c r="B20" s="12" t="s">
         <v>64</v>
       </c>
@@ -41269,7 +41685,7 @@
         <v>18436</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.5">
+    <row r="21" spans="1:31" ht="16.2">
       <c r="B21" s="12" t="s">
         <v>143</v>
       </c>
@@ -41361,7 +41777,7 @@
         <v>24734</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15.5">
+    <row r="22" spans="1:31" ht="16.2">
       <c r="B22" s="12" t="s">
         <v>144</v>
       </c>
@@ -41460,16 +41876,16 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" ht="15.5">
+    <row r="24" spans="1:31" ht="16.2">
       <c r="B24" s="12" t="s">
         <v>146</v>
       </c>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
     </row>
-    <row r="25" spans="1:31" ht="15.5">
+    <row r="25" spans="1:31" ht="15.6">
       <c r="A25" s="31"/>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="86" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="31">
@@ -41560,9 +41976,9 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.5">
+    <row r="26" spans="1:31" ht="15.6">
       <c r="A26" s="31"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="86" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="31">
@@ -41653,16 +42069,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.5">
+    <row r="27" spans="1:31" ht="16.2">
       <c r="B27" s="12" t="s">
         <v>149</v>
       </c>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
     </row>
-    <row r="28" spans="1:31" ht="15.5">
+    <row r="28" spans="1:31" ht="15.6">
       <c r="A28" s="31"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="86" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="31">
@@ -41753,9 +42169,9 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.5">
+    <row r="29" spans="1:31" ht="15.6">
       <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="86" t="s">
         <v>148</v>
       </c>
       <c r="C29" s="31">
@@ -41846,16 +42262,16 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15.5">
+    <row r="30" spans="1:31" ht="16.2">
       <c r="B30" s="12" t="s">
         <v>144</v>
       </c>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
     </row>
-    <row r="31" spans="1:31" ht="15.5">
+    <row r="31" spans="1:31" ht="15.6">
       <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="86" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="31">
@@ -41946,14 +42362,14 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.5">
+    <row r="32" spans="1:31" ht="16.2">
       <c r="B32" s="40" t="s">
         <v>150</v>
       </c>
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
     </row>
-    <row r="33" spans="1:31" ht="15.5">
+    <row r="33" spans="1:31" ht="16.2">
       <c r="B33" s="12" t="s">
         <v>151</v>
       </c>
@@ -42045,7 +42461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15.5">
+    <row r="34" spans="1:31" ht="16.2">
       <c r="B34" s="12" t="s">
         <v>152</v>
       </c>
@@ -42323,16 +42739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -42753,208 +43171,208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF157"/>
   <sheetViews>
-    <sheetView topLeftCell="Z4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="20" max="29" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
+    <col min="20" max="29" width="9.21875" customWidth="1"/>
     <col min="257" max="257" width="3" customWidth="1"/>
-    <col min="258" max="258" width="45.453125" customWidth="1"/>
-    <col min="276" max="285" width="9.1796875" customWidth="1"/>
+    <col min="258" max="258" width="45.44140625" customWidth="1"/>
+    <col min="276" max="285" width="9.21875" customWidth="1"/>
     <col min="513" max="513" width="3" customWidth="1"/>
-    <col min="514" max="514" width="45.453125" customWidth="1"/>
-    <col min="532" max="541" width="9.1796875" customWidth="1"/>
+    <col min="514" max="514" width="45.44140625" customWidth="1"/>
+    <col min="532" max="541" width="9.21875" customWidth="1"/>
     <col min="769" max="769" width="3" customWidth="1"/>
-    <col min="770" max="770" width="45.453125" customWidth="1"/>
-    <col min="788" max="797" width="9.1796875" customWidth="1"/>
+    <col min="770" max="770" width="45.44140625" customWidth="1"/>
+    <col min="788" max="797" width="9.21875" customWidth="1"/>
     <col min="1025" max="1025" width="3" customWidth="1"/>
-    <col min="1026" max="1026" width="45.453125" customWidth="1"/>
-    <col min="1044" max="1053" width="9.1796875" customWidth="1"/>
+    <col min="1026" max="1026" width="45.44140625" customWidth="1"/>
+    <col min="1044" max="1053" width="9.21875" customWidth="1"/>
     <col min="1281" max="1281" width="3" customWidth="1"/>
-    <col min="1282" max="1282" width="45.453125" customWidth="1"/>
-    <col min="1300" max="1309" width="9.1796875" customWidth="1"/>
+    <col min="1282" max="1282" width="45.44140625" customWidth="1"/>
+    <col min="1300" max="1309" width="9.21875" customWidth="1"/>
     <col min="1537" max="1537" width="3" customWidth="1"/>
-    <col min="1538" max="1538" width="45.453125" customWidth="1"/>
-    <col min="1556" max="1565" width="9.1796875" customWidth="1"/>
+    <col min="1538" max="1538" width="45.44140625" customWidth="1"/>
+    <col min="1556" max="1565" width="9.21875" customWidth="1"/>
     <col min="1793" max="1793" width="3" customWidth="1"/>
-    <col min="1794" max="1794" width="45.453125" customWidth="1"/>
-    <col min="1812" max="1821" width="9.1796875" customWidth="1"/>
+    <col min="1794" max="1794" width="45.44140625" customWidth="1"/>
+    <col min="1812" max="1821" width="9.21875" customWidth="1"/>
     <col min="2049" max="2049" width="3" customWidth="1"/>
-    <col min="2050" max="2050" width="45.453125" customWidth="1"/>
-    <col min="2068" max="2077" width="9.1796875" customWidth="1"/>
+    <col min="2050" max="2050" width="45.44140625" customWidth="1"/>
+    <col min="2068" max="2077" width="9.21875" customWidth="1"/>
     <col min="2305" max="2305" width="3" customWidth="1"/>
-    <col min="2306" max="2306" width="45.453125" customWidth="1"/>
-    <col min="2324" max="2333" width="9.1796875" customWidth="1"/>
+    <col min="2306" max="2306" width="45.44140625" customWidth="1"/>
+    <col min="2324" max="2333" width="9.21875" customWidth="1"/>
     <col min="2561" max="2561" width="3" customWidth="1"/>
-    <col min="2562" max="2562" width="45.453125" customWidth="1"/>
-    <col min="2580" max="2589" width="9.1796875" customWidth="1"/>
+    <col min="2562" max="2562" width="45.44140625" customWidth="1"/>
+    <col min="2580" max="2589" width="9.21875" customWidth="1"/>
     <col min="2817" max="2817" width="3" customWidth="1"/>
-    <col min="2818" max="2818" width="45.453125" customWidth="1"/>
-    <col min="2836" max="2845" width="9.1796875" customWidth="1"/>
+    <col min="2818" max="2818" width="45.44140625" customWidth="1"/>
+    <col min="2836" max="2845" width="9.21875" customWidth="1"/>
     <col min="3073" max="3073" width="3" customWidth="1"/>
-    <col min="3074" max="3074" width="45.453125" customWidth="1"/>
-    <col min="3092" max="3101" width="9.1796875" customWidth="1"/>
+    <col min="3074" max="3074" width="45.44140625" customWidth="1"/>
+    <col min="3092" max="3101" width="9.21875" customWidth="1"/>
     <col min="3329" max="3329" width="3" customWidth="1"/>
-    <col min="3330" max="3330" width="45.453125" customWidth="1"/>
-    <col min="3348" max="3357" width="9.1796875" customWidth="1"/>
+    <col min="3330" max="3330" width="45.44140625" customWidth="1"/>
+    <col min="3348" max="3357" width="9.21875" customWidth="1"/>
     <col min="3585" max="3585" width="3" customWidth="1"/>
-    <col min="3586" max="3586" width="45.453125" customWidth="1"/>
-    <col min="3604" max="3613" width="9.1796875" customWidth="1"/>
+    <col min="3586" max="3586" width="45.44140625" customWidth="1"/>
+    <col min="3604" max="3613" width="9.21875" customWidth="1"/>
     <col min="3841" max="3841" width="3" customWidth="1"/>
-    <col min="3842" max="3842" width="45.453125" customWidth="1"/>
-    <col min="3860" max="3869" width="9.1796875" customWidth="1"/>
+    <col min="3842" max="3842" width="45.44140625" customWidth="1"/>
+    <col min="3860" max="3869" width="9.21875" customWidth="1"/>
     <col min="4097" max="4097" width="3" customWidth="1"/>
-    <col min="4098" max="4098" width="45.453125" customWidth="1"/>
-    <col min="4116" max="4125" width="9.1796875" customWidth="1"/>
+    <col min="4098" max="4098" width="45.44140625" customWidth="1"/>
+    <col min="4116" max="4125" width="9.21875" customWidth="1"/>
     <col min="4353" max="4353" width="3" customWidth="1"/>
-    <col min="4354" max="4354" width="45.453125" customWidth="1"/>
-    <col min="4372" max="4381" width="9.1796875" customWidth="1"/>
+    <col min="4354" max="4354" width="45.44140625" customWidth="1"/>
+    <col min="4372" max="4381" width="9.21875" customWidth="1"/>
     <col min="4609" max="4609" width="3" customWidth="1"/>
-    <col min="4610" max="4610" width="45.453125" customWidth="1"/>
-    <col min="4628" max="4637" width="9.1796875" customWidth="1"/>
+    <col min="4610" max="4610" width="45.44140625" customWidth="1"/>
+    <col min="4628" max="4637" width="9.21875" customWidth="1"/>
     <col min="4865" max="4865" width="3" customWidth="1"/>
-    <col min="4866" max="4866" width="45.453125" customWidth="1"/>
-    <col min="4884" max="4893" width="9.1796875" customWidth="1"/>
+    <col min="4866" max="4866" width="45.44140625" customWidth="1"/>
+    <col min="4884" max="4893" width="9.21875" customWidth="1"/>
     <col min="5121" max="5121" width="3" customWidth="1"/>
-    <col min="5122" max="5122" width="45.453125" customWidth="1"/>
-    <col min="5140" max="5149" width="9.1796875" customWidth="1"/>
+    <col min="5122" max="5122" width="45.44140625" customWidth="1"/>
+    <col min="5140" max="5149" width="9.21875" customWidth="1"/>
     <col min="5377" max="5377" width="3" customWidth="1"/>
-    <col min="5378" max="5378" width="45.453125" customWidth="1"/>
-    <col min="5396" max="5405" width="9.1796875" customWidth="1"/>
+    <col min="5378" max="5378" width="45.44140625" customWidth="1"/>
+    <col min="5396" max="5405" width="9.21875" customWidth="1"/>
     <col min="5633" max="5633" width="3" customWidth="1"/>
-    <col min="5634" max="5634" width="45.453125" customWidth="1"/>
-    <col min="5652" max="5661" width="9.1796875" customWidth="1"/>
+    <col min="5634" max="5634" width="45.44140625" customWidth="1"/>
+    <col min="5652" max="5661" width="9.21875" customWidth="1"/>
     <col min="5889" max="5889" width="3" customWidth="1"/>
-    <col min="5890" max="5890" width="45.453125" customWidth="1"/>
-    <col min="5908" max="5917" width="9.1796875" customWidth="1"/>
+    <col min="5890" max="5890" width="45.44140625" customWidth="1"/>
+    <col min="5908" max="5917" width="9.21875" customWidth="1"/>
     <col min="6145" max="6145" width="3" customWidth="1"/>
-    <col min="6146" max="6146" width="45.453125" customWidth="1"/>
-    <col min="6164" max="6173" width="9.1796875" customWidth="1"/>
+    <col min="6146" max="6146" width="45.44140625" customWidth="1"/>
+    <col min="6164" max="6173" width="9.21875" customWidth="1"/>
     <col min="6401" max="6401" width="3" customWidth="1"/>
-    <col min="6402" max="6402" width="45.453125" customWidth="1"/>
-    <col min="6420" max="6429" width="9.1796875" customWidth="1"/>
+    <col min="6402" max="6402" width="45.44140625" customWidth="1"/>
+    <col min="6420" max="6429" width="9.21875" customWidth="1"/>
     <col min="6657" max="6657" width="3" customWidth="1"/>
-    <col min="6658" max="6658" width="45.453125" customWidth="1"/>
-    <col min="6676" max="6685" width="9.1796875" customWidth="1"/>
+    <col min="6658" max="6658" width="45.44140625" customWidth="1"/>
+    <col min="6676" max="6685" width="9.21875" customWidth="1"/>
     <col min="6913" max="6913" width="3" customWidth="1"/>
-    <col min="6914" max="6914" width="45.453125" customWidth="1"/>
-    <col min="6932" max="6941" width="9.1796875" customWidth="1"/>
+    <col min="6914" max="6914" width="45.44140625" customWidth="1"/>
+    <col min="6932" max="6941" width="9.21875" customWidth="1"/>
     <col min="7169" max="7169" width="3" customWidth="1"/>
-    <col min="7170" max="7170" width="45.453125" customWidth="1"/>
-    <col min="7188" max="7197" width="9.1796875" customWidth="1"/>
+    <col min="7170" max="7170" width="45.44140625" customWidth="1"/>
+    <col min="7188" max="7197" width="9.21875" customWidth="1"/>
     <col min="7425" max="7425" width="3" customWidth="1"/>
-    <col min="7426" max="7426" width="45.453125" customWidth="1"/>
-    <col min="7444" max="7453" width="9.1796875" customWidth="1"/>
+    <col min="7426" max="7426" width="45.44140625" customWidth="1"/>
+    <col min="7444" max="7453" width="9.21875" customWidth="1"/>
     <col min="7681" max="7681" width="3" customWidth="1"/>
-    <col min="7682" max="7682" width="45.453125" customWidth="1"/>
-    <col min="7700" max="7709" width="9.1796875" customWidth="1"/>
+    <col min="7682" max="7682" width="45.44140625" customWidth="1"/>
+    <col min="7700" max="7709" width="9.21875" customWidth="1"/>
     <col min="7937" max="7937" width="3" customWidth="1"/>
-    <col min="7938" max="7938" width="45.453125" customWidth="1"/>
-    <col min="7956" max="7965" width="9.1796875" customWidth="1"/>
+    <col min="7938" max="7938" width="45.44140625" customWidth="1"/>
+    <col min="7956" max="7965" width="9.21875" customWidth="1"/>
     <col min="8193" max="8193" width="3" customWidth="1"/>
-    <col min="8194" max="8194" width="45.453125" customWidth="1"/>
-    <col min="8212" max="8221" width="9.1796875" customWidth="1"/>
+    <col min="8194" max="8194" width="45.44140625" customWidth="1"/>
+    <col min="8212" max="8221" width="9.21875" customWidth="1"/>
     <col min="8449" max="8449" width="3" customWidth="1"/>
-    <col min="8450" max="8450" width="45.453125" customWidth="1"/>
-    <col min="8468" max="8477" width="9.1796875" customWidth="1"/>
+    <col min="8450" max="8450" width="45.44140625" customWidth="1"/>
+    <col min="8468" max="8477" width="9.21875" customWidth="1"/>
     <col min="8705" max="8705" width="3" customWidth="1"/>
-    <col min="8706" max="8706" width="45.453125" customWidth="1"/>
-    <col min="8724" max="8733" width="9.1796875" customWidth="1"/>
+    <col min="8706" max="8706" width="45.44140625" customWidth="1"/>
+    <col min="8724" max="8733" width="9.21875" customWidth="1"/>
     <col min="8961" max="8961" width="3" customWidth="1"/>
-    <col min="8962" max="8962" width="45.453125" customWidth="1"/>
-    <col min="8980" max="8989" width="9.1796875" customWidth="1"/>
+    <col min="8962" max="8962" width="45.44140625" customWidth="1"/>
+    <col min="8980" max="8989" width="9.21875" customWidth="1"/>
     <col min="9217" max="9217" width="3" customWidth="1"/>
-    <col min="9218" max="9218" width="45.453125" customWidth="1"/>
-    <col min="9236" max="9245" width="9.1796875" customWidth="1"/>
+    <col min="9218" max="9218" width="45.44140625" customWidth="1"/>
+    <col min="9236" max="9245" width="9.21875" customWidth="1"/>
     <col min="9473" max="9473" width="3" customWidth="1"/>
-    <col min="9474" max="9474" width="45.453125" customWidth="1"/>
-    <col min="9492" max="9501" width="9.1796875" customWidth="1"/>
+    <col min="9474" max="9474" width="45.44140625" customWidth="1"/>
+    <col min="9492" max="9501" width="9.21875" customWidth="1"/>
     <col min="9729" max="9729" width="3" customWidth="1"/>
-    <col min="9730" max="9730" width="45.453125" customWidth="1"/>
-    <col min="9748" max="9757" width="9.1796875" customWidth="1"/>
+    <col min="9730" max="9730" width="45.44140625" customWidth="1"/>
+    <col min="9748" max="9757" width="9.21875" customWidth="1"/>
     <col min="9985" max="9985" width="3" customWidth="1"/>
-    <col min="9986" max="9986" width="45.453125" customWidth="1"/>
-    <col min="10004" max="10013" width="9.1796875" customWidth="1"/>
+    <col min="9986" max="9986" width="45.44140625" customWidth="1"/>
+    <col min="10004" max="10013" width="9.21875" customWidth="1"/>
     <col min="10241" max="10241" width="3" customWidth="1"/>
-    <col min="10242" max="10242" width="45.453125" customWidth="1"/>
-    <col min="10260" max="10269" width="9.1796875" customWidth="1"/>
+    <col min="10242" max="10242" width="45.44140625" customWidth="1"/>
+    <col min="10260" max="10269" width="9.21875" customWidth="1"/>
     <col min="10497" max="10497" width="3" customWidth="1"/>
-    <col min="10498" max="10498" width="45.453125" customWidth="1"/>
-    <col min="10516" max="10525" width="9.1796875" customWidth="1"/>
+    <col min="10498" max="10498" width="45.44140625" customWidth="1"/>
+    <col min="10516" max="10525" width="9.21875" customWidth="1"/>
     <col min="10753" max="10753" width="3" customWidth="1"/>
-    <col min="10754" max="10754" width="45.453125" customWidth="1"/>
-    <col min="10772" max="10781" width="9.1796875" customWidth="1"/>
+    <col min="10754" max="10754" width="45.44140625" customWidth="1"/>
+    <col min="10772" max="10781" width="9.21875" customWidth="1"/>
     <col min="11009" max="11009" width="3" customWidth="1"/>
-    <col min="11010" max="11010" width="45.453125" customWidth="1"/>
-    <col min="11028" max="11037" width="9.1796875" customWidth="1"/>
+    <col min="11010" max="11010" width="45.44140625" customWidth="1"/>
+    <col min="11028" max="11037" width="9.21875" customWidth="1"/>
     <col min="11265" max="11265" width="3" customWidth="1"/>
-    <col min="11266" max="11266" width="45.453125" customWidth="1"/>
-    <col min="11284" max="11293" width="9.1796875" customWidth="1"/>
+    <col min="11266" max="11266" width="45.44140625" customWidth="1"/>
+    <col min="11284" max="11293" width="9.21875" customWidth="1"/>
     <col min="11521" max="11521" width="3" customWidth="1"/>
-    <col min="11522" max="11522" width="45.453125" customWidth="1"/>
-    <col min="11540" max="11549" width="9.1796875" customWidth="1"/>
+    <col min="11522" max="11522" width="45.44140625" customWidth="1"/>
+    <col min="11540" max="11549" width="9.21875" customWidth="1"/>
     <col min="11777" max="11777" width="3" customWidth="1"/>
-    <col min="11778" max="11778" width="45.453125" customWidth="1"/>
-    <col min="11796" max="11805" width="9.1796875" customWidth="1"/>
+    <col min="11778" max="11778" width="45.44140625" customWidth="1"/>
+    <col min="11796" max="11805" width="9.21875" customWidth="1"/>
     <col min="12033" max="12033" width="3" customWidth="1"/>
-    <col min="12034" max="12034" width="45.453125" customWidth="1"/>
-    <col min="12052" max="12061" width="9.1796875" customWidth="1"/>
+    <col min="12034" max="12034" width="45.44140625" customWidth="1"/>
+    <col min="12052" max="12061" width="9.21875" customWidth="1"/>
     <col min="12289" max="12289" width="3" customWidth="1"/>
-    <col min="12290" max="12290" width="45.453125" customWidth="1"/>
-    <col min="12308" max="12317" width="9.1796875" customWidth="1"/>
+    <col min="12290" max="12290" width="45.44140625" customWidth="1"/>
+    <col min="12308" max="12317" width="9.21875" customWidth="1"/>
     <col min="12545" max="12545" width="3" customWidth="1"/>
-    <col min="12546" max="12546" width="45.453125" customWidth="1"/>
-    <col min="12564" max="12573" width="9.1796875" customWidth="1"/>
+    <col min="12546" max="12546" width="45.44140625" customWidth="1"/>
+    <col min="12564" max="12573" width="9.21875" customWidth="1"/>
     <col min="12801" max="12801" width="3" customWidth="1"/>
-    <col min="12802" max="12802" width="45.453125" customWidth="1"/>
-    <col min="12820" max="12829" width="9.1796875" customWidth="1"/>
+    <col min="12802" max="12802" width="45.44140625" customWidth="1"/>
+    <col min="12820" max="12829" width="9.21875" customWidth="1"/>
     <col min="13057" max="13057" width="3" customWidth="1"/>
-    <col min="13058" max="13058" width="45.453125" customWidth="1"/>
-    <col min="13076" max="13085" width="9.1796875" customWidth="1"/>
+    <col min="13058" max="13058" width="45.44140625" customWidth="1"/>
+    <col min="13076" max="13085" width="9.21875" customWidth="1"/>
     <col min="13313" max="13313" width="3" customWidth="1"/>
-    <col min="13314" max="13314" width="45.453125" customWidth="1"/>
-    <col min="13332" max="13341" width="9.1796875" customWidth="1"/>
+    <col min="13314" max="13314" width="45.44140625" customWidth="1"/>
+    <col min="13332" max="13341" width="9.21875" customWidth="1"/>
     <col min="13569" max="13569" width="3" customWidth="1"/>
-    <col min="13570" max="13570" width="45.453125" customWidth="1"/>
-    <col min="13588" max="13597" width="9.1796875" customWidth="1"/>
+    <col min="13570" max="13570" width="45.44140625" customWidth="1"/>
+    <col min="13588" max="13597" width="9.21875" customWidth="1"/>
     <col min="13825" max="13825" width="3" customWidth="1"/>
-    <col min="13826" max="13826" width="45.453125" customWidth="1"/>
-    <col min="13844" max="13853" width="9.1796875" customWidth="1"/>
+    <col min="13826" max="13826" width="45.44140625" customWidth="1"/>
+    <col min="13844" max="13853" width="9.21875" customWidth="1"/>
     <col min="14081" max="14081" width="3" customWidth="1"/>
-    <col min="14082" max="14082" width="45.453125" customWidth="1"/>
-    <col min="14100" max="14109" width="9.1796875" customWidth="1"/>
+    <col min="14082" max="14082" width="45.44140625" customWidth="1"/>
+    <col min="14100" max="14109" width="9.21875" customWidth="1"/>
     <col min="14337" max="14337" width="3" customWidth="1"/>
-    <col min="14338" max="14338" width="45.453125" customWidth="1"/>
-    <col min="14356" max="14365" width="9.1796875" customWidth="1"/>
+    <col min="14338" max="14338" width="45.44140625" customWidth="1"/>
+    <col min="14356" max="14365" width="9.21875" customWidth="1"/>
     <col min="14593" max="14593" width="3" customWidth="1"/>
-    <col min="14594" max="14594" width="45.453125" customWidth="1"/>
-    <col min="14612" max="14621" width="9.1796875" customWidth="1"/>
+    <col min="14594" max="14594" width="45.44140625" customWidth="1"/>
+    <col min="14612" max="14621" width="9.21875" customWidth="1"/>
     <col min="14849" max="14849" width="3" customWidth="1"/>
-    <col min="14850" max="14850" width="45.453125" customWidth="1"/>
-    <col min="14868" max="14877" width="9.1796875" customWidth="1"/>
+    <col min="14850" max="14850" width="45.44140625" customWidth="1"/>
+    <col min="14868" max="14877" width="9.21875" customWidth="1"/>
     <col min="15105" max="15105" width="3" customWidth="1"/>
-    <col min="15106" max="15106" width="45.453125" customWidth="1"/>
-    <col min="15124" max="15133" width="9.1796875" customWidth="1"/>
+    <col min="15106" max="15106" width="45.44140625" customWidth="1"/>
+    <col min="15124" max="15133" width="9.21875" customWidth="1"/>
     <col min="15361" max="15361" width="3" customWidth="1"/>
-    <col min="15362" max="15362" width="45.453125" customWidth="1"/>
-    <col min="15380" max="15389" width="9.1796875" customWidth="1"/>
+    <col min="15362" max="15362" width="45.44140625" customWidth="1"/>
+    <col min="15380" max="15389" width="9.21875" customWidth="1"/>
     <col min="15617" max="15617" width="3" customWidth="1"/>
-    <col min="15618" max="15618" width="45.453125" customWidth="1"/>
-    <col min="15636" max="15645" width="9.1796875" customWidth="1"/>
+    <col min="15618" max="15618" width="45.44140625" customWidth="1"/>
+    <col min="15636" max="15645" width="9.21875" customWidth="1"/>
     <col min="15873" max="15873" width="3" customWidth="1"/>
-    <col min="15874" max="15874" width="45.453125" customWidth="1"/>
-    <col min="15892" max="15901" width="9.1796875" customWidth="1"/>
+    <col min="15874" max="15874" width="45.44140625" customWidth="1"/>
+    <col min="15892" max="15901" width="9.21875" customWidth="1"/>
     <col min="16129" max="16129" width="3" customWidth="1"/>
-    <col min="16130" max="16130" width="45.453125" customWidth="1"/>
-    <col min="16148" max="16157" width="9.1796875" customWidth="1"/>
+    <col min="16130" max="16130" width="45.44140625" customWidth="1"/>
+    <col min="16148" max="16157" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="52.4" customHeight="1"/>
-    <row r="2" spans="1:32" ht="17.5">
+    <row r="1" spans="1:32" ht="52.35" customHeight="1"/>
+    <row r="2" spans="1:32" ht="17.399999999999999">
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -42984,10 +43402,10 @@
       <c r="AC2" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -43020,8 +43438,8 @@
       <c r="AF5" s="38"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -43053,11 +43471,11 @@
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
     </row>
-    <row r="7" spans="1:32" ht="15.5">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:32" ht="15.6">
+      <c r="A7" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -43089,11 +43507,11 @@
       <c r="AE7" s="38"/>
       <c r="AF7" s="38"/>
     </row>
-    <row r="8" spans="1:32" ht="15.5">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:32" ht="15.6">
+      <c r="A8" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -43126,8 +43544,8 @@
       <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -43159,9 +43577,9 @@
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
     </row>
-    <row r="10" spans="1:32" ht="15.5">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
+    <row r="10" spans="1:32" ht="15.6">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="21"/>
@@ -43194,8 +43612,8 @@
       <c r="AF10" s="38"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="33">
         <v>1990</v>
       </c>
@@ -43286,8 +43704,8 @@
       <c r="AF11" s="38"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -43825,9 +44243,9 @@
       </c>
       <c r="AF18" s="38"/>
     </row>
-    <row r="19" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
+    <row r="19" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -44271,9 +44689,9 @@
       </c>
       <c r="AF24" s="38"/>
     </row>
-    <row r="25" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
+    <row r="25" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -44435,9 +44853,9 @@
       </c>
       <c r="AF27" s="38"/>
     </row>
-    <row r="28" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
+    <row r="28" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -44563,9 +44981,9 @@
       </c>
       <c r="AF29" s="38"/>
     </row>
-    <row r="30" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
+    <row r="30" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -44598,8 +45016,8 @@
       <c r="AF30" s="38"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -44631,7 +45049,7 @@
       <c r="AE31" s="38"/>
       <c r="AF31" s="38"/>
     </row>
-    <row r="32" spans="1:32" ht="15">
+    <row r="32" spans="1:32" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
         <v>195</v>
@@ -44725,7 +45143,7 @@
       </c>
       <c r="AF32" s="38"/>
     </row>
-    <row r="33" spans="1:32" ht="15">
+    <row r="33" spans="1:32">
       <c r="A33" s="38"/>
       <c r="B33" s="40" t="s">
         <v>196</v>
@@ -45137,9 +45555,9 @@
       </c>
       <c r="AF37" s="38"/>
     </row>
-    <row r="38" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+    <row r="38" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A38" s="94"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
@@ -45583,9 +46001,9 @@
       </c>
       <c r="AF43" s="38"/>
     </row>
-    <row r="44" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+    <row r="44" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A44" s="94"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -45711,9 +46129,9 @@
       </c>
       <c r="AF45" s="38"/>
     </row>
-    <row r="46" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
+    <row r="46" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A46" s="94"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
@@ -45745,11 +46163,11 @@
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
     </row>
-    <row r="47" spans="1:32" ht="15.5">
-      <c r="A47" s="64" t="s">
+    <row r="47" spans="1:32" ht="15.6">
+      <c r="A47" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="64"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -45782,8 +46200,8 @@
       <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
@@ -45815,9 +46233,9 @@
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
     </row>
-    <row r="49" spans="1:32" ht="15.5">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
+    <row r="49" spans="1:32" ht="15.6">
+      <c r="A49" s="94"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="21"/>
@@ -45850,8 +46268,8 @@
       <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="33">
         <v>1990</v>
       </c>
@@ -45942,8 +46360,8 @@
       <c r="AF50" s="38"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
@@ -45975,7 +46393,7 @@
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
     </row>
-    <row r="52" spans="1:32" ht="15.5">
+    <row r="52" spans="1:32" ht="16.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
         <v>199</v>
@@ -47045,9 +47463,9 @@
       </c>
       <c r="AF63" s="38"/>
     </row>
-    <row r="64" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
+    <row r="64" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A64" s="94"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
@@ -48055,9 +48473,9 @@
       </c>
       <c r="AF75" s="38"/>
     </row>
-    <row r="76" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
+    <row r="76" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A76" s="94"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
@@ -48219,9 +48637,9 @@
       </c>
       <c r="AF78" s="38"/>
     </row>
-    <row r="79" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
+    <row r="79" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A79" s="94"/>
+      <c r="B79" s="94"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -48347,9 +48765,9 @@
       </c>
       <c r="AF80" s="38"/>
     </row>
-    <row r="81" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
+    <row r="81" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A81" s="97"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -48382,8 +48800,8 @@
       <c r="AF81" s="38"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -48415,7 +48833,7 @@
       <c r="AE82" s="38"/>
       <c r="AF82" s="38"/>
     </row>
-    <row r="83" spans="1:32" ht="16">
+    <row r="83" spans="1:32" ht="16.8">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
         <v>211</v>
@@ -48509,7 +48927,7 @@
       </c>
       <c r="AF83" s="38"/>
     </row>
-    <row r="84" spans="1:32" ht="15">
+    <row r="84" spans="1:32">
       <c r="A84" s="12"/>
       <c r="B84" s="42" t="s">
         <v>212</v>
@@ -49485,9 +49903,9 @@
       </c>
       <c r="AF94" s="38"/>
     </row>
-    <row r="95" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A95" s="62"/>
-      <c r="B95" s="62"/>
+    <row r="95" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A95" s="92"/>
+      <c r="B95" s="92"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -50495,9 +50913,9 @@
       </c>
       <c r="AF106" s="38"/>
     </row>
-    <row r="107" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A107" s="62"/>
-      <c r="B107" s="62"/>
+    <row r="107" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -50623,9 +51041,9 @@
       </c>
       <c r="AF108" s="38"/>
     </row>
-    <row r="109" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65"/>
+    <row r="109" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A109" s="94"/>
+      <c r="B109" s="94"/>
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
@@ -50658,10 +51076,10 @@
       <c r="AF109" s="38"/>
     </row>
     <row r="110" spans="1:32">
-      <c r="A110" s="62" t="s">
+      <c r="A110" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="B110" s="62"/>
+      <c r="B110" s="92"/>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
@@ -50694,8 +51112,8 @@
       <c r="AF110" s="38"/>
     </row>
     <row r="111" spans="1:32">
-      <c r="A111" s="65"/>
-      <c r="B111" s="65"/>
+      <c r="A111" s="94"/>
+      <c r="B111" s="94"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
@@ -50727,11 +51145,11 @@
       <c r="AE111" s="38"/>
       <c r="AF111" s="38"/>
     </row>
-    <row r="112" spans="1:32" ht="15.5">
-      <c r="A112" s="64" t="s">
+    <row r="112" spans="1:32" ht="15.6">
+      <c r="A112" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="B112" s="64"/>
+      <c r="B112" s="96"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
@@ -50764,8 +51182,8 @@
       <c r="AF112" s="38"/>
     </row>
     <row r="113" spans="1:32">
-      <c r="A113" s="65"/>
-      <c r="B113" s="65"/>
+      <c r="A113" s="94"/>
+      <c r="B113" s="94"/>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
@@ -50797,9 +51215,9 @@
       <c r="AE113" s="38"/>
       <c r="AF113" s="38"/>
     </row>
-    <row r="114" spans="1:32" ht="15.5">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
+    <row r="114" spans="1:32" ht="15.6">
+      <c r="A114" s="94"/>
+      <c r="B114" s="94"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="21"/>
@@ -50832,8 +51250,8 @@
       <c r="AF114" s="38"/>
     </row>
     <row r="115" spans="1:32">
-      <c r="A115" s="65"/>
-      <c r="B115" s="65"/>
+      <c r="A115" s="94"/>
+      <c r="B115" s="94"/>
       <c r="C115" s="33">
         <v>1990</v>
       </c>
@@ -50924,8 +51342,8 @@
       <c r="AF115" s="38"/>
     </row>
     <row r="116" spans="1:32">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
+      <c r="A116" s="94"/>
+      <c r="B116" s="94"/>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -51651,9 +52069,9 @@
       </c>
       <c r="AF124" s="38"/>
     </row>
-    <row r="125" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A125" s="65"/>
-      <c r="B125" s="65"/>
+    <row r="125" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A125" s="94"/>
+      <c r="B125" s="94"/>
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -52285,9 +52703,9 @@
       </c>
       <c r="AF132" s="38"/>
     </row>
-    <row r="133" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A133" s="65"/>
-      <c r="B133" s="65"/>
+    <row r="133" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A133" s="94"/>
+      <c r="B133" s="94"/>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38"/>
@@ -52449,9 +52867,9 @@
       </c>
       <c r="AF135" s="38"/>
     </row>
-    <row r="136" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A136" s="65"/>
-      <c r="B136" s="65"/>
+    <row r="136" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A136" s="94"/>
+      <c r="B136" s="94"/>
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38"/>
@@ -52577,9 +52995,9 @@
       </c>
       <c r="AF137" s="38"/>
     </row>
-    <row r="138" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A138" s="65"/>
-      <c r="B138" s="65"/>
+    <row r="138" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A138" s="94"/>
+      <c r="B138" s="94"/>
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -52612,8 +53030,8 @@
       <c r="AF138" s="38"/>
     </row>
     <row r="139" spans="1:32">
-      <c r="A139" s="65"/>
-      <c r="B139" s="65"/>
+      <c r="A139" s="94"/>
+      <c r="B139" s="94"/>
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
@@ -52645,7 +53063,7 @@
       <c r="AE139" s="38"/>
       <c r="AF139" s="38"/>
     </row>
-    <row r="140" spans="1:32" ht="15">
+    <row r="140" spans="1:32" ht="15.6">
       <c r="A140" s="15"/>
       <c r="B140" s="15" t="s">
         <v>216</v>
@@ -52739,7 +53157,7 @@
       </c>
       <c r="AF140" s="38"/>
     </row>
-    <row r="141" spans="1:32" ht="15">
+    <row r="141" spans="1:32">
       <c r="A141" s="38"/>
       <c r="B141" s="40" t="s">
         <v>196</v>
@@ -53339,9 +53757,9 @@
       </c>
       <c r="AF147" s="38"/>
     </row>
-    <row r="148" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
+    <row r="148" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A148" s="94"/>
+      <c r="B148" s="94"/>
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="38"/>
@@ -53973,9 +54391,9 @@
       </c>
       <c r="AF155" s="38"/>
     </row>
-    <row r="156" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A156" s="65"/>
-      <c r="B156" s="65"/>
+    <row r="156" spans="1:32" ht="14.55" customHeight="1">
+      <c r="A156" s="94"/>
+      <c r="B156" s="94"/>
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
       <c r="E156" s="38"/>
@@ -54103,6 +54521,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
@@ -54115,37 +54564,6 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A148:B148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -54156,272 +54574,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView topLeftCell="R4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.26953125" style="12" customWidth="1"/>
-    <col min="3" max="29" width="9.7265625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" style="12" customWidth="1"/>
+    <col min="3" max="29" width="9.77734375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="12.44140625" customWidth="1"/>
     <col min="257" max="257" width="3" customWidth="1"/>
-    <col min="258" max="258" width="45.26953125" customWidth="1"/>
-    <col min="259" max="285" width="9.7265625" customWidth="1"/>
-    <col min="286" max="286" width="12.453125" customWidth="1"/>
+    <col min="258" max="258" width="45.21875" customWidth="1"/>
+    <col min="259" max="285" width="9.77734375" customWidth="1"/>
+    <col min="286" max="286" width="12.44140625" customWidth="1"/>
     <col min="513" max="513" width="3" customWidth="1"/>
-    <col min="514" max="514" width="45.26953125" customWidth="1"/>
-    <col min="515" max="541" width="9.7265625" customWidth="1"/>
-    <col min="542" max="542" width="12.453125" customWidth="1"/>
+    <col min="514" max="514" width="45.21875" customWidth="1"/>
+    <col min="515" max="541" width="9.77734375" customWidth="1"/>
+    <col min="542" max="542" width="12.44140625" customWidth="1"/>
     <col min="769" max="769" width="3" customWidth="1"/>
-    <col min="770" max="770" width="45.26953125" customWidth="1"/>
-    <col min="771" max="797" width="9.7265625" customWidth="1"/>
-    <col min="798" max="798" width="12.453125" customWidth="1"/>
+    <col min="770" max="770" width="45.21875" customWidth="1"/>
+    <col min="771" max="797" width="9.77734375" customWidth="1"/>
+    <col min="798" max="798" width="12.44140625" customWidth="1"/>
     <col min="1025" max="1025" width="3" customWidth="1"/>
-    <col min="1026" max="1026" width="45.26953125" customWidth="1"/>
-    <col min="1027" max="1053" width="9.7265625" customWidth="1"/>
-    <col min="1054" max="1054" width="12.453125" customWidth="1"/>
+    <col min="1026" max="1026" width="45.21875" customWidth="1"/>
+    <col min="1027" max="1053" width="9.77734375" customWidth="1"/>
+    <col min="1054" max="1054" width="12.44140625" customWidth="1"/>
     <col min="1281" max="1281" width="3" customWidth="1"/>
-    <col min="1282" max="1282" width="45.26953125" customWidth="1"/>
-    <col min="1283" max="1309" width="9.7265625" customWidth="1"/>
-    <col min="1310" max="1310" width="12.453125" customWidth="1"/>
+    <col min="1282" max="1282" width="45.21875" customWidth="1"/>
+    <col min="1283" max="1309" width="9.77734375" customWidth="1"/>
+    <col min="1310" max="1310" width="12.44140625" customWidth="1"/>
     <col min="1537" max="1537" width="3" customWidth="1"/>
-    <col min="1538" max="1538" width="45.26953125" customWidth="1"/>
-    <col min="1539" max="1565" width="9.7265625" customWidth="1"/>
-    <col min="1566" max="1566" width="12.453125" customWidth="1"/>
+    <col min="1538" max="1538" width="45.21875" customWidth="1"/>
+    <col min="1539" max="1565" width="9.77734375" customWidth="1"/>
+    <col min="1566" max="1566" width="12.44140625" customWidth="1"/>
     <col min="1793" max="1793" width="3" customWidth="1"/>
-    <col min="1794" max="1794" width="45.26953125" customWidth="1"/>
-    <col min="1795" max="1821" width="9.7265625" customWidth="1"/>
-    <col min="1822" max="1822" width="12.453125" customWidth="1"/>
+    <col min="1794" max="1794" width="45.21875" customWidth="1"/>
+    <col min="1795" max="1821" width="9.77734375" customWidth="1"/>
+    <col min="1822" max="1822" width="12.44140625" customWidth="1"/>
     <col min="2049" max="2049" width="3" customWidth="1"/>
-    <col min="2050" max="2050" width="45.26953125" customWidth="1"/>
-    <col min="2051" max="2077" width="9.7265625" customWidth="1"/>
-    <col min="2078" max="2078" width="12.453125" customWidth="1"/>
+    <col min="2050" max="2050" width="45.21875" customWidth="1"/>
+    <col min="2051" max="2077" width="9.77734375" customWidth="1"/>
+    <col min="2078" max="2078" width="12.44140625" customWidth="1"/>
     <col min="2305" max="2305" width="3" customWidth="1"/>
-    <col min="2306" max="2306" width="45.26953125" customWidth="1"/>
-    <col min="2307" max="2333" width="9.7265625" customWidth="1"/>
-    <col min="2334" max="2334" width="12.453125" customWidth="1"/>
+    <col min="2306" max="2306" width="45.21875" customWidth="1"/>
+    <col min="2307" max="2333" width="9.77734375" customWidth="1"/>
+    <col min="2334" max="2334" width="12.44140625" customWidth="1"/>
     <col min="2561" max="2561" width="3" customWidth="1"/>
-    <col min="2562" max="2562" width="45.26953125" customWidth="1"/>
-    <col min="2563" max="2589" width="9.7265625" customWidth="1"/>
-    <col min="2590" max="2590" width="12.453125" customWidth="1"/>
+    <col min="2562" max="2562" width="45.21875" customWidth="1"/>
+    <col min="2563" max="2589" width="9.77734375" customWidth="1"/>
+    <col min="2590" max="2590" width="12.44140625" customWidth="1"/>
     <col min="2817" max="2817" width="3" customWidth="1"/>
-    <col min="2818" max="2818" width="45.26953125" customWidth="1"/>
-    <col min="2819" max="2845" width="9.7265625" customWidth="1"/>
-    <col min="2846" max="2846" width="12.453125" customWidth="1"/>
+    <col min="2818" max="2818" width="45.21875" customWidth="1"/>
+    <col min="2819" max="2845" width="9.77734375" customWidth="1"/>
+    <col min="2846" max="2846" width="12.44140625" customWidth="1"/>
     <col min="3073" max="3073" width="3" customWidth="1"/>
-    <col min="3074" max="3074" width="45.26953125" customWidth="1"/>
-    <col min="3075" max="3101" width="9.7265625" customWidth="1"/>
-    <col min="3102" max="3102" width="12.453125" customWidth="1"/>
+    <col min="3074" max="3074" width="45.21875" customWidth="1"/>
+    <col min="3075" max="3101" width="9.77734375" customWidth="1"/>
+    <col min="3102" max="3102" width="12.44140625" customWidth="1"/>
     <col min="3329" max="3329" width="3" customWidth="1"/>
-    <col min="3330" max="3330" width="45.26953125" customWidth="1"/>
-    <col min="3331" max="3357" width="9.7265625" customWidth="1"/>
-    <col min="3358" max="3358" width="12.453125" customWidth="1"/>
+    <col min="3330" max="3330" width="45.21875" customWidth="1"/>
+    <col min="3331" max="3357" width="9.77734375" customWidth="1"/>
+    <col min="3358" max="3358" width="12.44140625" customWidth="1"/>
     <col min="3585" max="3585" width="3" customWidth="1"/>
-    <col min="3586" max="3586" width="45.26953125" customWidth="1"/>
-    <col min="3587" max="3613" width="9.7265625" customWidth="1"/>
-    <col min="3614" max="3614" width="12.453125" customWidth="1"/>
+    <col min="3586" max="3586" width="45.21875" customWidth="1"/>
+    <col min="3587" max="3613" width="9.77734375" customWidth="1"/>
+    <col min="3614" max="3614" width="12.44140625" customWidth="1"/>
     <col min="3841" max="3841" width="3" customWidth="1"/>
-    <col min="3842" max="3842" width="45.26953125" customWidth="1"/>
-    <col min="3843" max="3869" width="9.7265625" customWidth="1"/>
-    <col min="3870" max="3870" width="12.453125" customWidth="1"/>
+    <col min="3842" max="3842" width="45.21875" customWidth="1"/>
+    <col min="3843" max="3869" width="9.77734375" customWidth="1"/>
+    <col min="3870" max="3870" width="12.44140625" customWidth="1"/>
     <col min="4097" max="4097" width="3" customWidth="1"/>
-    <col min="4098" max="4098" width="45.26953125" customWidth="1"/>
-    <col min="4099" max="4125" width="9.7265625" customWidth="1"/>
-    <col min="4126" max="4126" width="12.453125" customWidth="1"/>
+    <col min="4098" max="4098" width="45.21875" customWidth="1"/>
+    <col min="4099" max="4125" width="9.77734375" customWidth="1"/>
+    <col min="4126" max="4126" width="12.44140625" customWidth="1"/>
     <col min="4353" max="4353" width="3" customWidth="1"/>
-    <col min="4354" max="4354" width="45.26953125" customWidth="1"/>
-    <col min="4355" max="4381" width="9.7265625" customWidth="1"/>
-    <col min="4382" max="4382" width="12.453125" customWidth="1"/>
+    <col min="4354" max="4354" width="45.21875" customWidth="1"/>
+    <col min="4355" max="4381" width="9.77734375" customWidth="1"/>
+    <col min="4382" max="4382" width="12.44140625" customWidth="1"/>
     <col min="4609" max="4609" width="3" customWidth="1"/>
-    <col min="4610" max="4610" width="45.26953125" customWidth="1"/>
-    <col min="4611" max="4637" width="9.7265625" customWidth="1"/>
-    <col min="4638" max="4638" width="12.453125" customWidth="1"/>
+    <col min="4610" max="4610" width="45.21875" customWidth="1"/>
+    <col min="4611" max="4637" width="9.77734375" customWidth="1"/>
+    <col min="4638" max="4638" width="12.44140625" customWidth="1"/>
     <col min="4865" max="4865" width="3" customWidth="1"/>
-    <col min="4866" max="4866" width="45.26953125" customWidth="1"/>
-    <col min="4867" max="4893" width="9.7265625" customWidth="1"/>
-    <col min="4894" max="4894" width="12.453125" customWidth="1"/>
+    <col min="4866" max="4866" width="45.21875" customWidth="1"/>
+    <col min="4867" max="4893" width="9.77734375" customWidth="1"/>
+    <col min="4894" max="4894" width="12.44140625" customWidth="1"/>
     <col min="5121" max="5121" width="3" customWidth="1"/>
-    <col min="5122" max="5122" width="45.26953125" customWidth="1"/>
-    <col min="5123" max="5149" width="9.7265625" customWidth="1"/>
-    <col min="5150" max="5150" width="12.453125" customWidth="1"/>
+    <col min="5122" max="5122" width="45.21875" customWidth="1"/>
+    <col min="5123" max="5149" width="9.77734375" customWidth="1"/>
+    <col min="5150" max="5150" width="12.44140625" customWidth="1"/>
     <col min="5377" max="5377" width="3" customWidth="1"/>
-    <col min="5378" max="5378" width="45.26953125" customWidth="1"/>
-    <col min="5379" max="5405" width="9.7265625" customWidth="1"/>
-    <col min="5406" max="5406" width="12.453125" customWidth="1"/>
+    <col min="5378" max="5378" width="45.21875" customWidth="1"/>
+    <col min="5379" max="5405" width="9.77734375" customWidth="1"/>
+    <col min="5406" max="5406" width="12.44140625" customWidth="1"/>
     <col min="5633" max="5633" width="3" customWidth="1"/>
-    <col min="5634" max="5634" width="45.26953125" customWidth="1"/>
-    <col min="5635" max="5661" width="9.7265625" customWidth="1"/>
-    <col min="5662" max="5662" width="12.453125" customWidth="1"/>
+    <col min="5634" max="5634" width="45.21875" customWidth="1"/>
+    <col min="5635" max="5661" width="9.77734375" customWidth="1"/>
+    <col min="5662" max="5662" width="12.44140625" customWidth="1"/>
     <col min="5889" max="5889" width="3" customWidth="1"/>
-    <col min="5890" max="5890" width="45.26953125" customWidth="1"/>
-    <col min="5891" max="5917" width="9.7265625" customWidth="1"/>
-    <col min="5918" max="5918" width="12.453125" customWidth="1"/>
+    <col min="5890" max="5890" width="45.21875" customWidth="1"/>
+    <col min="5891" max="5917" width="9.77734375" customWidth="1"/>
+    <col min="5918" max="5918" width="12.44140625" customWidth="1"/>
     <col min="6145" max="6145" width="3" customWidth="1"/>
-    <col min="6146" max="6146" width="45.26953125" customWidth="1"/>
-    <col min="6147" max="6173" width="9.7265625" customWidth="1"/>
-    <col min="6174" max="6174" width="12.453125" customWidth="1"/>
+    <col min="6146" max="6146" width="45.21875" customWidth="1"/>
+    <col min="6147" max="6173" width="9.77734375" customWidth="1"/>
+    <col min="6174" max="6174" width="12.44140625" customWidth="1"/>
     <col min="6401" max="6401" width="3" customWidth="1"/>
-    <col min="6402" max="6402" width="45.26953125" customWidth="1"/>
-    <col min="6403" max="6429" width="9.7265625" customWidth="1"/>
-    <col min="6430" max="6430" width="12.453125" customWidth="1"/>
+    <col min="6402" max="6402" width="45.21875" customWidth="1"/>
+    <col min="6403" max="6429" width="9.77734375" customWidth="1"/>
+    <col min="6430" max="6430" width="12.44140625" customWidth="1"/>
     <col min="6657" max="6657" width="3" customWidth="1"/>
-    <col min="6658" max="6658" width="45.26953125" customWidth="1"/>
-    <col min="6659" max="6685" width="9.7265625" customWidth="1"/>
-    <col min="6686" max="6686" width="12.453125" customWidth="1"/>
+    <col min="6658" max="6658" width="45.21875" customWidth="1"/>
+    <col min="6659" max="6685" width="9.77734375" customWidth="1"/>
+    <col min="6686" max="6686" width="12.44140625" customWidth="1"/>
     <col min="6913" max="6913" width="3" customWidth="1"/>
-    <col min="6914" max="6914" width="45.26953125" customWidth="1"/>
-    <col min="6915" max="6941" width="9.7265625" customWidth="1"/>
-    <col min="6942" max="6942" width="12.453125" customWidth="1"/>
+    <col min="6914" max="6914" width="45.21875" customWidth="1"/>
+    <col min="6915" max="6941" width="9.77734375" customWidth="1"/>
+    <col min="6942" max="6942" width="12.44140625" customWidth="1"/>
     <col min="7169" max="7169" width="3" customWidth="1"/>
-    <col min="7170" max="7170" width="45.26953125" customWidth="1"/>
-    <col min="7171" max="7197" width="9.7265625" customWidth="1"/>
-    <col min="7198" max="7198" width="12.453125" customWidth="1"/>
+    <col min="7170" max="7170" width="45.21875" customWidth="1"/>
+    <col min="7171" max="7197" width="9.77734375" customWidth="1"/>
+    <col min="7198" max="7198" width="12.44140625" customWidth="1"/>
     <col min="7425" max="7425" width="3" customWidth="1"/>
-    <col min="7426" max="7426" width="45.26953125" customWidth="1"/>
-    <col min="7427" max="7453" width="9.7265625" customWidth="1"/>
-    <col min="7454" max="7454" width="12.453125" customWidth="1"/>
+    <col min="7426" max="7426" width="45.21875" customWidth="1"/>
+    <col min="7427" max="7453" width="9.77734375" customWidth="1"/>
+    <col min="7454" max="7454" width="12.44140625" customWidth="1"/>
     <col min="7681" max="7681" width="3" customWidth="1"/>
-    <col min="7682" max="7682" width="45.26953125" customWidth="1"/>
-    <col min="7683" max="7709" width="9.7265625" customWidth="1"/>
-    <col min="7710" max="7710" width="12.453125" customWidth="1"/>
+    <col min="7682" max="7682" width="45.21875" customWidth="1"/>
+    <col min="7683" max="7709" width="9.77734375" customWidth="1"/>
+    <col min="7710" max="7710" width="12.44140625" customWidth="1"/>
     <col min="7937" max="7937" width="3" customWidth="1"/>
-    <col min="7938" max="7938" width="45.26953125" customWidth="1"/>
-    <col min="7939" max="7965" width="9.7265625" customWidth="1"/>
-    <col min="7966" max="7966" width="12.453125" customWidth="1"/>
+    <col min="7938" max="7938" width="45.21875" customWidth="1"/>
+    <col min="7939" max="7965" width="9.77734375" customWidth="1"/>
+    <col min="7966" max="7966" width="12.44140625" customWidth="1"/>
     <col min="8193" max="8193" width="3" customWidth="1"/>
-    <col min="8194" max="8194" width="45.26953125" customWidth="1"/>
-    <col min="8195" max="8221" width="9.7265625" customWidth="1"/>
-    <col min="8222" max="8222" width="12.453125" customWidth="1"/>
+    <col min="8194" max="8194" width="45.21875" customWidth="1"/>
+    <col min="8195" max="8221" width="9.77734375" customWidth="1"/>
+    <col min="8222" max="8222" width="12.44140625" customWidth="1"/>
     <col min="8449" max="8449" width="3" customWidth="1"/>
-    <col min="8450" max="8450" width="45.26953125" customWidth="1"/>
-    <col min="8451" max="8477" width="9.7265625" customWidth="1"/>
-    <col min="8478" max="8478" width="12.453125" customWidth="1"/>
+    <col min="8450" max="8450" width="45.21875" customWidth="1"/>
+    <col min="8451" max="8477" width="9.77734375" customWidth="1"/>
+    <col min="8478" max="8478" width="12.44140625" customWidth="1"/>
     <col min="8705" max="8705" width="3" customWidth="1"/>
-    <col min="8706" max="8706" width="45.26953125" customWidth="1"/>
-    <col min="8707" max="8733" width="9.7265625" customWidth="1"/>
-    <col min="8734" max="8734" width="12.453125" customWidth="1"/>
+    <col min="8706" max="8706" width="45.21875" customWidth="1"/>
+    <col min="8707" max="8733" width="9.77734375" customWidth="1"/>
+    <col min="8734" max="8734" width="12.44140625" customWidth="1"/>
     <col min="8961" max="8961" width="3" customWidth="1"/>
-    <col min="8962" max="8962" width="45.26953125" customWidth="1"/>
-    <col min="8963" max="8989" width="9.7265625" customWidth="1"/>
-    <col min="8990" max="8990" width="12.453125" customWidth="1"/>
+    <col min="8962" max="8962" width="45.21875" customWidth="1"/>
+    <col min="8963" max="8989" width="9.77734375" customWidth="1"/>
+    <col min="8990" max="8990" width="12.44140625" customWidth="1"/>
     <col min="9217" max="9217" width="3" customWidth="1"/>
-    <col min="9218" max="9218" width="45.26953125" customWidth="1"/>
-    <col min="9219" max="9245" width="9.7265625" customWidth="1"/>
-    <col min="9246" max="9246" width="12.453125" customWidth="1"/>
+    <col min="9218" max="9218" width="45.21875" customWidth="1"/>
+    <col min="9219" max="9245" width="9.77734375" customWidth="1"/>
+    <col min="9246" max="9246" width="12.44140625" customWidth="1"/>
     <col min="9473" max="9473" width="3" customWidth="1"/>
-    <col min="9474" max="9474" width="45.26953125" customWidth="1"/>
-    <col min="9475" max="9501" width="9.7265625" customWidth="1"/>
-    <col min="9502" max="9502" width="12.453125" customWidth="1"/>
+    <col min="9474" max="9474" width="45.21875" customWidth="1"/>
+    <col min="9475" max="9501" width="9.77734375" customWidth="1"/>
+    <col min="9502" max="9502" width="12.44140625" customWidth="1"/>
     <col min="9729" max="9729" width="3" customWidth="1"/>
-    <col min="9730" max="9730" width="45.26953125" customWidth="1"/>
-    <col min="9731" max="9757" width="9.7265625" customWidth="1"/>
-    <col min="9758" max="9758" width="12.453125" customWidth="1"/>
+    <col min="9730" max="9730" width="45.21875" customWidth="1"/>
+    <col min="9731" max="9757" width="9.77734375" customWidth="1"/>
+    <col min="9758" max="9758" width="12.44140625" customWidth="1"/>
     <col min="9985" max="9985" width="3" customWidth="1"/>
-    <col min="9986" max="9986" width="45.26953125" customWidth="1"/>
-    <col min="9987" max="10013" width="9.7265625" customWidth="1"/>
-    <col min="10014" max="10014" width="12.453125" customWidth="1"/>
+    <col min="9986" max="9986" width="45.21875" customWidth="1"/>
+    <col min="9987" max="10013" width="9.77734375" customWidth="1"/>
+    <col min="10014" max="10014" width="12.44140625" customWidth="1"/>
     <col min="10241" max="10241" width="3" customWidth="1"/>
-    <col min="10242" max="10242" width="45.26953125" customWidth="1"/>
-    <col min="10243" max="10269" width="9.7265625" customWidth="1"/>
-    <col min="10270" max="10270" width="12.453125" customWidth="1"/>
+    <col min="10242" max="10242" width="45.21875" customWidth="1"/>
+    <col min="10243" max="10269" width="9.77734375" customWidth="1"/>
+    <col min="10270" max="10270" width="12.44140625" customWidth="1"/>
     <col min="10497" max="10497" width="3" customWidth="1"/>
-    <col min="10498" max="10498" width="45.26953125" customWidth="1"/>
-    <col min="10499" max="10525" width="9.7265625" customWidth="1"/>
-    <col min="10526" max="10526" width="12.453125" customWidth="1"/>
+    <col min="10498" max="10498" width="45.21875" customWidth="1"/>
+    <col min="10499" max="10525" width="9.77734375" customWidth="1"/>
+    <col min="10526" max="10526" width="12.44140625" customWidth="1"/>
     <col min="10753" max="10753" width="3" customWidth="1"/>
-    <col min="10754" max="10754" width="45.26953125" customWidth="1"/>
-    <col min="10755" max="10781" width="9.7265625" customWidth="1"/>
-    <col min="10782" max="10782" width="12.453125" customWidth="1"/>
+    <col min="10754" max="10754" width="45.21875" customWidth="1"/>
+    <col min="10755" max="10781" width="9.77734375" customWidth="1"/>
+    <col min="10782" max="10782" width="12.44140625" customWidth="1"/>
     <col min="11009" max="11009" width="3" customWidth="1"/>
-    <col min="11010" max="11010" width="45.26953125" customWidth="1"/>
-    <col min="11011" max="11037" width="9.7265625" customWidth="1"/>
-    <col min="11038" max="11038" width="12.453125" customWidth="1"/>
+    <col min="11010" max="11010" width="45.21875" customWidth="1"/>
+    <col min="11011" max="11037" width="9.77734375" customWidth="1"/>
+    <col min="11038" max="11038" width="12.44140625" customWidth="1"/>
     <col min="11265" max="11265" width="3" customWidth="1"/>
-    <col min="11266" max="11266" width="45.26953125" customWidth="1"/>
-    <col min="11267" max="11293" width="9.7265625" customWidth="1"/>
-    <col min="11294" max="11294" width="12.453125" customWidth="1"/>
+    <col min="11266" max="11266" width="45.21875" customWidth="1"/>
+    <col min="11267" max="11293" width="9.77734375" customWidth="1"/>
+    <col min="11294" max="11294" width="12.44140625" customWidth="1"/>
     <col min="11521" max="11521" width="3" customWidth="1"/>
-    <col min="11522" max="11522" width="45.26953125" customWidth="1"/>
-    <col min="11523" max="11549" width="9.7265625" customWidth="1"/>
-    <col min="11550" max="11550" width="12.453125" customWidth="1"/>
+    <col min="11522" max="11522" width="45.21875" customWidth="1"/>
+    <col min="11523" max="11549" width="9.77734375" customWidth="1"/>
+    <col min="11550" max="11550" width="12.44140625" customWidth="1"/>
     <col min="11777" max="11777" width="3" customWidth="1"/>
-    <col min="11778" max="11778" width="45.26953125" customWidth="1"/>
-    <col min="11779" max="11805" width="9.7265625" customWidth="1"/>
-    <col min="11806" max="11806" width="12.453125" customWidth="1"/>
+    <col min="11778" max="11778" width="45.21875" customWidth="1"/>
+    <col min="11779" max="11805" width="9.77734375" customWidth="1"/>
+    <col min="11806" max="11806" width="12.44140625" customWidth="1"/>
     <col min="12033" max="12033" width="3" customWidth="1"/>
-    <col min="12034" max="12034" width="45.26953125" customWidth="1"/>
-    <col min="12035" max="12061" width="9.7265625" customWidth="1"/>
-    <col min="12062" max="12062" width="12.453125" customWidth="1"/>
+    <col min="12034" max="12034" width="45.21875" customWidth="1"/>
+    <col min="12035" max="12061" width="9.77734375" customWidth="1"/>
+    <col min="12062" max="12062" width="12.44140625" customWidth="1"/>
     <col min="12289" max="12289" width="3" customWidth="1"/>
-    <col min="12290" max="12290" width="45.26953125" customWidth="1"/>
-    <col min="12291" max="12317" width="9.7265625" customWidth="1"/>
-    <col min="12318" max="12318" width="12.453125" customWidth="1"/>
+    <col min="12290" max="12290" width="45.21875" customWidth="1"/>
+    <col min="12291" max="12317" width="9.77734375" customWidth="1"/>
+    <col min="12318" max="12318" width="12.44140625" customWidth="1"/>
     <col min="12545" max="12545" width="3" customWidth="1"/>
-    <col min="12546" max="12546" width="45.26953125" customWidth="1"/>
-    <col min="12547" max="12573" width="9.7265625" customWidth="1"/>
-    <col min="12574" max="12574" width="12.453125" customWidth="1"/>
+    <col min="12546" max="12546" width="45.21875" customWidth="1"/>
+    <col min="12547" max="12573" width="9.77734375" customWidth="1"/>
+    <col min="12574" max="12574" width="12.44140625" customWidth="1"/>
     <col min="12801" max="12801" width="3" customWidth="1"/>
-    <col min="12802" max="12802" width="45.26953125" customWidth="1"/>
-    <col min="12803" max="12829" width="9.7265625" customWidth="1"/>
-    <col min="12830" max="12830" width="12.453125" customWidth="1"/>
+    <col min="12802" max="12802" width="45.21875" customWidth="1"/>
+    <col min="12803" max="12829" width="9.77734375" customWidth="1"/>
+    <col min="12830" max="12830" width="12.44140625" customWidth="1"/>
     <col min="13057" max="13057" width="3" customWidth="1"/>
-    <col min="13058" max="13058" width="45.26953125" customWidth="1"/>
-    <col min="13059" max="13085" width="9.7265625" customWidth="1"/>
-    <col min="13086" max="13086" width="12.453125" customWidth="1"/>
+    <col min="13058" max="13058" width="45.21875" customWidth="1"/>
+    <col min="13059" max="13085" width="9.77734375" customWidth="1"/>
+    <col min="13086" max="13086" width="12.44140625" customWidth="1"/>
     <col min="13313" max="13313" width="3" customWidth="1"/>
-    <col min="13314" max="13314" width="45.26953125" customWidth="1"/>
-    <col min="13315" max="13341" width="9.7265625" customWidth="1"/>
-    <col min="13342" max="13342" width="12.453125" customWidth="1"/>
+    <col min="13314" max="13314" width="45.21875" customWidth="1"/>
+    <col min="13315" max="13341" width="9.77734375" customWidth="1"/>
+    <col min="13342" max="13342" width="12.44140625" customWidth="1"/>
     <col min="13569" max="13569" width="3" customWidth="1"/>
-    <col min="13570" max="13570" width="45.26953125" customWidth="1"/>
-    <col min="13571" max="13597" width="9.7265625" customWidth="1"/>
-    <col min="13598" max="13598" width="12.453125" customWidth="1"/>
+    <col min="13570" max="13570" width="45.21875" customWidth="1"/>
+    <col min="13571" max="13597" width="9.77734375" customWidth="1"/>
+    <col min="13598" max="13598" width="12.44140625" customWidth="1"/>
     <col min="13825" max="13825" width="3" customWidth="1"/>
-    <col min="13826" max="13826" width="45.26953125" customWidth="1"/>
-    <col min="13827" max="13853" width="9.7265625" customWidth="1"/>
-    <col min="13854" max="13854" width="12.453125" customWidth="1"/>
+    <col min="13826" max="13826" width="45.21875" customWidth="1"/>
+    <col min="13827" max="13853" width="9.77734375" customWidth="1"/>
+    <col min="13854" max="13854" width="12.44140625" customWidth="1"/>
     <col min="14081" max="14081" width="3" customWidth="1"/>
-    <col min="14082" max="14082" width="45.26953125" customWidth="1"/>
-    <col min="14083" max="14109" width="9.7265625" customWidth="1"/>
-    <col min="14110" max="14110" width="12.453125" customWidth="1"/>
+    <col min="14082" max="14082" width="45.21875" customWidth="1"/>
+    <col min="14083" max="14109" width="9.77734375" customWidth="1"/>
+    <col min="14110" max="14110" width="12.44140625" customWidth="1"/>
     <col min="14337" max="14337" width="3" customWidth="1"/>
-    <col min="14338" max="14338" width="45.26953125" customWidth="1"/>
-    <col min="14339" max="14365" width="9.7265625" customWidth="1"/>
-    <col min="14366" max="14366" width="12.453125" customWidth="1"/>
+    <col min="14338" max="14338" width="45.21875" customWidth="1"/>
+    <col min="14339" max="14365" width="9.77734375" customWidth="1"/>
+    <col min="14366" max="14366" width="12.44140625" customWidth="1"/>
     <col min="14593" max="14593" width="3" customWidth="1"/>
-    <col min="14594" max="14594" width="45.26953125" customWidth="1"/>
-    <col min="14595" max="14621" width="9.7265625" customWidth="1"/>
-    <col min="14622" max="14622" width="12.453125" customWidth="1"/>
+    <col min="14594" max="14594" width="45.21875" customWidth="1"/>
+    <col min="14595" max="14621" width="9.77734375" customWidth="1"/>
+    <col min="14622" max="14622" width="12.44140625" customWidth="1"/>
     <col min="14849" max="14849" width="3" customWidth="1"/>
-    <col min="14850" max="14850" width="45.26953125" customWidth="1"/>
-    <col min="14851" max="14877" width="9.7265625" customWidth="1"/>
-    <col min="14878" max="14878" width="12.453125" customWidth="1"/>
+    <col min="14850" max="14850" width="45.21875" customWidth="1"/>
+    <col min="14851" max="14877" width="9.77734375" customWidth="1"/>
+    <col min="14878" max="14878" width="12.44140625" customWidth="1"/>
     <col min="15105" max="15105" width="3" customWidth="1"/>
-    <col min="15106" max="15106" width="45.26953125" customWidth="1"/>
-    <col min="15107" max="15133" width="9.7265625" customWidth="1"/>
-    <col min="15134" max="15134" width="12.453125" customWidth="1"/>
+    <col min="15106" max="15106" width="45.21875" customWidth="1"/>
+    <col min="15107" max="15133" width="9.77734375" customWidth="1"/>
+    <col min="15134" max="15134" width="12.44140625" customWidth="1"/>
     <col min="15361" max="15361" width="3" customWidth="1"/>
-    <col min="15362" max="15362" width="45.26953125" customWidth="1"/>
-    <col min="15363" max="15389" width="9.7265625" customWidth="1"/>
-    <col min="15390" max="15390" width="12.453125" customWidth="1"/>
+    <col min="15362" max="15362" width="45.21875" customWidth="1"/>
+    <col min="15363" max="15389" width="9.77734375" customWidth="1"/>
+    <col min="15390" max="15390" width="12.44140625" customWidth="1"/>
     <col min="15617" max="15617" width="3" customWidth="1"/>
-    <col min="15618" max="15618" width="45.26953125" customWidth="1"/>
-    <col min="15619" max="15645" width="9.7265625" customWidth="1"/>
-    <col min="15646" max="15646" width="12.453125" customWidth="1"/>
+    <col min="15618" max="15618" width="45.21875" customWidth="1"/>
+    <col min="15619" max="15645" width="9.77734375" customWidth="1"/>
+    <col min="15646" max="15646" width="12.44140625" customWidth="1"/>
     <col min="15873" max="15873" width="3" customWidth="1"/>
-    <col min="15874" max="15874" width="45.26953125" customWidth="1"/>
-    <col min="15875" max="15901" width="9.7265625" customWidth="1"/>
-    <col min="15902" max="15902" width="12.453125" customWidth="1"/>
+    <col min="15874" max="15874" width="45.21875" customWidth="1"/>
+    <col min="15875" max="15901" width="9.77734375" customWidth="1"/>
+    <col min="15902" max="15902" width="12.44140625" customWidth="1"/>
     <col min="16129" max="16129" width="3" customWidth="1"/>
-    <col min="16130" max="16130" width="45.26953125" customWidth="1"/>
-    <col min="16131" max="16157" width="9.7265625" customWidth="1"/>
-    <col min="16158" max="16158" width="12.453125" customWidth="1"/>
+    <col min="16130" max="16130" width="45.21875" customWidth="1"/>
+    <col min="16131" max="16157" width="9.77734375" customWidth="1"/>
+    <col min="16158" max="16158" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="52.4" customHeight="1"/>
-    <row r="2" spans="1:33" ht="18">
+    <row r="1" spans="1:33" ht="52.35" customHeight="1"/>
+    <row r="2" spans="1:33" ht="17.399999999999999">
       <c r="A2" s="30"/>
       <c r="B2" s="22"/>
       <c r="K2" s="20"/>
@@ -54483,11 +54901,11 @@
       <c r="AB4" s="20"/>
       <c r="AC4" s="20"/>
     </row>
-    <row r="5" spans="1:33" ht="15.5">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:33" ht="15.6">
+      <c r="A5" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -54518,16 +54936,16 @@
       <c r="AG5" s="38"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
     </row>
-    <row r="7" spans="1:33" ht="15.5">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+    <row r="7" spans="1:33" ht="15.6">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="19"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -54553,8 +54971,8 @@
       <c r="AG7" s="38"/>
     </row>
     <row r="8" spans="1:33" ht="45.75" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="17">
         <v>1990</v>
       </c>
@@ -54646,8 +55064,8 @@
       <c r="AG8" s="38"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -54725,7 +55143,7 @@
       <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
     </row>
-    <row r="12" spans="1:33" ht="15.5">
+    <row r="12" spans="1:33" ht="16.2">
       <c r="B12" s="12" t="s">
         <v>219</v>
       </c>
@@ -54819,7 +55237,7 @@
       <c r="AF12" s="38"/>
       <c r="AG12" s="38"/>
     </row>
-    <row r="13" spans="1:33" ht="15.5">
+    <row r="13" spans="1:33" ht="16.2">
       <c r="B13" s="12" t="s">
         <v>220</v>
       </c>
@@ -55016,7 +55434,7 @@
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
     </row>
-    <row r="16" spans="1:33" ht="15.5">
+    <row r="16" spans="1:33" ht="16.2">
       <c r="B16" s="12" t="s">
         <v>224</v>
       </c>
@@ -55110,7 +55528,7 @@
       <c r="AF16" s="38"/>
       <c r="AG16" s="38"/>
     </row>
-    <row r="17" spans="1:33" ht="15.5">
+    <row r="17" spans="1:33" ht="16.2">
       <c r="B17" s="12" t="s">
         <v>146</v>
       </c>
@@ -55204,7 +55622,7 @@
       <c r="AF17" s="38"/>
       <c r="AG17" s="38"/>
     </row>
-    <row r="18" spans="1:33" ht="15.5">
+    <row r="18" spans="1:33" ht="16.2">
       <c r="B18" s="12" t="s">
         <v>225</v>
       </c>
@@ -55298,7 +55716,7 @@
       <c r="AF18" s="38"/>
       <c r="AG18" s="38"/>
     </row>
-    <row r="19" spans="1:33" ht="15.5">
+    <row r="19" spans="1:33" ht="16.2">
       <c r="B19" s="40" t="s">
         <v>226</v>
       </c>
@@ -55307,7 +55725,7 @@
       <c r="AF19" s="38"/>
       <c r="AG19" s="38"/>
     </row>
-    <row r="20" spans="1:33" ht="15.5">
+    <row r="20" spans="1:33" ht="16.2">
       <c r="B20" s="12" t="s">
         <v>63</v>
       </c>
@@ -55401,7 +55819,7 @@
       <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
     </row>
-    <row r="21" spans="1:33" ht="15.5">
+    <row r="21" spans="1:33" ht="16.2">
       <c r="B21" s="12" t="s">
         <v>64</v>
       </c>
@@ -55495,7 +55913,7 @@
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
     </row>
-    <row r="22" spans="1:33" ht="15.5">
+    <row r="22" spans="1:33" ht="16.2">
       <c r="B22" s="12" t="s">
         <v>65</v>
       </c>
@@ -55598,7 +56016,7 @@
       <c r="AF23" s="38"/>
       <c r="AG23" s="38"/>
     </row>
-    <row r="24" spans="1:33" ht="15.5">
+    <row r="24" spans="1:33" ht="16.2">
       <c r="B24" s="12" t="s">
         <v>227</v>
       </c>
@@ -55611,7 +56029,7 @@
       <c r="AF24" s="38"/>
       <c r="AG24" s="38"/>
     </row>
-    <row r="25" spans="1:33" ht="15.5">
+    <row r="25" spans="1:33" ht="16.2">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
         <v>228</v>
@@ -55706,7 +56124,7 @@
       <c r="AF25" s="38"/>
       <c r="AG25" s="38"/>
     </row>
-    <row r="26" spans="1:33" ht="15.5">
+    <row r="26" spans="1:33" ht="15.6">
       <c r="A26" s="31"/>
       <c r="B26" s="31" t="s">
         <v>148</v>
@@ -55801,7 +56219,7 @@
       <c r="AF26" s="38"/>
       <c r="AG26" s="38"/>
     </row>
-    <row r="27" spans="1:33" ht="15.5">
+    <row r="27" spans="1:33" ht="16.2">
       <c r="B27" s="12" t="s">
         <v>229</v>
       </c>
@@ -55810,7 +56228,7 @@
       <c r="AF27" s="38"/>
       <c r="AG27" s="38"/>
     </row>
-    <row r="28" spans="1:33" ht="15.5">
+    <row r="28" spans="1:33" ht="15.6">
       <c r="A28" s="31"/>
       <c r="B28" s="31" t="s">
         <v>147</v>
@@ -55905,7 +56323,7 @@
       <c r="AF28" s="38"/>
       <c r="AG28" s="38"/>
     </row>
-    <row r="29" spans="1:33" ht="15.5">
+    <row r="29" spans="1:33" ht="15.6">
       <c r="A29" s="31"/>
       <c r="B29" s="31" t="s">
         <v>148</v>
@@ -56000,7 +56418,7 @@
       <c r="AF29" s="38"/>
       <c r="AG29" s="38"/>
     </row>
-    <row r="30" spans="1:33" ht="15.5">
+    <row r="30" spans="1:33" ht="16.2">
       <c r="B30" s="12" t="s">
         <v>230</v>
       </c>
@@ -56009,7 +56427,7 @@
       <c r="AF30" s="38"/>
       <c r="AG30" s="38"/>
     </row>
-    <row r="31" spans="1:33" ht="15.5">
+    <row r="31" spans="1:33" ht="16.2">
       <c r="A31" s="31"/>
       <c r="B31" s="31" t="s">
         <v>228</v>
@@ -56104,7 +56522,7 @@
       <c r="AF31" s="38"/>
       <c r="AG31" s="38"/>
     </row>
-    <row r="32" spans="1:33" ht="15.5">
+    <row r="32" spans="1:33" ht="16.2">
       <c r="B32" s="40" t="s">
         <v>231</v>
       </c>
@@ -56113,7 +56531,7 @@
       <c r="AF32" s="38"/>
       <c r="AG32" s="38"/>
     </row>
-    <row r="33" spans="1:33" ht="15.5">
+    <row r="33" spans="1:33" ht="16.2">
       <c r="B33" s="12" t="s">
         <v>232</v>
       </c>
@@ -56207,7 +56625,7 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="38"/>
     </row>
-    <row r="34" spans="1:33" ht="15.5">
+    <row r="34" spans="1:33" ht="16.2">
       <c r="B34" s="12" t="s">
         <v>233</v>
       </c>
@@ -56301,7 +56719,7 @@
       <c r="AF34" s="38"/>
       <c r="AG34" s="38"/>
     </row>
-    <row r="35" spans="1:33" ht="15.5">
+    <row r="35" spans="1:33" ht="16.2">
       <c r="B35" s="12" t="s">
         <v>151</v>
       </c>
@@ -56395,7 +56813,7 @@
       <c r="AF35" s="38"/>
       <c r="AG35" s="38"/>
     </row>
-    <row r="36" spans="1:33" ht="15.5">
+    <row r="36" spans="1:33" ht="16.2">
       <c r="B36" s="12" t="s">
         <v>152</v>
       </c>
@@ -56490,8 +56908,8 @@
       <c r="AG36" s="38"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
       <c r="AD37" s="38"/>
       <c r="AE37" s="38"/>
       <c r="AF37" s="38"/>
@@ -56533,7 +56951,7 @@
       <c r="AF38" s="38"/>
       <c r="AG38" s="38"/>
     </row>
-    <row r="39" spans="1:33" ht="15.5">
+    <row r="39" spans="1:33" ht="16.2">
       <c r="B39" s="40" t="s">
         <v>235</v>
       </c>
@@ -56824,7 +57242,7 @@
       <c r="AF42" s="38"/>
       <c r="AG42" s="38"/>
     </row>
-    <row r="43" spans="1:33" ht="15.5">
+    <row r="43" spans="1:33" ht="16.2">
       <c r="B43" s="40" t="s">
         <v>236</v>
       </c>
@@ -57116,166 +57534,166 @@
       <c r="AG46" s="38"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
       <c r="AG47" s="38"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="92"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
       <c r="AG48" s="38"/>
     </row>
     <row r="49" spans="1:33">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="92"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
       <c r="AG49" s="38"/>
     </row>
     <row r="50" spans="1:33">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="B50" s="62"/>
+      <c r="B50" s="92"/>
       <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
       <c r="AG50" s="38"/>
     </row>
     <row r="51" spans="1:33">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="62"/>
+      <c r="B51" s="92"/>
       <c r="AD51" s="38"/>
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
       <c r="AG51" s="38"/>
     </row>
     <row r="52" spans="1:33">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
       <c r="AD52" s="38"/>
       <c r="AE52" s="38"/>
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
     </row>
     <row r="53" spans="1:33">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="63"/>
+      <c r="B53" s="93"/>
       <c r="AD53" s="38"/>
       <c r="AE53" s="38"/>
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
     </row>
     <row r="54" spans="1:33">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="62"/>
+      <c r="B54" s="92"/>
       <c r="AD54" s="38"/>
       <c r="AE54" s="38"/>
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
     </row>
     <row r="55" spans="1:33">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B55" s="62"/>
+      <c r="B55" s="92"/>
       <c r="AD55" s="38"/>
       <c r="AE55" s="38"/>
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
     </row>
     <row r="56" spans="1:33">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="62"/>
+      <c r="B56" s="92"/>
       <c r="AD56" s="38"/>
       <c r="AE56" s="38"/>
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
     </row>
     <row r="57" spans="1:33">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="B57" s="62"/>
+      <c r="B57" s="92"/>
       <c r="AD57" s="38"/>
       <c r="AE57" s="38"/>
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
     </row>
     <row r="58" spans="1:33">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="62"/>
+      <c r="B58" s="92"/>
       <c r="AD58" s="38"/>
       <c r="AE58" s="38"/>
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
     </row>
     <row r="59" spans="1:33">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="B59" s="62"/>
+      <c r="B59" s="92"/>
       <c r="AD59" s="38"/>
       <c r="AE59" s="38"/>
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
     </row>
     <row r="60" spans="1:33">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="62"/>
+      <c r="B60" s="92"/>
       <c r="AD60" s="38"/>
       <c r="AE60" s="38"/>
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
     </row>
     <row r="61" spans="1:33">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="B61" s="62"/>
+      <c r="B61" s="92"/>
       <c r="AD61" s="38"/>
       <c r="AE61" s="38"/>
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
     </row>
     <row r="62" spans="1:33">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="62"/>
+      <c r="B62" s="92"/>
       <c r="AD62" s="38"/>
       <c r="AE62" s="38"/>
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
     </row>
     <row r="63" spans="1:33">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="62"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38"/>
@@ -57322,11 +57740,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -57339,12 +57758,11 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -57372,15 +57790,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -57640,6 +58049,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB40CC4-551F-4602-B09A-217576ED5767}">
   <ds:schemaRefs>
@@ -57652,14 +58070,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D73F77-AB54-4E48-8354-CA6FB71EB254}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3FA65A-7C2E-45F9-A631-C955509FEBD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57677,4 +58087,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D73F77-AB54-4E48-8354-CA6FB71EB254}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD72FEC-19D8-4032-A3C6-2EBD7BDA5D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD4B245-DAB9-4B07-8FD7-37D70960E454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="1005" windowWidth="15060" windowHeight="16395" tabRatio="919" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="390" windowWidth="14295" windowHeight="15930" tabRatio="919" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,13 @@
     <sheet name="Onroad Calcs" sheetId="44" r:id="rId11"/>
     <sheet name="Marine Energy Consumption" sheetId="45" r:id="rId12"/>
     <sheet name="marine calcs" sheetId="46" r:id="rId13"/>
-    <sheet name="SYFAFE-psgr" sheetId="23" r:id="rId14"/>
-    <sheet name="SYFAFE-frgt" sheetId="24" r:id="rId15"/>
+    <sheet name="rail calcs" sheetId="48" r:id="rId14"/>
+    <sheet name="Table 25_rail" sheetId="49" r:id="rId15"/>
+    <sheet name="SYFAFE-psgr" sheetId="23" r:id="rId16"/>
+    <sheet name="SYFAFE-frgt" sheetId="24" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="btu_per_pj">About!$A$28</definedName>
@@ -39,28 +41,28 @@
     <definedName name="elec_share">'Fuel Efficiency Adjustments'!$B$6</definedName>
     <definedName name="Eno_TM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_TM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_TM" localSheetId="14">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM" localSheetId="16">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_Tons" localSheetId="14">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons" localSheetId="16">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="km_per_mile">About!$A$27</definedName>
     <definedName name="Sum_T2" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_T2" localSheetId="14">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2" localSheetId="16">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_TTM" localSheetId="14">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM" localSheetId="16">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="12">#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="11">#REF!</definedName>
-    <definedName name="ti_tbl_50" localSheetId="14">#REF!</definedName>
+    <definedName name="ti_tbl_50" localSheetId="16">#REF!</definedName>
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69" localSheetId="12">#REF!</definedName>
     <definedName name="ti_tbl_69" localSheetId="11">#REF!</definedName>
-    <definedName name="ti_tbl_69" localSheetId="14">#REF!</definedName>
+    <definedName name="ti_tbl_69" localSheetId="16">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -236,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="336">
   <si>
     <t>SYFAFE Start Year Fleet Avg Fuel Economy</t>
   </si>
@@ -2649,6 +2651,122 @@
   <si>
     <t>Freight MDVs</t>
   </si>
+  <si>
+    <t>Table 25: Rail Transportation Secondary Energy Use and GHG Emissions by Region</t>
+  </si>
+  <si>
+    <r>
+      <t>Rail Transportation Energy Use</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (PJ)</t>
+    </r>
+  </si>
+  <si>
+    <t>Passenger Rail Transportation</t>
+  </si>
+  <si>
+    <t>Freight Rail Transportation</t>
+  </si>
+  <si>
+    <t>Passenger Rail Transportation Energy Intensity (MJ/Pkm)</t>
+  </si>
+  <si>
+    <t>Freight Rail Transportation Energy Intensity (MJ/Tkm)</t>
+  </si>
+  <si>
+    <r>
+      <t>Rail Transportation GHG Emissions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Mt of CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e)</t>
+    </r>
+  </si>
+  <si>
+    <t>Passenger Rail Transportation GHG Intensity (tonne/TJ)</t>
+  </si>
+  <si>
+    <t>Freight Rail Transportation GHG Intensity (tonne/TJ)</t>
+  </si>
+  <si>
+    <t>1) Rail transportation consumes only diesel fuel oil.</t>
+  </si>
+  <si>
+    <t>megajule to btu</t>
+  </si>
+  <si>
+    <t>btu per Tkm</t>
+  </si>
+  <si>
+    <t>btu per ton-mile</t>
+  </si>
+  <si>
+    <t>inverse (frgt-ton miles/btu)</t>
+  </si>
+  <si>
+    <t>km to miles</t>
+  </si>
+  <si>
+    <t>tonnes to tons</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
 </sst>
 </file>
 
@@ -2667,7 +2785,7 @@
     <numFmt numFmtId="171" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="77">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3123,6 +3241,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3768,7 +3915,7 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3913,9 +4060,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="157">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4813,7 +4990,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Rail shipments 93-97"/>
@@ -5803,10 +5980,10 @@
       <c r="AC2" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -7759,8 +7936,8 @@
       <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32" ht="14.65" customHeight="1">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -21936,16 +22113,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A116:B116"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A130:B130"/>
@@ -21958,42 +22161,16 @@
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32082,14 +32259,3850 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB40D0D7-9817-46EB-AC27-A9B7F4096646}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B2:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="34">
+        <f>'Table 25_rail'!V38</f>
+        <v>1.3182579999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="34">
+        <f>'Table 25_rail'!V39</f>
+        <v>0.21271200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6">
+        <v>947.81700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7">
+        <v>0.62137100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8">
+        <v>0.90718500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="34">
+        <f>C3</f>
+        <v>0.21271200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11">
+        <f>C10*C6</f>
+        <v>201.61204970400001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12">
+        <f>C11/C7/C8</f>
+        <v>357.65940012232835</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="9">
+        <f>1/C12</f>
+        <v>2.7959561517409449E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="34">
+        <f>C2</f>
+        <v>1.3182579999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17">
+        <f>C16*C6</f>
+        <v>1249.467342786</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18">
+        <f>C17/C7/C8</f>
+        <v>2216.5527355601012</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="9">
+        <f>1/C18</f>
+        <v>4.511510075790323E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4EC087-1172-40CE-90A4-CF79C4572982}">
+  <dimension ref="A1:V72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" style="105" customWidth="1"/>
+    <col min="3" max="21" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75">
+      <c r="A1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75">
+      <c r="A2" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="C5" s="33">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2001</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2002</v>
+      </c>
+      <c r="F5" s="33">
+        <v>2003</v>
+      </c>
+      <c r="G5" s="33">
+        <v>2004</v>
+      </c>
+      <c r="H5" s="33">
+        <v>2005</v>
+      </c>
+      <c r="I5" s="33">
+        <v>2006</v>
+      </c>
+      <c r="J5" s="33">
+        <v>2007</v>
+      </c>
+      <c r="K5" s="33">
+        <v>2008</v>
+      </c>
+      <c r="L5" s="33">
+        <v>2009</v>
+      </c>
+      <c r="M5" s="33">
+        <v>2010</v>
+      </c>
+      <c r="N5" s="33">
+        <v>2011</v>
+      </c>
+      <c r="O5" s="33">
+        <v>2012</v>
+      </c>
+      <c r="P5" s="33">
+        <v>2013</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>2014</v>
+      </c>
+      <c r="R5" s="33">
+        <v>2015</v>
+      </c>
+      <c r="S5" s="33">
+        <v>2016</v>
+      </c>
+      <c r="T5" s="33">
+        <v>2017</v>
+      </c>
+      <c r="U5" s="33">
+        <v>2018</v>
+      </c>
+      <c r="V5" s="33">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="15"/>
+      <c r="B7" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="65">
+        <v>84.48</v>
+      </c>
+      <c r="D7" s="65">
+        <v>83.701999999999998</v>
+      </c>
+      <c r="E7" s="65">
+        <v>76.23</v>
+      </c>
+      <c r="F7" s="65">
+        <v>76.960999999999999</v>
+      </c>
+      <c r="G7" s="65">
+        <v>79.138999999999996</v>
+      </c>
+      <c r="H7" s="65">
+        <v>84.325999999999993</v>
+      </c>
+      <c r="I7" s="65">
+        <v>88.275999999999996</v>
+      </c>
+      <c r="J7" s="65">
+        <v>94.558000000000007</v>
+      </c>
+      <c r="K7" s="65">
+        <v>99.834999999999994</v>
+      </c>
+      <c r="L7" s="65">
+        <v>85.356999999999999</v>
+      </c>
+      <c r="M7" s="65">
+        <v>83.724999999999994</v>
+      </c>
+      <c r="N7" s="65">
+        <v>94.36</v>
+      </c>
+      <c r="O7" s="65">
+        <v>96.578000000000003</v>
+      </c>
+      <c r="P7" s="65">
+        <v>93.05</v>
+      </c>
+      <c r="Q7" s="65">
+        <v>95.406000000000006</v>
+      </c>
+      <c r="R7" s="65">
+        <v>90.855999999999995</v>
+      </c>
+      <c r="S7" s="65">
+        <v>83.477000000000004</v>
+      </c>
+      <c r="T7" s="65">
+        <v>95.518000000000001</v>
+      </c>
+      <c r="U7" s="65">
+        <v>97.563999999999993</v>
+      </c>
+      <c r="V7" s="65">
+        <v>98.284999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="101">
+        <v>2.9738790000000002</v>
+      </c>
+      <c r="D8" s="101">
+        <v>2.9605899999999998</v>
+      </c>
+      <c r="E8" s="101">
+        <v>2.7514850000000002</v>
+      </c>
+      <c r="F8" s="101">
+        <v>2.6077520000000001</v>
+      </c>
+      <c r="G8" s="101">
+        <v>2.5421640000000001</v>
+      </c>
+      <c r="H8" s="101">
+        <v>2.6696439999999999</v>
+      </c>
+      <c r="I8" s="101">
+        <v>2.6993649999999998</v>
+      </c>
+      <c r="J8" s="101">
+        <v>2.8065530000000001</v>
+      </c>
+      <c r="K8" s="101">
+        <v>3.1555629999999999</v>
+      </c>
+      <c r="L8" s="101">
+        <v>2.9977499999999999</v>
+      </c>
+      <c r="M8" s="101">
+        <v>2.4749439999999998</v>
+      </c>
+      <c r="N8" s="101">
+        <v>2.7665929999999999</v>
+      </c>
+      <c r="O8" s="101">
+        <v>2.3815270000000002</v>
+      </c>
+      <c r="P8" s="101">
+        <v>2.1025550000000002</v>
+      </c>
+      <c r="Q8" s="101">
+        <v>1.9880899999999999</v>
+      </c>
+      <c r="R8" s="101">
+        <v>2.0039169999999999</v>
+      </c>
+      <c r="S8" s="101">
+        <v>2.0251960000000002</v>
+      </c>
+      <c r="T8" s="101">
+        <v>2.2895620000000001</v>
+      </c>
+      <c r="U8" s="101">
+        <v>2.237285</v>
+      </c>
+      <c r="V8" s="101">
+        <v>2.2928009999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="101">
+        <v>81.506120999999993</v>
+      </c>
+      <c r="D9" s="101">
+        <v>80.741410000000002</v>
+      </c>
+      <c r="E9" s="101">
+        <v>73.478515000000002</v>
+      </c>
+      <c r="F9" s="101">
+        <v>74.353247999999994</v>
+      </c>
+      <c r="G9" s="101">
+        <v>76.596835999999996</v>
+      </c>
+      <c r="H9" s="101">
+        <v>81.656356000000002</v>
+      </c>
+      <c r="I9" s="101">
+        <v>85.576634999999996</v>
+      </c>
+      <c r="J9" s="101">
+        <v>91.751446999999999</v>
+      </c>
+      <c r="K9" s="101">
+        <v>96.679436999999993</v>
+      </c>
+      <c r="L9" s="101">
+        <v>82.359250000000003</v>
+      </c>
+      <c r="M9" s="101">
+        <v>81.250056000000001</v>
+      </c>
+      <c r="N9" s="101">
+        <v>91.593406999999999</v>
+      </c>
+      <c r="O9" s="101">
+        <v>94.196472999999997</v>
+      </c>
+      <c r="P9" s="101">
+        <v>90.947445000000002</v>
+      </c>
+      <c r="Q9" s="101">
+        <v>93.417910000000006</v>
+      </c>
+      <c r="R9" s="101">
+        <v>88.852082999999993</v>
+      </c>
+      <c r="S9" s="101">
+        <v>81.451803999999996</v>
+      </c>
+      <c r="T9" s="101">
+        <v>93.228437999999997</v>
+      </c>
+      <c r="U9" s="101">
+        <v>95.326714999999993</v>
+      </c>
+      <c r="V9" s="101">
+        <v>95.992198999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="101">
+        <v>0</v>
+      </c>
+      <c r="D11" s="101">
+        <v>0</v>
+      </c>
+      <c r="E11" s="101">
+        <v>0</v>
+      </c>
+      <c r="F11" s="101">
+        <v>0</v>
+      </c>
+      <c r="G11" s="101">
+        <v>0</v>
+      </c>
+      <c r="H11" s="101">
+        <v>0</v>
+      </c>
+      <c r="I11" s="101">
+        <v>0</v>
+      </c>
+      <c r="J11" s="101">
+        <v>0</v>
+      </c>
+      <c r="K11" s="101">
+        <v>0</v>
+      </c>
+      <c r="L11" s="101">
+        <v>0</v>
+      </c>
+      <c r="M11" s="101">
+        <v>0</v>
+      </c>
+      <c r="N11" s="101">
+        <v>0</v>
+      </c>
+      <c r="O11" s="101">
+        <v>0</v>
+      </c>
+      <c r="P11" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="101">
+        <v>0</v>
+      </c>
+      <c r="R11" s="101">
+        <v>0</v>
+      </c>
+      <c r="S11" s="101">
+        <v>0</v>
+      </c>
+      <c r="T11" s="101">
+        <v>0</v>
+      </c>
+      <c r="U11" s="101">
+        <v>0</v>
+      </c>
+      <c r="V11" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="101">
+        <v>0</v>
+      </c>
+      <c r="D12" s="101">
+        <v>0</v>
+      </c>
+      <c r="E12" s="101">
+        <v>0</v>
+      </c>
+      <c r="F12" s="101">
+        <v>0</v>
+      </c>
+      <c r="G12" s="101">
+        <v>0</v>
+      </c>
+      <c r="H12" s="101">
+        <v>0</v>
+      </c>
+      <c r="I12" s="101">
+        <v>0</v>
+      </c>
+      <c r="J12" s="101">
+        <v>0</v>
+      </c>
+      <c r="K12" s="101">
+        <v>0</v>
+      </c>
+      <c r="L12" s="101">
+        <v>0</v>
+      </c>
+      <c r="M12" s="101">
+        <v>0</v>
+      </c>
+      <c r="N12" s="101">
+        <v>0</v>
+      </c>
+      <c r="O12" s="101">
+        <v>0</v>
+      </c>
+      <c r="P12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="101">
+        <v>0</v>
+      </c>
+      <c r="R12" s="101">
+        <v>0</v>
+      </c>
+      <c r="S12" s="101">
+        <v>0</v>
+      </c>
+      <c r="T12" s="101">
+        <v>0</v>
+      </c>
+      <c r="U12" s="101">
+        <v>0</v>
+      </c>
+      <c r="V12" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="101">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D13" s="101">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E13" s="101">
+        <v>0.99</v>
+      </c>
+      <c r="F13" s="101">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="G13" s="101">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="H13" s="101">
+        <v>1.47</v>
+      </c>
+      <c r="I13" s="101">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="J13" s="101">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="K13" s="101">
+        <v>1.776</v>
+      </c>
+      <c r="L13" s="101">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="M13" s="101">
+        <v>1.748</v>
+      </c>
+      <c r="N13" s="101">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="O13" s="101">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="P13" s="101">
+        <v>1.337</v>
+      </c>
+      <c r="Q13" s="101">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="R13" s="101">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="S13" s="101">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="T13" s="101">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="U13" s="101">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="V13" s="101">
+        <v>2.028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="101">
+        <v>2.9860000000000002</v>
+      </c>
+      <c r="D14" s="101">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="E14" s="101">
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="F14" s="101">
+        <v>3.6</v>
+      </c>
+      <c r="G14" s="101">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="H14" s="101">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="I14" s="101">
+        <v>3.621</v>
+      </c>
+      <c r="J14" s="101">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="K14" s="101">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="L14" s="101">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="M14" s="101">
+        <v>3.919</v>
+      </c>
+      <c r="N14" s="101">
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="O14" s="101">
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="P14" s="101">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="Q14" s="101">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="R14" s="101">
+        <v>2.194</v>
+      </c>
+      <c r="S14" s="101">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="T14" s="101">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="U14" s="101">
+        <v>2.044</v>
+      </c>
+      <c r="V14" s="101">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="101">
+        <v>10.317</v>
+      </c>
+      <c r="D15" s="101">
+        <v>9.6929999999999996</v>
+      </c>
+      <c r="E15" s="101">
+        <v>9.5549999999999997</v>
+      </c>
+      <c r="F15" s="101">
+        <v>9.4930000000000003</v>
+      </c>
+      <c r="G15" s="101">
+        <v>10.393000000000001</v>
+      </c>
+      <c r="H15" s="101">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="I15" s="101">
+        <v>9.8160000000000007</v>
+      </c>
+      <c r="J15" s="101">
+        <v>11.282999999999999</v>
+      </c>
+      <c r="K15" s="101">
+        <v>11.382999999999999</v>
+      </c>
+      <c r="L15" s="101">
+        <v>11.846</v>
+      </c>
+      <c r="M15" s="101">
+        <v>10.804</v>
+      </c>
+      <c r="N15" s="101">
+        <v>11.39</v>
+      </c>
+      <c r="O15" s="101">
+        <v>11.891</v>
+      </c>
+      <c r="P15" s="101">
+        <v>11.1</v>
+      </c>
+      <c r="Q15" s="101">
+        <v>9.9130000000000003</v>
+      </c>
+      <c r="R15" s="101">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="S15" s="101">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="T15" s="101">
+        <v>7.931</v>
+      </c>
+      <c r="U15" s="101">
+        <v>8.8879999999999999</v>
+      </c>
+      <c r="V15" s="101">
+        <v>8.1530000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="101">
+        <v>21.381</v>
+      </c>
+      <c r="D16" s="101">
+        <v>20.234000000000002</v>
+      </c>
+      <c r="E16" s="101">
+        <v>18.707999999999998</v>
+      </c>
+      <c r="F16" s="101">
+        <v>16.413</v>
+      </c>
+      <c r="G16" s="101">
+        <v>18.513999999999999</v>
+      </c>
+      <c r="H16" s="101">
+        <v>19.878</v>
+      </c>
+      <c r="I16" s="101">
+        <v>18.856000000000002</v>
+      </c>
+      <c r="J16" s="101">
+        <v>19.640999999999998</v>
+      </c>
+      <c r="K16" s="101">
+        <v>19.617999999999999</v>
+      </c>
+      <c r="L16" s="101">
+        <v>14.723000000000001</v>
+      </c>
+      <c r="M16" s="101">
+        <v>16.053999999999998</v>
+      </c>
+      <c r="N16" s="101">
+        <v>16.920999999999999</v>
+      </c>
+      <c r="O16" s="101">
+        <v>15.875</v>
+      </c>
+      <c r="P16" s="101">
+        <v>16.82</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>18.047000000000001</v>
+      </c>
+      <c r="R16" s="101">
+        <v>18.280999999999999</v>
+      </c>
+      <c r="S16" s="101">
+        <v>18.533999999999999</v>
+      </c>
+      <c r="T16" s="101">
+        <v>18.454999999999998</v>
+      </c>
+      <c r="U16" s="101">
+        <v>19.616</v>
+      </c>
+      <c r="V16" s="101">
+        <v>19.847000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="101">
+        <v>4.1070000000000002</v>
+      </c>
+      <c r="D17" s="101">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="E17" s="101">
+        <v>1.157</v>
+      </c>
+      <c r="F17" s="101">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="G17" s="101">
+        <v>3.758</v>
+      </c>
+      <c r="H17" s="101">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="I17" s="101">
+        <v>3.742</v>
+      </c>
+      <c r="J17" s="101">
+        <v>3.25</v>
+      </c>
+      <c r="K17" s="101">
+        <v>3.5209999999999999</v>
+      </c>
+      <c r="L17" s="101">
+        <v>6.6909999999999998</v>
+      </c>
+      <c r="M17" s="101">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="N17" s="101">
+        <v>8.84</v>
+      </c>
+      <c r="O17" s="101">
+        <v>7.883</v>
+      </c>
+      <c r="P17" s="101">
+        <v>7.2770000000000001</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>8.3710000000000004</v>
+      </c>
+      <c r="R17" s="101">
+        <v>8.9930000000000003</v>
+      </c>
+      <c r="S17" s="101">
+        <v>8.4329999999999998</v>
+      </c>
+      <c r="T17" s="101">
+        <v>10.256</v>
+      </c>
+      <c r="U17" s="101">
+        <v>11.247999999999999</v>
+      </c>
+      <c r="V17" s="101">
+        <v>11.404999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="101">
+        <v>5.2380000000000004</v>
+      </c>
+      <c r="D18" s="101">
+        <v>3.887</v>
+      </c>
+      <c r="E18" s="101">
+        <v>3.141</v>
+      </c>
+      <c r="F18" s="101">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="G18" s="101">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="H18" s="101">
+        <v>5.2530000000000001</v>
+      </c>
+      <c r="I18" s="101">
+        <v>4.875</v>
+      </c>
+      <c r="J18" s="101">
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="K18" s="101">
+        <v>6.0359999999999996</v>
+      </c>
+      <c r="L18" s="101">
+        <v>4.8529999999999998</v>
+      </c>
+      <c r="M18" s="101">
+        <v>8.8740000000000006</v>
+      </c>
+      <c r="N18" s="101">
+        <v>9.2189999999999994</v>
+      </c>
+      <c r="O18" s="101">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="P18" s="101">
+        <v>8.8759999999999994</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>9.1669999999999998</v>
+      </c>
+      <c r="R18" s="101">
+        <v>10.241</v>
+      </c>
+      <c r="S18" s="101">
+        <v>9.9779999999999998</v>
+      </c>
+      <c r="T18" s="101">
+        <v>14.359</v>
+      </c>
+      <c r="U18" s="101">
+        <v>16.359000000000002</v>
+      </c>
+      <c r="V18" s="101">
+        <v>17.341000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="101">
+        <v>23.123999999999999</v>
+      </c>
+      <c r="D19" s="101">
+        <v>28.978999999999999</v>
+      </c>
+      <c r="E19" s="101">
+        <v>28.280999999999999</v>
+      </c>
+      <c r="F19" s="101">
+        <v>33.006</v>
+      </c>
+      <c r="G19" s="101">
+        <v>33.895000000000003</v>
+      </c>
+      <c r="H19" s="101">
+        <v>35.636000000000003</v>
+      </c>
+      <c r="I19" s="101">
+        <v>40.584000000000003</v>
+      </c>
+      <c r="J19" s="101">
+        <v>46.076999999999998</v>
+      </c>
+      <c r="K19" s="101">
+        <v>45.878</v>
+      </c>
+      <c r="L19" s="101">
+        <v>36.790999999999997</v>
+      </c>
+      <c r="M19" s="101">
+        <v>27.699000000000002</v>
+      </c>
+      <c r="N19" s="101">
+        <v>33.436</v>
+      </c>
+      <c r="O19" s="101">
+        <v>39.715000000000003</v>
+      </c>
+      <c r="P19" s="101">
+        <v>38.17</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>37.219000000000001</v>
+      </c>
+      <c r="R19" s="101">
+        <v>32.264000000000003</v>
+      </c>
+      <c r="S19" s="101">
+        <v>24.152000000000001</v>
+      </c>
+      <c r="T19" s="101">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="U19" s="101">
+        <v>24.359000000000002</v>
+      </c>
+      <c r="V19" s="101">
+        <v>24.867999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="101">
+        <v>16.384</v>
+      </c>
+      <c r="D20" s="101">
+        <v>13.581</v>
+      </c>
+      <c r="E20" s="101">
+        <v>11.089</v>
+      </c>
+      <c r="F20" s="101">
+        <v>7.335</v>
+      </c>
+      <c r="G20" s="101">
+        <v>5.17</v>
+      </c>
+      <c r="H20" s="101">
+        <v>5.5839999999999996</v>
+      </c>
+      <c r="I20" s="101">
+        <v>5.4459999999999997</v>
+      </c>
+      <c r="J20" s="101">
+        <v>5.4829999999999997</v>
+      </c>
+      <c r="K20" s="101">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="L20" s="101">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="M20" s="101">
+        <v>6.6390000000000002</v>
+      </c>
+      <c r="N20" s="101">
+        <v>8.6720000000000006</v>
+      </c>
+      <c r="O20" s="101">
+        <v>8.859</v>
+      </c>
+      <c r="P20" s="101">
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="Q20" s="101">
+        <v>8.6890000000000001</v>
+      </c>
+      <c r="R20" s="101">
+        <v>8.6660000000000004</v>
+      </c>
+      <c r="S20" s="101">
+        <v>10.212999999999999</v>
+      </c>
+      <c r="T20" s="101">
+        <v>14.164</v>
+      </c>
+      <c r="U20" s="101">
+        <v>12.967000000000001</v>
+      </c>
+      <c r="V20" s="101">
+        <v>12.714</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="107"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="101">
+        <v>0</v>
+      </c>
+      <c r="D23" s="101">
+        <v>0</v>
+      </c>
+      <c r="E23" s="101">
+        <v>0</v>
+      </c>
+      <c r="F23" s="101">
+        <v>0</v>
+      </c>
+      <c r="G23" s="101">
+        <v>0</v>
+      </c>
+      <c r="H23" s="101">
+        <v>0</v>
+      </c>
+      <c r="I23" s="101">
+        <v>0</v>
+      </c>
+      <c r="J23" s="101">
+        <v>0</v>
+      </c>
+      <c r="K23" s="101">
+        <v>0</v>
+      </c>
+      <c r="L23" s="101">
+        <v>0</v>
+      </c>
+      <c r="M23" s="101">
+        <v>0</v>
+      </c>
+      <c r="N23" s="101">
+        <v>0</v>
+      </c>
+      <c r="O23" s="101">
+        <v>0</v>
+      </c>
+      <c r="P23" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="101">
+        <v>0</v>
+      </c>
+      <c r="R23" s="101">
+        <v>0</v>
+      </c>
+      <c r="S23" s="101">
+        <v>0</v>
+      </c>
+      <c r="T23" s="101">
+        <v>0</v>
+      </c>
+      <c r="U23" s="101">
+        <v>0</v>
+      </c>
+      <c r="V23" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="101">
+        <v>0</v>
+      </c>
+      <c r="D24" s="101">
+        <v>0</v>
+      </c>
+      <c r="E24" s="101">
+        <v>0</v>
+      </c>
+      <c r="F24" s="101">
+        <v>0</v>
+      </c>
+      <c r="G24" s="101">
+        <v>0</v>
+      </c>
+      <c r="H24" s="101">
+        <v>0</v>
+      </c>
+      <c r="I24" s="101">
+        <v>0</v>
+      </c>
+      <c r="J24" s="101">
+        <v>0</v>
+      </c>
+      <c r="K24" s="101">
+        <v>0</v>
+      </c>
+      <c r="L24" s="101">
+        <v>0</v>
+      </c>
+      <c r="M24" s="101">
+        <v>0</v>
+      </c>
+      <c r="N24" s="101">
+        <v>0</v>
+      </c>
+      <c r="O24" s="101">
+        <v>0</v>
+      </c>
+      <c r="P24" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="101">
+        <v>0</v>
+      </c>
+      <c r="R24" s="101">
+        <v>0</v>
+      </c>
+      <c r="S24" s="101">
+        <v>0</v>
+      </c>
+      <c r="T24" s="101">
+        <v>0</v>
+      </c>
+      <c r="U24" s="101">
+        <v>0</v>
+      </c>
+      <c r="V24" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="101">
+        <v>1.116241</v>
+      </c>
+      <c r="D25" s="101">
+        <v>1.0573220000000001</v>
+      </c>
+      <c r="E25" s="101">
+        <v>1.2987010000000001</v>
+      </c>
+      <c r="F25" s="101">
+        <v>2.7390500000000002</v>
+      </c>
+      <c r="G25" s="101">
+        <v>1.9017170000000001</v>
+      </c>
+      <c r="H25" s="101">
+        <v>1.7432350000000001</v>
+      </c>
+      <c r="I25" s="101">
+        <v>1.5134350000000001</v>
+      </c>
+      <c r="J25" s="101">
+        <v>2.0971259999999998</v>
+      </c>
+      <c r="K25" s="101">
+        <v>1.7789349999999999</v>
+      </c>
+      <c r="L25" s="101">
+        <v>1.7280359999999999</v>
+      </c>
+      <c r="M25" s="101">
+        <v>2.0877870000000001</v>
+      </c>
+      <c r="N25" s="101">
+        <v>2.305002</v>
+      </c>
+      <c r="O25" s="101">
+        <v>1.735385</v>
+      </c>
+      <c r="P25" s="101">
+        <v>1.4368620000000001</v>
+      </c>
+      <c r="Q25" s="101">
+        <v>1.452739</v>
+      </c>
+      <c r="R25" s="101">
+        <v>1.663071</v>
+      </c>
+      <c r="S25" s="101">
+        <v>1.8292459999999999</v>
+      </c>
+      <c r="T25" s="101">
+        <v>2.028937</v>
+      </c>
+      <c r="U25" s="101">
+        <v>2.1350090000000002</v>
+      </c>
+      <c r="V25" s="101">
+        <v>2.0633870000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="101">
+        <v>3.534564</v>
+      </c>
+      <c r="D26" s="101">
+        <v>3.971231</v>
+      </c>
+      <c r="E26" s="101">
+        <v>4.3408110000000004</v>
+      </c>
+      <c r="F26" s="101">
+        <v>4.6776939999999998</v>
+      </c>
+      <c r="G26" s="101">
+        <v>4.7119619999999998</v>
+      </c>
+      <c r="H26" s="101">
+        <v>4.3201390000000002</v>
+      </c>
+      <c r="I26" s="101">
+        <v>4.1019079999999999</v>
+      </c>
+      <c r="J26" s="101">
+        <v>3.869583</v>
+      </c>
+      <c r="K26" s="101">
+        <v>3.1511990000000001</v>
+      </c>
+      <c r="L26" s="101">
+        <v>3.7876210000000001</v>
+      </c>
+      <c r="M26" s="101">
+        <v>4.6807999999999996</v>
+      </c>
+      <c r="N26" s="101">
+        <v>3.9285709999999998</v>
+      </c>
+      <c r="O26" s="101">
+        <v>3.617801</v>
+      </c>
+      <c r="P26" s="101">
+        <v>2.7232669999999999</v>
+      </c>
+      <c r="Q26" s="101">
+        <v>2.7398699999999998</v>
+      </c>
+      <c r="R26" s="101">
+        <v>2.4148100000000001</v>
+      </c>
+      <c r="S26" s="101">
+        <v>2.4497770000000001</v>
+      </c>
+      <c r="T26" s="101">
+        <v>2.107456</v>
+      </c>
+      <c r="U26" s="101">
+        <v>2.0950350000000002</v>
+      </c>
+      <c r="V26" s="101">
+        <v>1.9626600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="101">
+        <v>12.212358</v>
+      </c>
+      <c r="D27" s="101">
+        <v>11.580368</v>
+      </c>
+      <c r="E27" s="101">
+        <v>12.534435</v>
+      </c>
+      <c r="F27" s="101">
+        <v>12.334819</v>
+      </c>
+      <c r="G27" s="101">
+        <v>13.132588999999999</v>
+      </c>
+      <c r="H27" s="101">
+        <v>10.713184999999999</v>
+      </c>
+      <c r="I27" s="101">
+        <v>11.119669999999999</v>
+      </c>
+      <c r="J27" s="101">
+        <v>11.932359</v>
+      </c>
+      <c r="K27" s="101">
+        <v>11.401813000000001</v>
+      </c>
+      <c r="L27" s="101">
+        <v>13.878182000000001</v>
+      </c>
+      <c r="M27" s="101">
+        <v>12.90415</v>
+      </c>
+      <c r="N27" s="101">
+        <v>12.070793</v>
+      </c>
+      <c r="O27" s="101">
+        <v>12.312328000000001</v>
+      </c>
+      <c r="P27" s="101">
+        <v>11.929069999999999</v>
+      </c>
+      <c r="Q27" s="101">
+        <v>10.390332000000001</v>
+      </c>
+      <c r="R27" s="101">
+        <v>9.5821959999999997</v>
+      </c>
+      <c r="S27" s="101">
+        <v>10.296249</v>
+      </c>
+      <c r="T27" s="101">
+        <v>8.3031469999999992</v>
+      </c>
+      <c r="U27" s="101">
+        <v>9.1099180000000004</v>
+      </c>
+      <c r="V27" s="101">
+        <v>8.2952639999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="101">
+        <v>25.308948999999998</v>
+      </c>
+      <c r="D28" s="101">
+        <v>24.173855</v>
+      </c>
+      <c r="E28" s="101">
+        <v>24.541519000000001</v>
+      </c>
+      <c r="F28" s="101">
+        <v>21.326385999999999</v>
+      </c>
+      <c r="G28" s="101">
+        <v>23.394280999999999</v>
+      </c>
+      <c r="H28" s="101">
+        <v>23.572800999999998</v>
+      </c>
+      <c r="I28" s="101">
+        <v>21.360278999999998</v>
+      </c>
+      <c r="J28" s="101">
+        <v>20.771377999999999</v>
+      </c>
+      <c r="K28" s="101">
+        <v>19.650423</v>
+      </c>
+      <c r="L28" s="101">
+        <v>17.248732</v>
+      </c>
+      <c r="M28" s="101">
+        <v>19.174679000000001</v>
+      </c>
+      <c r="N28" s="101">
+        <v>17.932386999999999</v>
+      </c>
+      <c r="O28" s="101">
+        <v>16.437491000000001</v>
+      </c>
+      <c r="P28" s="101">
+        <v>18.076302999999999</v>
+      </c>
+      <c r="Q28" s="101">
+        <v>18.916001000000001</v>
+      </c>
+      <c r="R28" s="101">
+        <v>20.120850999999998</v>
+      </c>
+      <c r="S28" s="101">
+        <v>22.202522999999999</v>
+      </c>
+      <c r="T28" s="101">
+        <v>19.320965999999999</v>
+      </c>
+      <c r="U28" s="101">
+        <v>20.105777</v>
+      </c>
+      <c r="V28" s="101">
+        <v>20.193314999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="101">
+        <v>4.8615060000000003</v>
+      </c>
+      <c r="D29" s="101">
+        <v>3.726315</v>
+      </c>
+      <c r="E29" s="101">
+        <v>1.5177750000000001</v>
+      </c>
+      <c r="F29" s="101">
+        <v>3.3705379999999998</v>
+      </c>
+      <c r="G29" s="101">
+        <v>4.7486069999999998</v>
+      </c>
+      <c r="H29" s="101">
+        <v>4.5395250000000003</v>
+      </c>
+      <c r="I29" s="101">
+        <v>4.2389780000000004</v>
+      </c>
+      <c r="J29" s="101">
+        <v>3.4370440000000002</v>
+      </c>
+      <c r="K29" s="101">
+        <v>3.5268190000000001</v>
+      </c>
+      <c r="L29" s="101">
+        <v>7.8388419999999996</v>
+      </c>
+      <c r="M29" s="101">
+        <v>9.5407580000000003</v>
+      </c>
+      <c r="N29" s="101">
+        <v>9.3683759999999996</v>
+      </c>
+      <c r="O29" s="101">
+        <v>8.1623140000000003</v>
+      </c>
+      <c r="P29" s="101">
+        <v>7.8205270000000002</v>
+      </c>
+      <c r="Q29" s="101">
+        <v>8.7740810000000007</v>
+      </c>
+      <c r="R29" s="101">
+        <v>9.8980800000000002</v>
+      </c>
+      <c r="S29" s="101">
+        <v>10.102183999999999</v>
+      </c>
+      <c r="T29" s="101">
+        <v>10.737242999999999</v>
+      </c>
+      <c r="U29" s="101">
+        <v>11.528843</v>
+      </c>
+      <c r="V29" s="101">
+        <v>11.604009</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="101">
+        <v>6.2002839999999999</v>
+      </c>
+      <c r="D30" s="101">
+        <v>4.6438560000000004</v>
+      </c>
+      <c r="E30" s="101">
+        <v>4.120425</v>
+      </c>
+      <c r="F30" s="101">
+        <v>3.134055</v>
+      </c>
+      <c r="G30" s="101">
+        <v>2.748329</v>
+      </c>
+      <c r="H30" s="101">
+        <v>6.2293950000000002</v>
+      </c>
+      <c r="I30" s="101">
+        <v>5.5224520000000004</v>
+      </c>
+      <c r="J30" s="101">
+        <v>3.3651300000000002</v>
+      </c>
+      <c r="K30" s="101">
+        <v>6.0459759999999996</v>
+      </c>
+      <c r="L30" s="101">
+        <v>5.6855330000000004</v>
+      </c>
+      <c r="M30" s="101">
+        <v>10.598985000000001</v>
+      </c>
+      <c r="N30" s="101">
+        <v>9.7700300000000002</v>
+      </c>
+      <c r="O30" s="101">
+        <v>7.4395829999999998</v>
+      </c>
+      <c r="P30" s="101">
+        <v>9.5389579999999992</v>
+      </c>
+      <c r="Q30" s="101">
+        <v>9.6084099999999992</v>
+      </c>
+      <c r="R30" s="101">
+        <v>11.271682999999999</v>
+      </c>
+      <c r="S30" s="101">
+        <v>11.952992999999999</v>
+      </c>
+      <c r="T30" s="101">
+        <v>15.032769</v>
+      </c>
+      <c r="U30" s="101">
+        <v>16.767455000000002</v>
+      </c>
+      <c r="V30" s="101">
+        <v>17.643588000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="101">
+        <v>27.372159</v>
+      </c>
+      <c r="D31" s="101">
+        <v>34.621634</v>
+      </c>
+      <c r="E31" s="101">
+        <v>37.099567</v>
+      </c>
+      <c r="F31" s="101">
+        <v>42.886657</v>
+      </c>
+      <c r="G31" s="101">
+        <v>42.829704999999997</v>
+      </c>
+      <c r="H31" s="101">
+        <v>42.259801000000003</v>
+      </c>
+      <c r="I31" s="101">
+        <v>45.973990999999998</v>
+      </c>
+      <c r="J31" s="101">
+        <v>48.728822999999998</v>
+      </c>
+      <c r="K31" s="101">
+        <v>45.953823999999997</v>
+      </c>
+      <c r="L31" s="101">
+        <v>43.102499000000002</v>
+      </c>
+      <c r="M31" s="101">
+        <v>33.083308000000002</v>
+      </c>
+      <c r="N31" s="101">
+        <v>35.434505999999999</v>
+      </c>
+      <c r="O31" s="101">
+        <v>41.122202000000001</v>
+      </c>
+      <c r="P31" s="101">
+        <v>41.020955999999998</v>
+      </c>
+      <c r="Q31" s="101">
+        <v>39.011172999999999</v>
+      </c>
+      <c r="R31" s="101">
+        <v>35.511139</v>
+      </c>
+      <c r="S31" s="101">
+        <v>28.93252</v>
+      </c>
+      <c r="T31" s="101">
+        <v>27.640864000000001</v>
+      </c>
+      <c r="U31" s="101">
+        <v>24.967200999999999</v>
+      </c>
+      <c r="V31" s="101">
+        <v>25.301928</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="101">
+        <v>19.393939</v>
+      </c>
+      <c r="D32" s="101">
+        <v>16.225418999999999</v>
+      </c>
+      <c r="E32" s="101">
+        <v>14.546766</v>
+      </c>
+      <c r="F32" s="101">
+        <v>9.5308010000000003</v>
+      </c>
+      <c r="G32" s="101">
+        <v>6.5328090000000003</v>
+      </c>
+      <c r="H32" s="101">
+        <v>6.6219200000000003</v>
+      </c>
+      <c r="I32" s="101">
+        <v>6.1692869999999997</v>
+      </c>
+      <c r="J32" s="101">
+        <v>5.7985569999999997</v>
+      </c>
+      <c r="K32" s="101">
+        <v>8.4910099999999993</v>
+      </c>
+      <c r="L32" s="101">
+        <v>6.7305549999999998</v>
+      </c>
+      <c r="M32" s="101">
+        <v>7.9295309999999999</v>
+      </c>
+      <c r="N32" s="101">
+        <v>9.1903349999999993</v>
+      </c>
+      <c r="O32" s="101">
+        <v>9.1728970000000007</v>
+      </c>
+      <c r="P32" s="101">
+        <v>7.4540569999999997</v>
+      </c>
+      <c r="Q32" s="101">
+        <v>9.1073939999999993</v>
+      </c>
+      <c r="R32" s="101">
+        <v>9.5381699999999991</v>
+      </c>
+      <c r="S32" s="101">
+        <v>12.234508</v>
+      </c>
+      <c r="T32" s="101">
+        <v>14.828619</v>
+      </c>
+      <c r="U32" s="101">
+        <v>13.290763</v>
+      </c>
+      <c r="V32" s="101">
+        <v>12.93585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="B33" s="107"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="B34" s="99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="B35" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="102">
+        <v>1548.5070000000001</v>
+      </c>
+      <c r="D35" s="102">
+        <v>1553.059</v>
+      </c>
+      <c r="E35" s="102">
+        <v>1596.9469999999999</v>
+      </c>
+      <c r="F35" s="102">
+        <v>1433.643</v>
+      </c>
+      <c r="G35" s="102">
+        <v>1420.8040000000001</v>
+      </c>
+      <c r="H35" s="102">
+        <v>1478.454</v>
+      </c>
+      <c r="I35" s="102">
+        <v>1450.481</v>
+      </c>
+      <c r="J35" s="102">
+        <v>1453.0050000000001</v>
+      </c>
+      <c r="K35" s="102">
+        <v>1574.2929999999999</v>
+      </c>
+      <c r="L35" s="102">
+        <v>1413.3520000000001</v>
+      </c>
+      <c r="M35" s="102">
+        <v>1403.8530000000001</v>
+      </c>
+      <c r="N35" s="102">
+        <v>1404.39</v>
+      </c>
+      <c r="O35" s="102">
+        <v>1373.8009999999999</v>
+      </c>
+      <c r="P35" s="102">
+        <v>1365.414</v>
+      </c>
+      <c r="Q35" s="102">
+        <v>1327.2170000000001</v>
+      </c>
+      <c r="R35" s="102">
+        <v>1349.3710000000001</v>
+      </c>
+      <c r="S35" s="102">
+        <v>1408.145</v>
+      </c>
+      <c r="T35" s="102">
+        <v>1528.6289999999999</v>
+      </c>
+      <c r="U35" s="102">
+        <v>1529.5309999999999</v>
+      </c>
+      <c r="V35" s="102">
+        <v>1739.2650000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="102">
+        <v>322511</v>
+      </c>
+      <c r="D36" s="102">
+        <v>323211</v>
+      </c>
+      <c r="E36" s="102">
+        <v>317807</v>
+      </c>
+      <c r="F36" s="102">
+        <v>318263</v>
+      </c>
+      <c r="G36" s="102">
+        <v>338898</v>
+      </c>
+      <c r="H36" s="102">
+        <v>352140</v>
+      </c>
+      <c r="I36" s="102">
+        <v>352477</v>
+      </c>
+      <c r="J36" s="102">
+        <v>358832</v>
+      </c>
+      <c r="K36" s="102">
+        <v>340092</v>
+      </c>
+      <c r="L36" s="102">
+        <v>299829</v>
+      </c>
+      <c r="M36" s="102">
+        <v>341325</v>
+      </c>
+      <c r="N36" s="102">
+        <v>352091</v>
+      </c>
+      <c r="O36" s="102">
+        <v>371074</v>
+      </c>
+      <c r="P36" s="102">
+        <v>386132</v>
+      </c>
+      <c r="Q36" s="102">
+        <v>415462</v>
+      </c>
+      <c r="R36" s="102">
+        <v>411813</v>
+      </c>
+      <c r="S36" s="102">
+        <v>395889</v>
+      </c>
+      <c r="T36" s="102">
+        <v>423664</v>
+      </c>
+      <c r="U36" s="102">
+        <v>448319</v>
+      </c>
+      <c r="V36" s="102">
+        <v>451277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="B37" s="107"/>
+    </row>
+    <row r="38" spans="1:22" ht="26.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="74">
+        <v>1.920482</v>
+      </c>
+      <c r="D38" s="74">
+        <v>1.906296</v>
+      </c>
+      <c r="E38" s="74">
+        <v>1.722966</v>
+      </c>
+      <c r="F38" s="74">
+        <v>1.8189690000000001</v>
+      </c>
+      <c r="G38" s="74">
+        <v>1.7892429999999999</v>
+      </c>
+      <c r="H38" s="74">
+        <v>1.8056989999999999</v>
+      </c>
+      <c r="I38" s="74">
+        <v>1.8610139999999999</v>
+      </c>
+      <c r="J38" s="74">
+        <v>1.931551</v>
+      </c>
+      <c r="K38" s="74">
+        <v>2.004432</v>
+      </c>
+      <c r="L38" s="74">
+        <v>2.121022</v>
+      </c>
+      <c r="M38" s="74">
+        <v>1.762966</v>
+      </c>
+      <c r="N38" s="74">
+        <v>1.9699610000000001</v>
+      </c>
+      <c r="O38" s="74">
+        <v>1.7335309999999999</v>
+      </c>
+      <c r="P38" s="74">
+        <v>1.539866</v>
+      </c>
+      <c r="Q38" s="74">
+        <v>1.4979389999999999</v>
+      </c>
+      <c r="R38" s="74">
+        <v>1.4850749999999999</v>
+      </c>
+      <c r="S38" s="74">
+        <v>1.438202</v>
+      </c>
+      <c r="T38" s="74">
+        <v>1.4977879999999999</v>
+      </c>
+      <c r="U38" s="74">
+        <v>1.462726</v>
+      </c>
+      <c r="V38" s="74">
+        <v>1.3182579999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="26.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="74">
+        <v>0.252724</v>
+      </c>
+      <c r="D39" s="74">
+        <v>0.24981</v>
+      </c>
+      <c r="E39" s="74">
+        <v>0.23120499999999999</v>
+      </c>
+      <c r="F39" s="74">
+        <v>0.233622</v>
+      </c>
+      <c r="G39" s="74">
+        <v>0.226017</v>
+      </c>
+      <c r="H39" s="74">
+        <v>0.23188600000000001</v>
+      </c>
+      <c r="I39" s="74">
+        <v>0.242786</v>
+      </c>
+      <c r="J39" s="74">
+        <v>0.25569500000000001</v>
+      </c>
+      <c r="K39" s="74">
+        <v>0.28427400000000003</v>
+      </c>
+      <c r="L39" s="74">
+        <v>0.27468700000000001</v>
+      </c>
+      <c r="M39" s="74">
+        <v>0.238043</v>
+      </c>
+      <c r="N39" s="74">
+        <v>0.26014100000000001</v>
+      </c>
+      <c r="O39" s="74">
+        <v>0.25384800000000002</v>
+      </c>
+      <c r="P39" s="74">
+        <v>0.23553499999999999</v>
+      </c>
+      <c r="Q39" s="74">
+        <v>0.224853</v>
+      </c>
+      <c r="R39" s="74">
+        <v>0.21575800000000001</v>
+      </c>
+      <c r="S39" s="74">
+        <v>0.20574400000000001</v>
+      </c>
+      <c r="T39" s="74">
+        <v>0.220053</v>
+      </c>
+      <c r="U39" s="74">
+        <v>0.21263099999999999</v>
+      </c>
+      <c r="V39" s="74">
+        <v>0.21271200000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="B40" s="107"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="B41" s="107"/>
+    </row>
+    <row r="42" spans="1:22" ht="28.5">
+      <c r="A42" s="15"/>
+      <c r="B42" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="65">
+        <v>6.5970870000000001</v>
+      </c>
+      <c r="D42" s="65">
+        <v>6.5363329999999999</v>
+      </c>
+      <c r="E42" s="65">
+        <v>5.9528410000000003</v>
+      </c>
+      <c r="F42" s="65">
+        <v>6.009925</v>
+      </c>
+      <c r="G42" s="65">
+        <v>6.1800059999999997</v>
+      </c>
+      <c r="H42" s="65">
+        <v>6.5850609999999996</v>
+      </c>
+      <c r="I42" s="65">
+        <v>6.8935190000000004</v>
+      </c>
+      <c r="J42" s="65">
+        <v>7.3840839999999996</v>
+      </c>
+      <c r="K42" s="65">
+        <v>7.7961669999999996</v>
+      </c>
+      <c r="L42" s="65">
+        <v>6.6655730000000002</v>
+      </c>
+      <c r="M42" s="65">
+        <v>6.5381289999999996</v>
+      </c>
+      <c r="N42" s="65">
+        <v>7.3686220000000002</v>
+      </c>
+      <c r="O42" s="65">
+        <v>7.5418260000000004</v>
+      </c>
+      <c r="P42" s="65">
+        <v>7.2663229999999999</v>
+      </c>
+      <c r="Q42" s="65">
+        <v>7.450304</v>
+      </c>
+      <c r="R42" s="65">
+        <v>7.0949920000000004</v>
+      </c>
+      <c r="S42" s="65">
+        <v>6.5187629999999999</v>
+      </c>
+      <c r="T42" s="65">
+        <v>7.4590500000000004</v>
+      </c>
+      <c r="U42" s="65">
+        <v>7.618824</v>
+      </c>
+      <c r="V42" s="65">
+        <v>7.6751269999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="15"/>
+      <c r="B43" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="C43" s="104">
+        <v>0.23223199999999999</v>
+      </c>
+      <c r="D43" s="104">
+        <v>0.23119400000000001</v>
+      </c>
+      <c r="E43" s="104">
+        <v>0.214865</v>
+      </c>
+      <c r="F43" s="104">
+        <v>0.20364099999999999</v>
+      </c>
+      <c r="G43" s="104">
+        <v>0.198519</v>
+      </c>
+      <c r="H43" s="104">
+        <v>0.20847399999999999</v>
+      </c>
+      <c r="I43" s="104">
+        <v>0.21079500000000001</v>
+      </c>
+      <c r="J43" s="104">
+        <v>0.219165</v>
+      </c>
+      <c r="K43" s="104">
+        <v>0.24642</v>
+      </c>
+      <c r="L43" s="104">
+        <v>0.234096</v>
+      </c>
+      <c r="M43" s="104">
+        <v>0.19327</v>
+      </c>
+      <c r="N43" s="104">
+        <v>0.21604499999999999</v>
+      </c>
+      <c r="O43" s="104">
+        <v>0.185975</v>
+      </c>
+      <c r="P43" s="104">
+        <v>0.16419</v>
+      </c>
+      <c r="Q43" s="104">
+        <v>0.155251</v>
+      </c>
+      <c r="R43" s="104">
+        <v>0.15648699999999999</v>
+      </c>
+      <c r="S43" s="104">
+        <v>0.15814900000000001</v>
+      </c>
+      <c r="T43" s="104">
+        <v>0.17879300000000001</v>
+      </c>
+      <c r="U43" s="104">
+        <v>0.17471100000000001</v>
+      </c>
+      <c r="V43" s="104">
+        <v>0.17904600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="15"/>
+      <c r="B44" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="104">
+        <v>6.3648559999999996</v>
+      </c>
+      <c r="D44" s="104">
+        <v>6.3051389999999996</v>
+      </c>
+      <c r="E44" s="104">
+        <v>5.7379759999999997</v>
+      </c>
+      <c r="F44" s="104">
+        <v>5.8062839999999998</v>
+      </c>
+      <c r="G44" s="104">
+        <v>5.9814870000000004</v>
+      </c>
+      <c r="H44" s="104">
+        <v>6.3765879999999999</v>
+      </c>
+      <c r="I44" s="104">
+        <v>6.6827240000000003</v>
+      </c>
+      <c r="J44" s="104">
+        <v>7.1649180000000001</v>
+      </c>
+      <c r="K44" s="104">
+        <v>7.5497480000000001</v>
+      </c>
+      <c r="L44" s="104">
+        <v>6.4314770000000001</v>
+      </c>
+      <c r="M44" s="104">
+        <v>6.3448589999999996</v>
+      </c>
+      <c r="N44" s="104">
+        <v>7.152577</v>
+      </c>
+      <c r="O44" s="104">
+        <v>7.3558519999999996</v>
+      </c>
+      <c r="P44" s="104">
+        <v>7.1021340000000004</v>
+      </c>
+      <c r="Q44" s="104">
+        <v>7.2950530000000002</v>
+      </c>
+      <c r="R44" s="104">
+        <v>6.9385060000000003</v>
+      </c>
+      <c r="S44" s="104">
+        <v>6.360614</v>
+      </c>
+      <c r="T44" s="104">
+        <v>7.2802569999999998</v>
+      </c>
+      <c r="U44" s="104">
+        <v>7.4441129999999998</v>
+      </c>
+      <c r="V44" s="104">
+        <v>7.4960810000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="B45" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="B46" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="101">
+        <v>0</v>
+      </c>
+      <c r="D46" s="101">
+        <v>0</v>
+      </c>
+      <c r="E46" s="101">
+        <v>0</v>
+      </c>
+      <c r="F46" s="101">
+        <v>0</v>
+      </c>
+      <c r="G46" s="101">
+        <v>0</v>
+      </c>
+      <c r="H46" s="101">
+        <v>0</v>
+      </c>
+      <c r="I46" s="101">
+        <v>0</v>
+      </c>
+      <c r="J46" s="101">
+        <v>0</v>
+      </c>
+      <c r="K46" s="101">
+        <v>0</v>
+      </c>
+      <c r="L46" s="101">
+        <v>0</v>
+      </c>
+      <c r="M46" s="101">
+        <v>0</v>
+      </c>
+      <c r="N46" s="101">
+        <v>0</v>
+      </c>
+      <c r="O46" s="101">
+        <v>0</v>
+      </c>
+      <c r="P46" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="101">
+        <v>0</v>
+      </c>
+      <c r="R46" s="101">
+        <v>0</v>
+      </c>
+      <c r="S46" s="101">
+        <v>0</v>
+      </c>
+      <c r="T46" s="101">
+        <v>0</v>
+      </c>
+      <c r="U46" s="101">
+        <v>0</v>
+      </c>
+      <c r="V46" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="B47" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="101">
+        <v>0</v>
+      </c>
+      <c r="D47" s="101">
+        <v>0</v>
+      </c>
+      <c r="E47" s="101">
+        <v>0</v>
+      </c>
+      <c r="F47" s="101">
+        <v>0</v>
+      </c>
+      <c r="G47" s="101">
+        <v>0</v>
+      </c>
+      <c r="H47" s="101">
+        <v>0</v>
+      </c>
+      <c r="I47" s="101">
+        <v>0</v>
+      </c>
+      <c r="J47" s="101">
+        <v>0</v>
+      </c>
+      <c r="K47" s="101">
+        <v>0</v>
+      </c>
+      <c r="L47" s="101">
+        <v>0</v>
+      </c>
+      <c r="M47" s="101">
+        <v>0</v>
+      </c>
+      <c r="N47" s="101">
+        <v>0</v>
+      </c>
+      <c r="O47" s="101">
+        <v>0</v>
+      </c>
+      <c r="P47" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="101">
+        <v>0</v>
+      </c>
+      <c r="R47" s="101">
+        <v>0</v>
+      </c>
+      <c r="S47" s="101">
+        <v>0</v>
+      </c>
+      <c r="T47" s="101">
+        <v>0</v>
+      </c>
+      <c r="U47" s="101">
+        <v>0</v>
+      </c>
+      <c r="V47" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="B48" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="101">
+        <v>7.3638999999999996E-2</v>
+      </c>
+      <c r="D48" s="101">
+        <v>6.9110000000000005E-2</v>
+      </c>
+      <c r="E48" s="101">
+        <v>7.7310000000000004E-2</v>
+      </c>
+      <c r="F48" s="101">
+        <v>0.16461500000000001</v>
+      </c>
+      <c r="G48" s="101">
+        <v>0.11752600000000001</v>
+      </c>
+      <c r="H48" s="101">
+        <v>0.11479300000000001</v>
+      </c>
+      <c r="I48" s="101">
+        <v>0.10432900000000001</v>
+      </c>
+      <c r="J48" s="101">
+        <v>0.15485399999999999</v>
+      </c>
+      <c r="K48" s="101">
+        <v>0.13868900000000001</v>
+      </c>
+      <c r="L48" s="101">
+        <v>0.11518399999999999</v>
+      </c>
+      <c r="M48" s="101">
+        <v>0.13650200000000001</v>
+      </c>
+      <c r="N48" s="101">
+        <v>0.169847</v>
+      </c>
+      <c r="O48" s="101">
+        <v>0.13088</v>
+      </c>
+      <c r="P48" s="101">
+        <v>0.104407</v>
+      </c>
+      <c r="Q48" s="101">
+        <v>0.108233</v>
+      </c>
+      <c r="R48" s="101">
+        <v>0.117995</v>
+      </c>
+      <c r="S48" s="101">
+        <v>0.119244</v>
+      </c>
+      <c r="T48" s="101">
+        <v>0.151339</v>
+      </c>
+      <c r="U48" s="101">
+        <v>0.162663</v>
+      </c>
+      <c r="V48" s="101">
+        <v>0.15836800000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="101">
+        <v>0.233178</v>
+      </c>
+      <c r="D49" s="101">
+        <v>0.259573</v>
+      </c>
+      <c r="E49" s="101">
+        <v>0.25840200000000002</v>
+      </c>
+      <c r="F49" s="101">
+        <v>0.28112599999999999</v>
+      </c>
+      <c r="G49" s="101">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="H49" s="101">
+        <v>0.28448400000000001</v>
+      </c>
+      <c r="I49" s="101">
+        <v>0.28276600000000002</v>
+      </c>
+      <c r="J49" s="101">
+        <v>0.28573300000000001</v>
+      </c>
+      <c r="K49" s="101">
+        <v>0.245673</v>
+      </c>
+      <c r="L49" s="101">
+        <v>0.252467</v>
+      </c>
+      <c r="M49" s="101">
+        <v>0.306037</v>
+      </c>
+      <c r="N49" s="101">
+        <v>0.28948200000000002</v>
+      </c>
+      <c r="O49" s="101">
+        <v>0.27284799999999998</v>
+      </c>
+      <c r="P49" s="101">
+        <v>0.197881</v>
+      </c>
+      <c r="Q49" s="101">
+        <v>0.204129</v>
+      </c>
+      <c r="R49" s="101">
+        <v>0.17133100000000001</v>
+      </c>
+      <c r="S49" s="101">
+        <v>0.159695</v>
+      </c>
+      <c r="T49" s="101">
+        <v>0.157196</v>
+      </c>
+      <c r="U49" s="101">
+        <v>0.15961700000000001</v>
+      </c>
+      <c r="V49" s="101">
+        <v>0.15063699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="101">
+        <v>0.80566000000000004</v>
+      </c>
+      <c r="D50" s="101">
+        <v>0.75693100000000002</v>
+      </c>
+      <c r="E50" s="101">
+        <v>0.74615500000000001</v>
+      </c>
+      <c r="F50" s="101">
+        <v>0.741313</v>
+      </c>
+      <c r="G50" s="101">
+        <v>0.81159499999999996</v>
+      </c>
+      <c r="H50" s="101">
+        <v>0.70547000000000004</v>
+      </c>
+      <c r="I50" s="101">
+        <v>0.76653700000000002</v>
+      </c>
+      <c r="J50" s="101">
+        <v>0.88109499999999996</v>
+      </c>
+      <c r="K50" s="101">
+        <v>0.88890400000000003</v>
+      </c>
+      <c r="L50" s="101">
+        <v>0.92505999999999999</v>
+      </c>
+      <c r="M50" s="101">
+        <v>0.84369000000000005</v>
+      </c>
+      <c r="N50" s="101">
+        <v>0.88945099999999999</v>
+      </c>
+      <c r="O50" s="101">
+        <v>0.92857400000000001</v>
+      </c>
+      <c r="P50" s="101">
+        <v>0.86680500000000005</v>
+      </c>
+      <c r="Q50" s="101">
+        <v>0.77411099999999999</v>
+      </c>
+      <c r="R50" s="101">
+        <v>0.67985600000000002</v>
+      </c>
+      <c r="S50" s="101">
+        <v>0.67118800000000001</v>
+      </c>
+      <c r="T50" s="101">
+        <v>0.619336</v>
+      </c>
+      <c r="U50" s="101">
+        <v>0.69406900000000005</v>
+      </c>
+      <c r="V50" s="101">
+        <v>0.63667200000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="101">
+        <v>1.6696530000000001</v>
+      </c>
+      <c r="D51" s="101">
+        <v>1.580084</v>
+      </c>
+      <c r="E51" s="101">
+        <v>1.460917</v>
+      </c>
+      <c r="F51" s="101">
+        <v>1.2817000000000001</v>
+      </c>
+      <c r="G51" s="101">
+        <v>1.4457679999999999</v>
+      </c>
+      <c r="H51" s="101">
+        <v>1.5522830000000001</v>
+      </c>
+      <c r="I51" s="101">
+        <v>1.472475</v>
+      </c>
+      <c r="J51" s="101">
+        <v>1.533776</v>
+      </c>
+      <c r="K51" s="101">
+        <v>1.5319799999999999</v>
+      </c>
+      <c r="L51" s="101">
+        <v>1.1497269999999999</v>
+      </c>
+      <c r="M51" s="101">
+        <v>1.253665</v>
+      </c>
+      <c r="N51" s="101">
+        <v>1.3213699999999999</v>
+      </c>
+      <c r="O51" s="101">
+        <v>1.239687</v>
+      </c>
+      <c r="P51" s="101">
+        <v>1.313483</v>
+      </c>
+      <c r="Q51" s="101">
+        <v>1.4093</v>
+      </c>
+      <c r="R51" s="101">
+        <v>1.427573</v>
+      </c>
+      <c r="S51" s="101">
+        <v>1.44733</v>
+      </c>
+      <c r="T51" s="101">
+        <v>1.4411609999999999</v>
+      </c>
+      <c r="U51" s="101">
+        <v>1.5318240000000001</v>
+      </c>
+      <c r="V51" s="101">
+        <v>1.549863</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="101">
+        <v>0.320718</v>
+      </c>
+      <c r="D52" s="101">
+        <v>0.243564</v>
+      </c>
+      <c r="E52" s="101">
+        <v>9.0351000000000001E-2</v>
+      </c>
+      <c r="F52" s="101">
+        <v>0.202567</v>
+      </c>
+      <c r="G52" s="101">
+        <v>0.293464</v>
+      </c>
+      <c r="H52" s="101">
+        <v>0.298931</v>
+      </c>
+      <c r="I52" s="101">
+        <v>0.292215</v>
+      </c>
+      <c r="J52" s="101">
+        <v>0.25379400000000002</v>
+      </c>
+      <c r="K52" s="101">
+        <v>0.27495700000000001</v>
+      </c>
+      <c r="L52" s="101">
+        <v>0.52250399999999997</v>
+      </c>
+      <c r="M52" s="101">
+        <v>0.62378699999999998</v>
+      </c>
+      <c r="N52" s="101">
+        <v>0.69032000000000004</v>
+      </c>
+      <c r="O52" s="101">
+        <v>0.61558800000000002</v>
+      </c>
+      <c r="P52" s="101">
+        <v>0.56826500000000002</v>
+      </c>
+      <c r="Q52" s="101">
+        <v>0.65369600000000005</v>
+      </c>
+      <c r="R52" s="101">
+        <v>0.702268</v>
+      </c>
+      <c r="S52" s="101">
+        <v>0.65853700000000004</v>
+      </c>
+      <c r="T52" s="101">
+        <v>0.80089600000000005</v>
+      </c>
+      <c r="U52" s="101">
+        <v>0.87836199999999998</v>
+      </c>
+      <c r="V52" s="101">
+        <v>0.89062200000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="101">
+        <v>0.40903800000000001</v>
+      </c>
+      <c r="D53" s="101">
+        <v>0.30353799999999997</v>
+      </c>
+      <c r="E53" s="101">
+        <v>0.245282</v>
+      </c>
+      <c r="F53" s="101">
+        <v>0.18835399999999999</v>
+      </c>
+      <c r="G53" s="101">
+        <v>0.169847</v>
+      </c>
+      <c r="H53" s="101">
+        <v>0.41021000000000002</v>
+      </c>
+      <c r="I53" s="101">
+        <v>0.380691</v>
+      </c>
+      <c r="J53" s="101">
+        <v>0.24848400000000001</v>
+      </c>
+      <c r="K53" s="101">
+        <v>0.471354</v>
+      </c>
+      <c r="L53" s="101">
+        <v>0.378973</v>
+      </c>
+      <c r="M53" s="101">
+        <v>0.69297500000000001</v>
+      </c>
+      <c r="N53" s="101">
+        <v>0.71991700000000003</v>
+      </c>
+      <c r="O53" s="101">
+        <v>0.56108000000000002</v>
+      </c>
+      <c r="P53" s="101">
+        <v>0.69313100000000005</v>
+      </c>
+      <c r="Q53" s="101">
+        <v>0.71585600000000005</v>
+      </c>
+      <c r="R53" s="101">
+        <v>0.79972500000000002</v>
+      </c>
+      <c r="S53" s="101">
+        <v>0.77918699999999996</v>
+      </c>
+      <c r="T53" s="101">
+        <v>1.121302</v>
+      </c>
+      <c r="U53" s="101">
+        <v>1.2774829999999999</v>
+      </c>
+      <c r="V53" s="101">
+        <v>1.354168</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="101">
+        <v>1.8057650000000001</v>
+      </c>
+      <c r="D54" s="101">
+        <v>2.262985</v>
+      </c>
+      <c r="E54" s="101">
+        <v>2.2084779999999999</v>
+      </c>
+      <c r="F54" s="101">
+        <v>2.5774560000000002</v>
+      </c>
+      <c r="G54" s="101">
+        <v>2.6468780000000001</v>
+      </c>
+      <c r="H54" s="101">
+        <v>2.7828339999999998</v>
+      </c>
+      <c r="I54" s="101">
+        <v>3.1692260000000001</v>
+      </c>
+      <c r="J54" s="101">
+        <v>3.5981770000000002</v>
+      </c>
+      <c r="K54" s="101">
+        <v>3.5826370000000001</v>
+      </c>
+      <c r="L54" s="101">
+        <v>2.8730280000000001</v>
+      </c>
+      <c r="M54" s="101">
+        <v>2.1630289999999999</v>
+      </c>
+      <c r="N54" s="101">
+        <v>2.6110350000000002</v>
+      </c>
+      <c r="O54" s="101">
+        <v>3.1013649999999999</v>
+      </c>
+      <c r="P54" s="101">
+        <v>2.980715</v>
+      </c>
+      <c r="Q54" s="101">
+        <v>2.9064510000000001</v>
+      </c>
+      <c r="R54" s="101">
+        <v>2.5195129999999999</v>
+      </c>
+      <c r="S54" s="101">
+        <v>1.886042</v>
+      </c>
+      <c r="T54" s="101">
+        <v>2.0617459999999999</v>
+      </c>
+      <c r="U54" s="101">
+        <v>1.902207</v>
+      </c>
+      <c r="V54" s="101">
+        <v>1.9419550000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="101">
+        <v>1.2794350000000001</v>
+      </c>
+      <c r="D55" s="101">
+        <v>1.0605469999999999</v>
+      </c>
+      <c r="E55" s="101">
+        <v>0.86594599999999999</v>
+      </c>
+      <c r="F55" s="101">
+        <v>0.57279400000000003</v>
+      </c>
+      <c r="G55" s="101">
+        <v>0.40372799999999998</v>
+      </c>
+      <c r="H55" s="101">
+        <v>0.43605699999999997</v>
+      </c>
+      <c r="I55" s="101">
+        <v>0.42528100000000002</v>
+      </c>
+      <c r="J55" s="101">
+        <v>0.42817</v>
+      </c>
+      <c r="K55" s="101">
+        <v>0.66197300000000003</v>
+      </c>
+      <c r="L55" s="101">
+        <v>0.44862999999999997</v>
+      </c>
+      <c r="M55" s="101">
+        <v>0.51844299999999999</v>
+      </c>
+      <c r="N55" s="101">
+        <v>0.67720100000000005</v>
+      </c>
+      <c r="O55" s="101">
+        <v>0.69180399999999997</v>
+      </c>
+      <c r="P55" s="101">
+        <v>0.54163600000000001</v>
+      </c>
+      <c r="Q55" s="101">
+        <v>0.67852900000000005</v>
+      </c>
+      <c r="R55" s="101">
+        <v>0.676732</v>
+      </c>
+      <c r="S55" s="101">
+        <v>0.797539</v>
+      </c>
+      <c r="T55" s="101">
+        <v>1.106074</v>
+      </c>
+      <c r="U55" s="101">
+        <v>1.0125999999999999</v>
+      </c>
+      <c r="V55" s="101">
+        <v>0.99284300000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="107"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
+      <c r="U56" s="101"/>
+      <c r="V56" s="101"/>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="101">
+        <v>0</v>
+      </c>
+      <c r="D58" s="101">
+        <v>0</v>
+      </c>
+      <c r="E58" s="101">
+        <v>0</v>
+      </c>
+      <c r="F58" s="101">
+        <v>0</v>
+      </c>
+      <c r="G58" s="101">
+        <v>0</v>
+      </c>
+      <c r="H58" s="101">
+        <v>0</v>
+      </c>
+      <c r="I58" s="101">
+        <v>0</v>
+      </c>
+      <c r="J58" s="101">
+        <v>0</v>
+      </c>
+      <c r="K58" s="101">
+        <v>0</v>
+      </c>
+      <c r="L58" s="101">
+        <v>0</v>
+      </c>
+      <c r="M58" s="101">
+        <v>0</v>
+      </c>
+      <c r="N58" s="101">
+        <v>0</v>
+      </c>
+      <c r="O58" s="101">
+        <v>0</v>
+      </c>
+      <c r="P58" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="101">
+        <v>0</v>
+      </c>
+      <c r="R58" s="101">
+        <v>0</v>
+      </c>
+      <c r="S58" s="101">
+        <v>0</v>
+      </c>
+      <c r="T58" s="101">
+        <v>0</v>
+      </c>
+      <c r="U58" s="101">
+        <v>0</v>
+      </c>
+      <c r="V58" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="B59" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="101">
+        <v>0</v>
+      </c>
+      <c r="D59" s="101">
+        <v>0</v>
+      </c>
+      <c r="E59" s="101">
+        <v>0</v>
+      </c>
+      <c r="F59" s="101">
+        <v>0</v>
+      </c>
+      <c r="G59" s="101">
+        <v>0</v>
+      </c>
+      <c r="H59" s="101">
+        <v>0</v>
+      </c>
+      <c r="I59" s="101">
+        <v>0</v>
+      </c>
+      <c r="J59" s="101">
+        <v>0</v>
+      </c>
+      <c r="K59" s="101">
+        <v>0</v>
+      </c>
+      <c r="L59" s="101">
+        <v>0</v>
+      </c>
+      <c r="M59" s="101">
+        <v>0</v>
+      </c>
+      <c r="N59" s="101">
+        <v>0</v>
+      </c>
+      <c r="O59" s="101">
+        <v>0</v>
+      </c>
+      <c r="P59" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="101">
+        <v>0</v>
+      </c>
+      <c r="R59" s="101">
+        <v>0</v>
+      </c>
+      <c r="S59" s="101">
+        <v>0</v>
+      </c>
+      <c r="T59" s="101">
+        <v>0</v>
+      </c>
+      <c r="U59" s="101">
+        <v>0</v>
+      </c>
+      <c r="V59" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22">
+      <c r="B60" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="101">
+        <v>1.116241</v>
+      </c>
+      <c r="D60" s="101">
+        <v>1.0573220000000001</v>
+      </c>
+      <c r="E60" s="101">
+        <v>1.2987010000000001</v>
+      </c>
+      <c r="F60" s="101">
+        <v>2.7390500000000002</v>
+      </c>
+      <c r="G60" s="101">
+        <v>1.9017170000000001</v>
+      </c>
+      <c r="H60" s="101">
+        <v>1.7432350000000001</v>
+      </c>
+      <c r="I60" s="101">
+        <v>1.5134350000000001</v>
+      </c>
+      <c r="J60" s="101">
+        <v>2.0971259999999998</v>
+      </c>
+      <c r="K60" s="101">
+        <v>1.7789349999999999</v>
+      </c>
+      <c r="L60" s="101">
+        <v>1.7280359999999999</v>
+      </c>
+      <c r="M60" s="101">
+        <v>2.0877870000000001</v>
+      </c>
+      <c r="N60" s="101">
+        <v>2.305002</v>
+      </c>
+      <c r="O60" s="101">
+        <v>1.735385</v>
+      </c>
+      <c r="P60" s="101">
+        <v>1.4368620000000001</v>
+      </c>
+      <c r="Q60" s="101">
+        <v>1.452739</v>
+      </c>
+      <c r="R60" s="101">
+        <v>1.663071</v>
+      </c>
+      <c r="S60" s="101">
+        <v>1.8292459999999999</v>
+      </c>
+      <c r="T60" s="101">
+        <v>2.028937</v>
+      </c>
+      <c r="U60" s="101">
+        <v>2.1350090000000002</v>
+      </c>
+      <c r="V60" s="101">
+        <v>2.0633870000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="B61" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="101">
+        <v>3.534564</v>
+      </c>
+      <c r="D61" s="101">
+        <v>3.971231</v>
+      </c>
+      <c r="E61" s="101">
+        <v>4.3408110000000004</v>
+      </c>
+      <c r="F61" s="101">
+        <v>4.6776939999999998</v>
+      </c>
+      <c r="G61" s="101">
+        <v>4.7119619999999998</v>
+      </c>
+      <c r="H61" s="101">
+        <v>4.3201390000000002</v>
+      </c>
+      <c r="I61" s="101">
+        <v>4.1019079999999999</v>
+      </c>
+      <c r="J61" s="101">
+        <v>3.869583</v>
+      </c>
+      <c r="K61" s="101">
+        <v>3.1511990000000001</v>
+      </c>
+      <c r="L61" s="101">
+        <v>3.7876210000000001</v>
+      </c>
+      <c r="M61" s="101">
+        <v>4.6807999999999996</v>
+      </c>
+      <c r="N61" s="101">
+        <v>3.9285709999999998</v>
+      </c>
+      <c r="O61" s="101">
+        <v>3.617801</v>
+      </c>
+      <c r="P61" s="101">
+        <v>2.7232669999999999</v>
+      </c>
+      <c r="Q61" s="101">
+        <v>2.7398699999999998</v>
+      </c>
+      <c r="R61" s="101">
+        <v>2.4148100000000001</v>
+      </c>
+      <c r="S61" s="101">
+        <v>2.4497770000000001</v>
+      </c>
+      <c r="T61" s="101">
+        <v>2.107456</v>
+      </c>
+      <c r="U61" s="101">
+        <v>2.0950350000000002</v>
+      </c>
+      <c r="V61" s="101">
+        <v>1.9626600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22">
+      <c r="B62" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="101">
+        <v>12.212358</v>
+      </c>
+      <c r="D62" s="101">
+        <v>11.580368</v>
+      </c>
+      <c r="E62" s="101">
+        <v>12.534435</v>
+      </c>
+      <c r="F62" s="101">
+        <v>12.334819</v>
+      </c>
+      <c r="G62" s="101">
+        <v>13.132588999999999</v>
+      </c>
+      <c r="H62" s="101">
+        <v>10.713184999999999</v>
+      </c>
+      <c r="I62" s="101">
+        <v>11.119669999999999</v>
+      </c>
+      <c r="J62" s="101">
+        <v>11.932359</v>
+      </c>
+      <c r="K62" s="101">
+        <v>11.401813000000001</v>
+      </c>
+      <c r="L62" s="101">
+        <v>13.878182000000001</v>
+      </c>
+      <c r="M62" s="101">
+        <v>12.90415</v>
+      </c>
+      <c r="N62" s="101">
+        <v>12.070793</v>
+      </c>
+      <c r="O62" s="101">
+        <v>12.312328000000001</v>
+      </c>
+      <c r="P62" s="101">
+        <v>11.929069999999999</v>
+      </c>
+      <c r="Q62" s="101">
+        <v>10.390332000000001</v>
+      </c>
+      <c r="R62" s="101">
+        <v>9.5821959999999997</v>
+      </c>
+      <c r="S62" s="101">
+        <v>10.296249</v>
+      </c>
+      <c r="T62" s="101">
+        <v>8.3031469999999992</v>
+      </c>
+      <c r="U62" s="101">
+        <v>9.1099180000000004</v>
+      </c>
+      <c r="V62" s="101">
+        <v>8.2952639999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="101">
+        <v>25.308948999999998</v>
+      </c>
+      <c r="D63" s="101">
+        <v>24.173855</v>
+      </c>
+      <c r="E63" s="101">
+        <v>24.541519000000001</v>
+      </c>
+      <c r="F63" s="101">
+        <v>21.326385999999999</v>
+      </c>
+      <c r="G63" s="101">
+        <v>23.394280999999999</v>
+      </c>
+      <c r="H63" s="101">
+        <v>23.572800999999998</v>
+      </c>
+      <c r="I63" s="101">
+        <v>21.360278999999998</v>
+      </c>
+      <c r="J63" s="101">
+        <v>20.771377999999999</v>
+      </c>
+      <c r="K63" s="101">
+        <v>19.650423</v>
+      </c>
+      <c r="L63" s="101">
+        <v>17.248732</v>
+      </c>
+      <c r="M63" s="101">
+        <v>19.174679000000001</v>
+      </c>
+      <c r="N63" s="101">
+        <v>17.932386999999999</v>
+      </c>
+      <c r="O63" s="101">
+        <v>16.437491000000001</v>
+      </c>
+      <c r="P63" s="101">
+        <v>18.076302999999999</v>
+      </c>
+      <c r="Q63" s="101">
+        <v>18.916001000000001</v>
+      </c>
+      <c r="R63" s="101">
+        <v>20.120850999999998</v>
+      </c>
+      <c r="S63" s="101">
+        <v>22.202522999999999</v>
+      </c>
+      <c r="T63" s="101">
+        <v>19.320965999999999</v>
+      </c>
+      <c r="U63" s="101">
+        <v>20.105777</v>
+      </c>
+      <c r="V63" s="101">
+        <v>20.193314999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="101">
+        <v>4.8615060000000003</v>
+      </c>
+      <c r="D64" s="101">
+        <v>3.726315</v>
+      </c>
+      <c r="E64" s="101">
+        <v>1.5177750000000001</v>
+      </c>
+      <c r="F64" s="101">
+        <v>3.3705379999999998</v>
+      </c>
+      <c r="G64" s="101">
+        <v>4.7486069999999998</v>
+      </c>
+      <c r="H64" s="101">
+        <v>4.5395250000000003</v>
+      </c>
+      <c r="I64" s="101">
+        <v>4.2389780000000004</v>
+      </c>
+      <c r="J64" s="101">
+        <v>3.4370440000000002</v>
+      </c>
+      <c r="K64" s="101">
+        <v>3.5268190000000001</v>
+      </c>
+      <c r="L64" s="101">
+        <v>7.8388419999999996</v>
+      </c>
+      <c r="M64" s="101">
+        <v>9.5407580000000003</v>
+      </c>
+      <c r="N64" s="101">
+        <v>9.3683759999999996</v>
+      </c>
+      <c r="O64" s="101">
+        <v>8.1623140000000003</v>
+      </c>
+      <c r="P64" s="101">
+        <v>7.8205270000000002</v>
+      </c>
+      <c r="Q64" s="101">
+        <v>8.7740810000000007</v>
+      </c>
+      <c r="R64" s="101">
+        <v>9.8980800000000002</v>
+      </c>
+      <c r="S64" s="101">
+        <v>10.102183999999999</v>
+      </c>
+      <c r="T64" s="101">
+        <v>10.737242999999999</v>
+      </c>
+      <c r="U64" s="101">
+        <v>11.528843</v>
+      </c>
+      <c r="V64" s="101">
+        <v>11.604009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="B65" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="101">
+        <v>6.2002839999999999</v>
+      </c>
+      <c r="D65" s="101">
+        <v>4.6438560000000004</v>
+      </c>
+      <c r="E65" s="101">
+        <v>4.120425</v>
+      </c>
+      <c r="F65" s="101">
+        <v>3.134055</v>
+      </c>
+      <c r="G65" s="101">
+        <v>2.748329</v>
+      </c>
+      <c r="H65" s="101">
+        <v>6.2293950000000002</v>
+      </c>
+      <c r="I65" s="101">
+        <v>5.5224520000000004</v>
+      </c>
+      <c r="J65" s="101">
+        <v>3.3651300000000002</v>
+      </c>
+      <c r="K65" s="101">
+        <v>6.0459759999999996</v>
+      </c>
+      <c r="L65" s="101">
+        <v>5.6855330000000004</v>
+      </c>
+      <c r="M65" s="101">
+        <v>10.598985000000001</v>
+      </c>
+      <c r="N65" s="101">
+        <v>9.7700300000000002</v>
+      </c>
+      <c r="O65" s="101">
+        <v>7.4395829999999998</v>
+      </c>
+      <c r="P65" s="101">
+        <v>9.5389579999999992</v>
+      </c>
+      <c r="Q65" s="101">
+        <v>9.6084099999999992</v>
+      </c>
+      <c r="R65" s="101">
+        <v>11.271682999999999</v>
+      </c>
+      <c r="S65" s="101">
+        <v>11.952992999999999</v>
+      </c>
+      <c r="T65" s="101">
+        <v>15.032769</v>
+      </c>
+      <c r="U65" s="101">
+        <v>16.767455000000002</v>
+      </c>
+      <c r="V65" s="101">
+        <v>17.643588000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="B66" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="101">
+        <v>27.372159</v>
+      </c>
+      <c r="D66" s="101">
+        <v>34.621634</v>
+      </c>
+      <c r="E66" s="101">
+        <v>37.099567</v>
+      </c>
+      <c r="F66" s="101">
+        <v>42.886657</v>
+      </c>
+      <c r="G66" s="101">
+        <v>42.829704999999997</v>
+      </c>
+      <c r="H66" s="101">
+        <v>42.259801000000003</v>
+      </c>
+      <c r="I66" s="101">
+        <v>45.973990999999998</v>
+      </c>
+      <c r="J66" s="101">
+        <v>48.728822999999998</v>
+      </c>
+      <c r="K66" s="101">
+        <v>45.953823999999997</v>
+      </c>
+      <c r="L66" s="101">
+        <v>43.102499000000002</v>
+      </c>
+      <c r="M66" s="101">
+        <v>33.083308000000002</v>
+      </c>
+      <c r="N66" s="101">
+        <v>35.434505999999999</v>
+      </c>
+      <c r="O66" s="101">
+        <v>41.122202000000001</v>
+      </c>
+      <c r="P66" s="101">
+        <v>41.020955999999998</v>
+      </c>
+      <c r="Q66" s="101">
+        <v>39.011172999999999</v>
+      </c>
+      <c r="R66" s="101">
+        <v>35.511139</v>
+      </c>
+      <c r="S66" s="101">
+        <v>28.93252</v>
+      </c>
+      <c r="T66" s="101">
+        <v>27.640864000000001</v>
+      </c>
+      <c r="U66" s="101">
+        <v>24.967200999999999</v>
+      </c>
+      <c r="V66" s="101">
+        <v>25.301928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="B67" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="101">
+        <v>19.393939</v>
+      </c>
+      <c r="D67" s="101">
+        <v>16.225418999999999</v>
+      </c>
+      <c r="E67" s="101">
+        <v>14.546766</v>
+      </c>
+      <c r="F67" s="101">
+        <v>9.5308010000000003</v>
+      </c>
+      <c r="G67" s="101">
+        <v>6.5328090000000003</v>
+      </c>
+      <c r="H67" s="101">
+        <v>6.6219200000000003</v>
+      </c>
+      <c r="I67" s="101">
+        <v>6.1692869999999997</v>
+      </c>
+      <c r="J67" s="101">
+        <v>5.7985569999999997</v>
+      </c>
+      <c r="K67" s="101">
+        <v>8.4910099999999993</v>
+      </c>
+      <c r="L67" s="101">
+        <v>6.7305549999999998</v>
+      </c>
+      <c r="M67" s="101">
+        <v>7.9295309999999999</v>
+      </c>
+      <c r="N67" s="101">
+        <v>9.1903349999999993</v>
+      </c>
+      <c r="O67" s="101">
+        <v>9.1728970000000007</v>
+      </c>
+      <c r="P67" s="101">
+        <v>7.4540569999999997</v>
+      </c>
+      <c r="Q67" s="101">
+        <v>9.1073939999999993</v>
+      </c>
+      <c r="R67" s="101">
+        <v>9.5381699999999991</v>
+      </c>
+      <c r="S67" s="101">
+        <v>12.234508</v>
+      </c>
+      <c r="T67" s="101">
+        <v>14.828619</v>
+      </c>
+      <c r="U67" s="101">
+        <v>13.290763</v>
+      </c>
+      <c r="V67" s="101">
+        <v>12.93585</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="B68" s="107"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="101"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="101"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="101"/>
+      <c r="T68" s="101"/>
+      <c r="U68" s="101"/>
+      <c r="V68" s="101"/>
+    </row>
+    <row r="69" spans="1:22" ht="26.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="D69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="E69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="F69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="G69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="H69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="I69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="J69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="K69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="L69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="M69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="N69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="O69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="P69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="Q69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="R69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="S69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="T69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="U69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="V69" s="65">
+        <v>78.090522000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="26.25">
+      <c r="B70" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="D70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="E70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="F70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="G70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="H70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="I70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="J70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="K70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="L70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="M70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="N70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="O70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="P70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="Q70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="R70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="S70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="T70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="U70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="V70" s="65">
+        <v>78.090522000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="B71" s="99"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32222,14 +36235,17 @@
       <c r="B5" s="58">
         <v>1.2405209526886144E-3</v>
       </c>
-      <c r="C5" s="58">
-        <v>4.2438874697242065E-4</v>
-      </c>
-      <c r="D5" s="58">
-        <v>4.2438874697242065E-4</v>
+      <c r="C5" s="60">
+        <f>D5</f>
+        <v>4.511510075790323E-4</v>
+      </c>
+      <c r="D5" s="60">
+        <f>E5</f>
+        <v>4.511510075790323E-4</v>
       </c>
       <c r="E5" s="60">
-        <v>4.2438874697242065E-4</v>
+        <f>'rail calcs'!C19</f>
+        <v>4.511510075790323E-4</v>
       </c>
       <c r="F5" s="58">
         <v>0</v>
@@ -32299,15 +36315,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32439,14 +36455,17 @@
       <c r="B5" s="58">
         <v>1.1140743815291445E-2</v>
       </c>
-      <c r="C5" s="58">
-        <v>3.4668839999999999E-3</v>
-      </c>
-      <c r="D5" s="58">
-        <v>3.4668839999999999E-3</v>
+      <c r="C5" s="60">
+        <f>D5</f>
+        <v>2.7959561517409449E-3</v>
+      </c>
+      <c r="D5" s="60">
+        <f>E5</f>
+        <v>2.7959561517409449E-3</v>
       </c>
       <c r="E5" s="60">
-        <v>3.4668839999999999E-3</v>
+        <f>'rail calcs'!C13</f>
+        <v>2.7959561517409449E-3</v>
       </c>
       <c r="F5" s="58">
         <v>0</v>
@@ -35604,12 +39623,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
@@ -35617,6 +39630,12 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="50" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
@@ -38433,11 +42452,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
@@ -38448,6 +42462,11 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{4215E112-E9B1-4A1C-AA81-ED2108378386}"/>
@@ -43322,10 +47341,10 @@
       <c r="AC2" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -48686,8 +52705,8 @@
       <c r="AF80" s="38"/>
     </row>
     <row r="81" spans="1:32" ht="14.65" customHeight="1">
-      <c r="A81" s="96"/>
-      <c r="B81" s="96"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -54441,6 +58460,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
@@ -54453,37 +58503,6 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A148:B148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -57660,11 +61679,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -57677,12 +61697,11 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -57690,12 +61709,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57959,29 +61989,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D73F77-AB54-4E48-8354-CA6FB71EB254}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB40CC4-551F-4602-B09A-217576ED5767}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58007,12 +62029,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB40CC4-551F-4602-B09A-217576ED5767}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D73F77-AB54-4E48-8354-CA6FB71EB254}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -61729,8 +61729,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -61756,6 +61756,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -61856,6 +61857,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -62009,23 +62015,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3FA65A-7C2E-45F9-A631-C955509FEBD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8D4FED-40BD-45E1-B89D-57845E00C3E5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
